--- a/vortex_analysis/index/output.xlsx
+++ b/vortex_analysis/index/output.xlsx
@@ -417,10 +417,10 @@
         <v>6.9934</v>
       </c>
       <c r="C2">
-        <v>3.8372</v>
+        <v>-0.2612</v>
       </c>
       <c r="D2">
-        <v>2.4903</v>
+        <v>-0.1273</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -434,13 +434,13 @@
         <v>6.9934</v>
       </c>
       <c r="C3">
-        <v>3.3331</v>
+        <v>0.5318000000000001</v>
       </c>
       <c r="D3">
-        <v>2.4719</v>
+        <v>-3.5648</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -451,10 +451,10 @@
         <v>6.9934</v>
       </c>
       <c r="C4">
-        <v>0.3819</v>
+        <v>1.2237</v>
       </c>
       <c r="D4">
-        <v>-7.5789</v>
+        <v>13.4632</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -468,13 +468,13 @@
         <v>6.9934</v>
       </c>
       <c r="C5">
-        <v>-0.0137</v>
+        <v>-0.0885</v>
       </c>
       <c r="D5">
-        <v>0.1862</v>
+        <v>0.5109</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -485,13 +485,13 @@
         <v>6.9934</v>
       </c>
       <c r="C6">
-        <v>0.1728</v>
+        <v>0.4867</v>
       </c>
       <c r="D6">
-        <v>-0.1317</v>
+        <v>0.9798</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -502,10 +502,10 @@
         <v>6.9934</v>
       </c>
       <c r="C7">
-        <v>12.2795</v>
+        <v>-7.7671</v>
       </c>
       <c r="D7">
-        <v>-0.4936</v>
+        <v>7.632</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -519,10 +519,10 @@
         <v>6.9934</v>
       </c>
       <c r="C8">
-        <v>0.2766</v>
+        <v>0.5036</v>
       </c>
       <c r="D8">
-        <v>-0.1628</v>
+        <v>1.486</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -536,10 +536,10 @@
         <v>6.9934</v>
       </c>
       <c r="C9">
-        <v>-0.5911999999999999</v>
+        <v>1.1953</v>
       </c>
       <c r="D9">
-        <v>-0.7295</v>
+        <v>1.8903</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -553,13 +553,13 @@
         <v>6.9934</v>
       </c>
       <c r="C10">
-        <v>-1.6686</v>
+        <v>1.8959</v>
       </c>
       <c r="D10">
-        <v>-1.4491</v>
+        <v>0.4989</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -570,10 +570,10 @@
         <v>6.9934</v>
       </c>
       <c r="C11">
-        <v>-10.8964</v>
+        <v>-4.4252</v>
       </c>
       <c r="D11">
-        <v>-5.8108</v>
+        <v>-3.6174</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -587,10 +587,10 @@
         <v>6.9934</v>
       </c>
       <c r="C12">
-        <v>-2.6593</v>
+        <v>0.8368</v>
       </c>
       <c r="D12">
-        <v>-1.0705</v>
+        <v>2.0914</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -604,13 +604,13 @@
         <v>6.9934</v>
       </c>
       <c r="C13">
-        <v>-2.263</v>
+        <v>6.8104</v>
       </c>
       <c r="D13">
-        <v>-0.5032</v>
+        <v>-7.5139</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -621,13 +621,13 @@
         <v>6.9934</v>
       </c>
       <c r="C14">
-        <v>-0.7734</v>
+        <v>-0.6998</v>
       </c>
       <c r="D14">
-        <v>0.4484</v>
+        <v>0.5755</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -638,13 +638,13 @@
         <v>6.9934</v>
       </c>
       <c r="C15">
-        <v>-1.1665</v>
+        <v>-7.7269</v>
       </c>
       <c r="D15">
-        <v>0.1366</v>
+        <v>-7.5628</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -655,10 +655,10 @@
         <v>6.9934</v>
       </c>
       <c r="C16">
-        <v>-0.5074</v>
+        <v>-1.9305</v>
       </c>
       <c r="D16">
-        <v>0.3101</v>
+        <v>0.4337</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -672,10 +672,10 @@
         <v>6.9934</v>
       </c>
       <c r="C17">
-        <v>0.4205</v>
+        <v>-2.3167</v>
       </c>
       <c r="D17">
-        <v>0.5919</v>
+        <v>0.3589</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -689,13 +689,13 @@
         <v>6.9934</v>
       </c>
       <c r="C18">
-        <v>0.4924</v>
+        <v>-2.3343</v>
       </c>
       <c r="D18">
-        <v>1.9168</v>
+        <v>0.2514</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -706,10 +706,10 @@
         <v>6.9934</v>
       </c>
       <c r="C19">
-        <v>0.4232</v>
+        <v>2.5174</v>
       </c>
       <c r="D19">
-        <v>-0.5639</v>
+        <v>-1.2587</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -723,10 +723,10 @@
         <v>6.9934</v>
       </c>
       <c r="C20">
-        <v>0.037</v>
+        <v>-0.8737</v>
       </c>
       <c r="D20">
-        <v>-0.8575</v>
+        <v>1.5252</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -740,13 +740,13 @@
         <v>6.9934</v>
       </c>
       <c r="C21">
-        <v>-0.3991</v>
+        <v>-7.7482</v>
       </c>
       <c r="D21">
-        <v>-1.3839</v>
+        <v>2.2336</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -757,13 +757,13 @@
         <v>6.9934</v>
       </c>
       <c r="C22">
-        <v>-0.1445</v>
+        <v>0.0569</v>
       </c>
       <c r="D22">
-        <v>0.1882</v>
+        <v>2.5381</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -774,10 +774,10 @@
         <v>6.9934</v>
       </c>
       <c r="C23">
-        <v>-0.0825</v>
+        <v>-3.0031</v>
       </c>
       <c r="D23">
-        <v>0.0198</v>
+        <v>-4.5919</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -791,10 +791,10 @@
         <v>6.9934</v>
       </c>
       <c r="C24">
-        <v>-2.6453</v>
+        <v>-0.4244</v>
       </c>
       <c r="D24">
-        <v>-2.4365</v>
+        <v>2.9874</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -808,13 +808,13 @@
         <v>6.9934</v>
       </c>
       <c r="C25">
-        <v>-4.6079</v>
+        <v>-0.7389</v>
       </c>
       <c r="D25">
-        <v>-5.69</v>
+        <v>3.0021</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -825,13 +825,13 @@
         <v>6.9934</v>
       </c>
       <c r="C26">
-        <v>-3.1629</v>
+        <v>-7.6858</v>
       </c>
       <c r="D26">
-        <v>-2.5667</v>
+        <v>10.3157</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -842,10 +842,10 @@
         <v>6.6308</v>
       </c>
       <c r="C27">
-        <v>3.4921</v>
+        <v>-0.618</v>
       </c>
       <c r="D27">
-        <v>2.4889</v>
+        <v>-0.1187</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -859,13 +859,13 @@
         <v>6.6308</v>
       </c>
       <c r="C28">
-        <v>9.5968</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="D28">
-        <v>11.2474</v>
+        <v>-0.512</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -876,10 +876,10 @@
         <v>6.6308</v>
       </c>
       <c r="C29">
-        <v>-0.0279</v>
+        <v>0.1033</v>
       </c>
       <c r="D29">
-        <v>0.4779</v>
+        <v>-1.3345</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -893,10 +893,10 @@
         <v>6.6308</v>
       </c>
       <c r="C30">
-        <v>7.5212</v>
+        <v>-2.607</v>
       </c>
       <c r="D30">
-        <v>2.2215</v>
+        <v>-1.6686</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>6.6308</v>
       </c>
       <c r="C31">
-        <v>0.0823</v>
+        <v>0.1223</v>
       </c>
       <c r="D31">
-        <v>0.4135</v>
+        <v>0.7752</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -927,10 +927,10 @@
         <v>6.6308</v>
       </c>
       <c r="C32">
-        <v>1.7036</v>
+        <v>-0.0432</v>
       </c>
       <c r="D32">
-        <v>0.7264</v>
+        <v>1.6986</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -944,10 +944,10 @@
         <v>6.6308</v>
       </c>
       <c r="C33">
-        <v>3.2121</v>
+        <v>2.6998</v>
       </c>
       <c r="D33">
-        <v>2.6862</v>
+        <v>0.3165</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>6.6308</v>
       </c>
       <c r="C34">
-        <v>-14.0624</v>
+        <v>7.572</v>
       </c>
       <c r="D34">
-        <v>-12.8604</v>
+        <v>10.3342</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -978,10 +978,10 @@
         <v>6.6308</v>
       </c>
       <c r="C35">
-        <v>-0.9376</v>
+        <v>0.7269</v>
       </c>
       <c r="D35">
-        <v>-0.9227</v>
+        <v>2.0709</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -995,13 +995,13 @@
         <v>6.6308</v>
       </c>
       <c r="C36">
-        <v>-2.1238</v>
+        <v>7.7302</v>
       </c>
       <c r="D36">
-        <v>-1.2415</v>
+        <v>-1.0105</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1012,10 +1012,10 @@
         <v>6.6308</v>
       </c>
       <c r="C37">
-        <v>0.765</v>
+        <v>7.0496</v>
       </c>
       <c r="D37">
-        <v>-1.1415</v>
+        <v>0.1385</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1029,13 +1029,13 @@
         <v>6.6308</v>
       </c>
       <c r="C38">
-        <v>-3.9247</v>
+        <v>0.1665</v>
       </c>
       <c r="D38">
-        <v>-1.544</v>
+        <v>1.5595</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1046,13 +1046,13 @@
         <v>6.6308</v>
       </c>
       <c r="C39">
-        <v>-7.5819</v>
+        <v>-0.3683</v>
       </c>
       <c r="D39">
-        <v>0.0859</v>
+        <v>0.8013</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1063,13 +1063,13 @@
         <v>6.6308</v>
       </c>
       <c r="C40">
-        <v>-1.3531</v>
+        <v>-1.2154</v>
       </c>
       <c r="D40">
-        <v>-0.3049</v>
+        <v>0.4825</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1080,13 +1080,13 @@
         <v>6.6308</v>
       </c>
       <c r="C41">
-        <v>-1.1656</v>
+        <v>-1.7033</v>
       </c>
       <c r="D41">
-        <v>-0.0439</v>
+        <v>0.338</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1097,10 +1097,10 @@
         <v>6.6308</v>
       </c>
       <c r="C42">
-        <v>-0.0837</v>
+        <v>-1.647</v>
       </c>
       <c r="D42">
-        <v>0.3281</v>
+        <v>0.1635</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1114,13 +1114,13 @@
         <v>6.6308</v>
       </c>
       <c r="C43">
-        <v>0.0646</v>
+        <v>-1.9834</v>
       </c>
       <c r="D43">
-        <v>-0.3465</v>
+        <v>-0.1488</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1131,10 +1131,10 @@
         <v>6.6308</v>
       </c>
       <c r="C44">
-        <v>0.3593</v>
+        <v>-1.1254</v>
       </c>
       <c r="D44">
-        <v>-0.6508</v>
+        <v>0.7529</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1148,10 +1148,10 @@
         <v>6.6308</v>
       </c>
       <c r="C45">
-        <v>0.3626</v>
+        <v>-0.6876</v>
       </c>
       <c r="D45">
-        <v>-0.9986</v>
+        <v>0.8084</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -1165,13 +1165,13 @@
         <v>6.6308</v>
       </c>
       <c r="C46">
-        <v>0.0491</v>
+        <v>11.975</v>
       </c>
       <c r="D46">
-        <v>-1.4118</v>
+        <v>7.7412</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1182,13 +1182,13 @@
         <v>6.6308</v>
       </c>
       <c r="C47">
-        <v>0.0259</v>
+        <v>0.4252</v>
       </c>
       <c r="D47">
-        <v>0.0521</v>
+        <v>1.7229</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1199,10 +1199,10 @@
         <v>6.6308</v>
       </c>
       <c r="C48">
-        <v>-1.5763</v>
+        <v>-0.0535</v>
       </c>
       <c r="D48">
-        <v>-2.0344</v>
+        <v>1.7196</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1216,10 +1216,10 @@
         <v>6.6308</v>
       </c>
       <c r="C49">
-        <v>-1.9159</v>
+        <v>-0.3473</v>
       </c>
       <c r="D49">
-        <v>-2.272</v>
+        <v>2.0248</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -1233,10 +1233,10 @@
         <v>6.6308</v>
       </c>
       <c r="C50">
-        <v>-7.6311</v>
+        <v>-1.0525</v>
       </c>
       <c r="D50">
-        <v>-1.5021</v>
+        <v>-3.8296</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>6.6308</v>
       </c>
       <c r="C51">
-        <v>-2.8307</v>
+        <v>-1.1532</v>
       </c>
       <c r="D51">
-        <v>-2.152</v>
+        <v>0.8693</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -1267,10 +1267,10 @@
         <v>6.2681</v>
       </c>
       <c r="C52">
-        <v>3.4035</v>
+        <v>-0.1844</v>
       </c>
       <c r="D52">
-        <v>2.3351</v>
+        <v>-0.215</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -1284,10 +1284,10 @@
         <v>6.2681</v>
       </c>
       <c r="C53">
-        <v>2.958</v>
+        <v>0.3217</v>
       </c>
       <c r="D53">
-        <v>2.2923</v>
+        <v>-0.5328000000000001</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -1301,10 +1301,10 @@
         <v>6.2681</v>
       </c>
       <c r="C54">
-        <v>3.2681</v>
+        <v>-0.0058</v>
       </c>
       <c r="D54">
-        <v>2.212</v>
+        <v>0.0403</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -1318,13 +1318,13 @@
         <v>6.2681</v>
       </c>
       <c r="C55">
-        <v>7.7608</v>
+        <v>0.0621</v>
       </c>
       <c r="D55">
-        <v>7.7312</v>
+        <v>0.2128</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1335,10 +1335,10 @@
         <v>6.2681</v>
       </c>
       <c r="C56">
-        <v>2.872</v>
+        <v>7.7212</v>
       </c>
       <c r="D56">
-        <v>7.8173</v>
+        <v>-6.2113</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1352,10 +1352,10 @@
         <v>6.2681</v>
       </c>
       <c r="C57">
-        <v>1.3764</v>
+        <v>0.1922</v>
       </c>
       <c r="D57">
-        <v>0.7544</v>
+        <v>1.5522</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -1369,10 +1369,10 @@
         <v>6.2681</v>
       </c>
       <c r="C58">
-        <v>0.342</v>
+        <v>0.4621</v>
       </c>
       <c r="D58">
-        <v>0.2065</v>
+        <v>1.214</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -1386,13 +1386,13 @@
         <v>6.2681</v>
       </c>
       <c r="C59">
-        <v>0.0365</v>
+        <v>0.838</v>
       </c>
       <c r="D59">
-        <v>-1.5711</v>
+        <v>1.6945</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1403,10 +1403,10 @@
         <v>6.2681</v>
       </c>
       <c r="C60">
-        <v>-1.1198</v>
+        <v>0.6254</v>
       </c>
       <c r="D60">
-        <v>-0.7194</v>
+        <v>2.1037</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -1420,10 +1420,10 @@
         <v>6.2681</v>
       </c>
       <c r="C61">
-        <v>-2.1593</v>
+        <v>1.2296</v>
       </c>
       <c r="D61">
-        <v>-0.9805</v>
+        <v>1.9513</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -1437,13 +1437,13 @@
         <v>6.2681</v>
       </c>
       <c r="C62">
-        <v>-2.3418</v>
+        <v>7.8186</v>
       </c>
       <c r="D62">
-        <v>-1.0204</v>
+        <v>-2.1159</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1454,10 +1454,10 @@
         <v>6.2681</v>
       </c>
       <c r="C63">
-        <v>-7.8856</v>
+        <v>-0.9064</v>
       </c>
       <c r="D63">
-        <v>-7.6211</v>
+        <v>0.5869</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1471,10 +1471,10 @@
         <v>6.2681</v>
       </c>
       <c r="C64">
-        <v>7.7599</v>
+        <v>5.5799</v>
       </c>
       <c r="D64">
-        <v>6.0384</v>
+        <v>13.4932</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>6.2681</v>
       </c>
       <c r="C65">
-        <v>2.5558</v>
+        <v>-7.779</v>
       </c>
       <c r="D65">
-        <v>9.317399999999999</v>
+        <v>9.714700000000001</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1505,10 +1505,10 @@
         <v>6.2681</v>
       </c>
       <c r="C66">
-        <v>-1.0378</v>
+        <v>-7.8308</v>
       </c>
       <c r="D66">
-        <v>-0.7219</v>
+        <v>-3.4258</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>6.2681</v>
       </c>
       <c r="C67">
-        <v>-0.021</v>
+        <v>-13.5374</v>
       </c>
       <c r="D67">
-        <v>0.587</v>
+        <v>-5.349</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1539,13 +1539,13 @@
         <v>6.2681</v>
       </c>
       <c r="C68">
-        <v>1.5811</v>
+        <v>-1.7406</v>
       </c>
       <c r="D68">
-        <v>-4.0586</v>
+        <v>-0.2571</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1556,10 +1556,10 @@
         <v>6.2681</v>
       </c>
       <c r="C69">
-        <v>0.4644</v>
+        <v>-1.1609</v>
       </c>
       <c r="D69">
-        <v>-0.3726</v>
+        <v>0.8269</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -1573,13 +1573,13 @@
         <v>6.2681</v>
       </c>
       <c r="C70">
-        <v>0.0663</v>
+        <v>-0.8609</v>
       </c>
       <c r="D70">
-        <v>-0.0245</v>
+        <v>0.5366</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1590,10 +1590,10 @@
         <v>6.2681</v>
       </c>
       <c r="C71">
-        <v>0.0674</v>
+        <v>-0.2752</v>
       </c>
       <c r="D71">
-        <v>-1.4148</v>
+        <v>1.2467</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -1607,13 +1607,13 @@
         <v>6.2681</v>
       </c>
       <c r="C72">
-        <v>-0.2059</v>
+        <v>-6.8044</v>
       </c>
       <c r="D72">
-        <v>-1.8483</v>
+        <v>14.2652</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1624,10 +1624,10 @@
         <v>6.2681</v>
       </c>
       <c r="C73">
-        <v>-1.2452</v>
+        <v>-0.1851</v>
       </c>
       <c r="D73">
-        <v>-2.4667</v>
+        <v>1.5089</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -1641,10 +1641,10 @@
         <v>6.2681</v>
       </c>
       <c r="C74">
-        <v>-1.6909</v>
+        <v>-0.4044</v>
       </c>
       <c r="D74">
-        <v>-2.5404</v>
+        <v>1.7629</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -1658,10 +1658,10 @@
         <v>6.2681</v>
       </c>
       <c r="C75">
-        <v>-2.0338</v>
+        <v>-0.5827</v>
       </c>
       <c r="D75">
-        <v>-2.2404</v>
+        <v>1.7502</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -1675,13 +1675,13 @@
         <v>6.2681</v>
       </c>
       <c r="C76">
-        <v>-6.4965</v>
+        <v>-1.0459</v>
       </c>
       <c r="D76">
-        <v>-4.9591</v>
+        <v>0.6969</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1692,10 +1692,10 @@
         <v>5.9055</v>
       </c>
       <c r="C77">
-        <v>3.0931</v>
+        <v>-0.081</v>
       </c>
       <c r="D77">
-        <v>2.1092</v>
+        <v>-0.4645</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -1709,10 +1709,10 @@
         <v>5.9055</v>
       </c>
       <c r="C78">
-        <v>2.6677</v>
+        <v>0.3589</v>
       </c>
       <c r="D78">
-        <v>2.0727</v>
+        <v>-0.6758999999999999</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -1726,10 +1726,10 @@
         <v>5.9055</v>
       </c>
       <c r="C79">
-        <v>2.9218</v>
+        <v>0.074</v>
       </c>
       <c r="D79">
-        <v>1.9458</v>
+        <v>-0.0985</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -1743,13 +1743,13 @@
         <v>5.9055</v>
       </c>
       <c r="C80">
-        <v>2.5685</v>
+        <v>-0.0433</v>
       </c>
       <c r="D80">
-        <v>1.9808</v>
+        <v>-7.721</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1760,10 +1760,10 @@
         <v>5.9055</v>
       </c>
       <c r="C81">
-        <v>1.8515</v>
+        <v>0.2553</v>
       </c>
       <c r="D81">
-        <v>1.4153</v>
+        <v>0.7383</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -1777,10 +1777,10 @@
         <v>5.9055</v>
       </c>
       <c r="C82">
-        <v>1.3105</v>
+        <v>0.0166</v>
       </c>
       <c r="D82">
-        <v>0.6877</v>
+        <v>1.6333</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -1794,10 +1794,10 @@
         <v>5.9055</v>
       </c>
       <c r="C83">
-        <v>0.2685</v>
+        <v>0.175</v>
       </c>
       <c r="D83">
-        <v>0.2072</v>
+        <v>1.2957</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -1811,10 +1811,10 @@
         <v>5.9055</v>
       </c>
       <c r="C84">
-        <v>-0.3158</v>
+        <v>0.6514</v>
       </c>
       <c r="D84">
-        <v>-0.1336</v>
+        <v>1.5995</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -1828,13 +1828,13 @@
         <v>5.9055</v>
       </c>
       <c r="C85">
-        <v>-1.0125</v>
+        <v>-7.4399</v>
       </c>
       <c r="D85">
-        <v>-0.5570000000000001</v>
+        <v>14.6665</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1845,10 +1845,10 @@
         <v>5.9055</v>
       </c>
       <c r="C86">
-        <v>-1.9306</v>
+        <v>0.9728</v>
       </c>
       <c r="D86">
-        <v>-0.7246</v>
+        <v>1.8357</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -1862,13 +1862,13 @@
         <v>5.9055</v>
       </c>
       <c r="C87">
-        <v>-0.0762</v>
+        <v>0.722</v>
       </c>
       <c r="D87">
-        <v>0.8732</v>
+        <v>1.7321</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1879,10 +1879,10 @@
         <v>5.9055</v>
       </c>
       <c r="C88">
-        <v>-10.4682</v>
+        <v>1.2555</v>
       </c>
       <c r="D88">
-        <v>-1.262</v>
+        <v>11.1531</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1896,10 +1896,10 @@
         <v>5.9055</v>
       </c>
       <c r="C89">
-        <v>-1.3938</v>
+        <v>-0.0993</v>
       </c>
       <c r="D89">
-        <v>0.0211</v>
+        <v>0.7272999999999999</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -1913,13 +1913,13 @@
         <v>5.9055</v>
       </c>
       <c r="C90">
-        <v>-1.057</v>
+        <v>-4.3751</v>
       </c>
       <c r="D90">
-        <v>0.4966</v>
+        <v>-1.1084</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1930,10 +1930,10 @@
         <v>5.9055</v>
       </c>
       <c r="C91">
-        <v>-0.6273</v>
+        <v>-1.1549</v>
       </c>
       <c r="D91">
-        <v>0.6875</v>
+        <v>0.1547</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -1947,10 +1947,10 @@
         <v>5.9055</v>
       </c>
       <c r="C92">
-        <v>0.2021</v>
+        <v>-1.2103</v>
       </c>
       <c r="D92">
-        <v>0.852</v>
+        <v>0.1154</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -1964,10 +1964,10 @@
         <v>5.9055</v>
       </c>
       <c r="C93">
-        <v>0.5446</v>
+        <v>-1.4351</v>
       </c>
       <c r="D93">
-        <v>0.3336</v>
+        <v>-0.0361</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -1981,13 +1981,13 @@
         <v>5.9055</v>
       </c>
       <c r="C94">
-        <v>11.2391</v>
+        <v>-1.1069</v>
       </c>
       <c r="D94">
-        <v>4.1064</v>
+        <v>0.6335</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1998,10 +1998,10 @@
         <v>5.9055</v>
       </c>
       <c r="C95">
-        <v>0.3648</v>
+        <v>-0.922</v>
       </c>
       <c r="D95">
-        <v>-0.5268</v>
+        <v>0.2344</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -2015,13 +2015,13 @@
         <v>5.9055</v>
       </c>
       <c r="C96">
-        <v>-14.1922</v>
+        <v>-0.4079</v>
       </c>
       <c r="D96">
-        <v>-12.1016</v>
+        <v>0.844</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2032,10 +2032,10 @@
         <v>5.9055</v>
       </c>
       <c r="C97">
-        <v>0.0759</v>
+        <v>11.6337</v>
       </c>
       <c r="D97">
-        <v>-0.1018</v>
+        <v>13.6451</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>5.9055</v>
       </c>
       <c r="C98">
-        <v>-0.9029</v>
+        <v>-0.1686</v>
       </c>
       <c r="D98">
-        <v>-2.1326</v>
+        <v>0.8494</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -2066,10 +2066,10 @@
         <v>5.9055</v>
       </c>
       <c r="C99">
-        <v>-1.3692</v>
+        <v>-0.3377</v>
       </c>
       <c r="D99">
-        <v>-2.5072</v>
+        <v>1.0249</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -2083,10 +2083,10 @@
         <v>5.9055</v>
       </c>
       <c r="C100">
-        <v>-1.6756</v>
+        <v>-0.4473</v>
       </c>
       <c r="D100">
-        <v>-2.3104</v>
+        <v>0.8723</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -2100,10 +2100,10 @@
         <v>5.9055</v>
       </c>
       <c r="C101">
-        <v>-2.2092</v>
+        <v>-0.8165</v>
       </c>
       <c r="D101">
-        <v>-2.7096</v>
+        <v>-0.2307</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -2117,13 +2117,13 @@
         <v>5.5429</v>
       </c>
       <c r="C102">
-        <v>3.5519</v>
+        <v>-0.0293</v>
       </c>
       <c r="D102">
-        <v>4.4903</v>
+        <v>-1.2722</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2134,10 +2134,10 @@
         <v>5.5429</v>
       </c>
       <c r="C103">
-        <v>2.14</v>
+        <v>0.3614</v>
       </c>
       <c r="D103">
-        <v>1.4304</v>
+        <v>-1.3729</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -2151,13 +2151,13 @@
         <v>5.5429</v>
       </c>
       <c r="C104">
-        <v>1.8661</v>
+        <v>-7.6704</v>
       </c>
       <c r="D104">
-        <v>1.6725</v>
+        <v>7.629</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2168,10 +2168,10 @@
         <v>5.5429</v>
       </c>
       <c r="C105">
-        <v>1.6566</v>
+        <v>0.2893</v>
       </c>
       <c r="D105">
-        <v>1.9023</v>
+        <v>-0.5211</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -2185,13 +2185,13 @@
         <v>5.5429</v>
       </c>
       <c r="C106">
-        <v>1.3302</v>
+        <v>4.2319</v>
       </c>
       <c r="D106">
-        <v>1.6826</v>
+        <v>-7.717</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2202,13 +2202,13 @@
         <v>5.5429</v>
       </c>
       <c r="C107">
-        <v>8.703099999999999</v>
+        <v>0.0514</v>
       </c>
       <c r="D107">
-        <v>7.7257</v>
+        <v>1.0155</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2219,10 +2219,10 @@
         <v>5.5429</v>
       </c>
       <c r="C108">
-        <v>13.3366</v>
+        <v>-0.9748</v>
       </c>
       <c r="D108">
-        <v>8.518599999999999</v>
+        <v>2.5897</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         <v>5.5429</v>
       </c>
       <c r="C109">
-        <v>0.14</v>
+        <v>-4.7456</v>
       </c>
       <c r="D109">
-        <v>-1.0406</v>
+        <v>1.9115</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>5.5429</v>
       </c>
       <c r="C110">
-        <v>-1.0606</v>
+        <v>0.2198</v>
       </c>
       <c r="D110">
-        <v>0.4405</v>
+        <v>2.2551</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -2270,10 +2270,10 @@
         <v>5.5429</v>
       </c>
       <c r="C111">
-        <v>-4.7364</v>
+        <v>-0.2869</v>
       </c>
       <c r="D111">
-        <v>-7.7028</v>
+        <v>-0.0081</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>5.5429</v>
       </c>
       <c r="C112">
-        <v>-1.3592</v>
+        <v>0.4694</v>
       </c>
       <c r="D112">
-        <v>-0.2263</v>
+        <v>2.4355</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -2304,10 +2304,10 @@
         <v>5.5429</v>
       </c>
       <c r="C113">
-        <v>-0.5381</v>
+        <v>-1.0246</v>
       </c>
       <c r="D113">
-        <v>0.8048</v>
+        <v>-0.3782</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>5.5429</v>
       </c>
       <c r="C114">
-        <v>-11.6441</v>
+        <v>11.2245</v>
       </c>
       <c r="D114">
-        <v>-7.6612</v>
+        <v>5.3618</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -2338,10 +2338,10 @@
         <v>5.5429</v>
       </c>
       <c r="C115">
-        <v>-1.2155</v>
+        <v>-0.746</v>
       </c>
       <c r="D115">
-        <v>1.0603</v>
+        <v>0.9234</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -2355,10 +2355,10 @@
         <v>5.5429</v>
       </c>
       <c r="C116">
-        <v>-0.8524</v>
+        <v>-1.2165</v>
       </c>
       <c r="D116">
-        <v>1.2476</v>
+        <v>0.8023</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -2372,13 +2372,13 @@
         <v>5.5429</v>
       </c>
       <c r="C117">
-        <v>-1.2682</v>
+        <v>-1.0427</v>
       </c>
       <c r="D117">
-        <v>-0.2284</v>
+        <v>0.6464</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2389,10 +2389,10 @@
         <v>5.5429</v>
       </c>
       <c r="C118">
-        <v>-1.3521</v>
+        <v>-12.5969</v>
       </c>
       <c r="D118">
-        <v>0.0636</v>
+        <v>-8.2117</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -2406,13 +2406,13 @@
         <v>5.5429</v>
       </c>
       <c r="C119">
-        <v>0.4903</v>
+        <v>0.5542</v>
       </c>
       <c r="D119">
-        <v>0.3433</v>
+        <v>-0.9347</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2423,13 +2423,13 @@
         <v>5.5429</v>
       </c>
       <c r="C120">
-        <v>0.6318</v>
+        <v>11.7576</v>
       </c>
       <c r="D120">
-        <v>-0.4509</v>
+        <v>-4.391</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2440,10 +2440,10 @@
         <v>5.5429</v>
       </c>
       <c r="C121">
-        <v>12.059</v>
+        <v>-0.0539</v>
       </c>
       <c r="D121">
-        <v>-7.7749</v>
+        <v>-2.5617</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -2457,13 +2457,13 @@
         <v>5.5429</v>
       </c>
       <c r="C122">
-        <v>-0.0391</v>
+        <v>-0.1196</v>
       </c>
       <c r="D122">
-        <v>0.0645</v>
+        <v>0.9196</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2474,10 +2474,10 @@
         <v>5.5429</v>
       </c>
       <c r="C123">
-        <v>-0.1271</v>
+        <v>-0.0201</v>
       </c>
       <c r="D123">
-        <v>-2.5139</v>
+        <v>0.2826</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -2491,13 +2491,13 @@
         <v>5.5429</v>
       </c>
       <c r="C124">
-        <v>-0.0294</v>
+        <v>-0.1914</v>
       </c>
       <c r="D124">
-        <v>0.0452</v>
+        <v>0.2741</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2508,10 +2508,10 @@
         <v>5.5429</v>
       </c>
       <c r="C125">
-        <v>0.08989999999999999</v>
+        <v>-1.6726</v>
       </c>
       <c r="D125">
-        <v>0.0137</v>
+        <v>-2.8554</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -2525,13 +2525,13 @@
         <v>5.5429</v>
       </c>
       <c r="C126">
-        <v>-6.3248</v>
+        <v>-0.7216</v>
       </c>
       <c r="D126">
-        <v>1.2025</v>
+        <v>-1.1857</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2542,10 +2542,10 @@
         <v>5.1803</v>
       </c>
       <c r="C127">
-        <v>1.5799</v>
+        <v>0.5936</v>
       </c>
       <c r="D127">
-        <v>0.1381</v>
+        <v>-1.2305</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -2559,13 +2559,13 @@
         <v>5.1803</v>
       </c>
       <c r="C128">
-        <v>0.454</v>
+        <v>1.0647</v>
       </c>
       <c r="D128">
-        <v>3.967</v>
+        <v>-1.0286</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2576,13 +2576,13 @@
         <v>5.1803</v>
       </c>
       <c r="C129">
-        <v>10.042</v>
+        <v>1.0395</v>
       </c>
       <c r="D129">
-        <v>4.8639</v>
+        <v>-0.4151</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2593,13 +2593,13 @@
         <v>5.1803</v>
       </c>
       <c r="C130">
-        <v>0.4311</v>
+        <v>1.1993</v>
       </c>
       <c r="D130">
-        <v>-1.2143</v>
+        <v>-0.3359</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2610,10 +2610,10 @@
         <v>5.1803</v>
       </c>
       <c r="C131">
-        <v>0.9272</v>
+        <v>0.8814</v>
       </c>
       <c r="D131">
-        <v>1.3953</v>
+        <v>-0.0134</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -2627,10 +2627,10 @@
         <v>5.1803</v>
       </c>
       <c r="C132">
-        <v>0.8391999999999999</v>
+        <v>0.5437</v>
       </c>
       <c r="D132">
-        <v>1.203</v>
+        <v>0.8932</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -2644,13 +2644,13 @@
         <v>5.1803</v>
       </c>
       <c r="C133">
-        <v>-14.6354</v>
+        <v>0.6165</v>
       </c>
       <c r="D133">
-        <v>2.418</v>
+        <v>1.1139</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2661,13 +2661,13 @@
         <v>5.1803</v>
       </c>
       <c r="C134">
-        <v>0.2593</v>
+        <v>0.6257</v>
       </c>
       <c r="D134">
-        <v>-1.4239</v>
+        <v>1.8211</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2678,13 +2678,13 @@
         <v>5.1803</v>
       </c>
       <c r="C135">
-        <v>0.3505</v>
+        <v>0.1882</v>
       </c>
       <c r="D135">
-        <v>-0.8102</v>
+        <v>2.0586</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2695,10 +2695,10 @@
         <v>5.1803</v>
       </c>
       <c r="C136">
-        <v>0.0764</v>
+        <v>0.4434</v>
       </c>
       <c r="D136">
-        <v>-0.5570000000000001</v>
+        <v>5.4398</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         <v>5.1803</v>
       </c>
       <c r="C137">
-        <v>-0.4518</v>
+        <v>0.0216</v>
       </c>
       <c r="D137">
-        <v>-0.0575</v>
+        <v>2.2413</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2729,13 +2729,13 @@
         <v>5.1803</v>
       </c>
       <c r="C138">
-        <v>-1.1855</v>
+        <v>-1.4336</v>
       </c>
       <c r="D138">
-        <v>1.054</v>
+        <v>0.8187</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2746,13 +2746,13 @@
         <v>5.1803</v>
       </c>
       <c r="C139">
-        <v>-1.2261</v>
+        <v>-0.7923</v>
       </c>
       <c r="D139">
-        <v>1.2006</v>
+        <v>-8.9918</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2763,13 +2763,13 @@
         <v>5.1803</v>
       </c>
       <c r="C140">
-        <v>-1.1348</v>
+        <v>5.202</v>
       </c>
       <c r="D140">
-        <v>1.5488</v>
+        <v>-12.4531</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2780,10 +2780,10 @@
         <v>5.1803</v>
       </c>
       <c r="C141">
-        <v>6.8568</v>
+        <v>2.8398</v>
       </c>
       <c r="D141">
-        <v>12.3357</v>
+        <v>14.678</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -2797,10 +2797,10 @@
         <v>5.1803</v>
       </c>
       <c r="C142">
-        <v>-1.1584</v>
+        <v>-3.5694</v>
       </c>
       <c r="D142">
-        <v>-0.0227</v>
+        <v>-12.1222</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -2814,10 +2814,10 @@
         <v>5.1803</v>
       </c>
       <c r="C143">
-        <v>-7.8009</v>
+        <v>-3.0146</v>
       </c>
       <c r="D143">
-        <v>5.9719</v>
+        <v>0.6642</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -2831,10 +2831,10 @@
         <v>5.1803</v>
       </c>
       <c r="C144">
-        <v>-0.0451</v>
+        <v>-1.3209</v>
       </c>
       <c r="D144">
-        <v>0.7159</v>
+        <v>0.8754999999999999</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -2848,13 +2848,13 @@
         <v>5.1803</v>
       </c>
       <c r="C145">
-        <v>6.2691</v>
+        <v>-1.1945</v>
       </c>
       <c r="D145">
-        <v>-9.1059</v>
+        <v>0.5308</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2865,10 +2865,10 @@
         <v>5.1803</v>
       </c>
       <c r="C146">
-        <v>0.5682</v>
+        <v>-1.0551</v>
       </c>
       <c r="D146">
-        <v>-1.0441</v>
+        <v>1.1421</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -2882,10 +2882,10 @@
         <v>5.1803</v>
       </c>
       <c r="C147">
-        <v>0.623</v>
+        <v>-0.5569</v>
       </c>
       <c r="D147">
-        <v>-1.7092</v>
+        <v>1.0514</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -2899,13 +2899,13 @@
         <v>5.1803</v>
       </c>
       <c r="C148">
-        <v>0.1222</v>
+        <v>-0.3869</v>
       </c>
       <c r="D148">
-        <v>0.0554</v>
+        <v>0.3652</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2916,10 +2916,10 @@
         <v>5.1803</v>
       </c>
       <c r="C149">
-        <v>-0.2332</v>
+        <v>-0.5822000000000001</v>
       </c>
       <c r="D149">
-        <v>-3.2406</v>
+        <v>0.372</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -2933,10 +2933,10 @@
         <v>5.1803</v>
       </c>
       <c r="C150">
-        <v>-0.3579</v>
+        <v>-0.4749</v>
       </c>
       <c r="D150">
-        <v>-2.8458</v>
+        <v>0.4259</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -2950,10 +2950,10 @@
         <v>5.1803</v>
       </c>
       <c r="C151">
-        <v>-5.7574</v>
+        <v>-0.972</v>
       </c>
       <c r="D151">
-        <v>-11.8885</v>
+        <v>-2.795</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -2967,13 +2967,13 @@
         <v>4.8177</v>
       </c>
       <c r="C152">
-        <v>0.9298999999999999</v>
+        <v>7.7513</v>
       </c>
       <c r="D152">
-        <v>-0.1393</v>
+        <v>-7.6445</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2984,10 +2984,10 @@
         <v>4.8177</v>
       </c>
       <c r="C153">
-        <v>-3.5717</v>
+        <v>0.4886</v>
       </c>
       <c r="D153">
-        <v>6.7646</v>
+        <v>-7.6183</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -3001,13 +3001,13 @@
         <v>4.8177</v>
       </c>
       <c r="C154">
-        <v>7.6075</v>
+        <v>0.9807</v>
       </c>
       <c r="D154">
-        <v>-0.0183</v>
+        <v>-0.57</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3018,10 +3018,10 @@
         <v>4.8177</v>
       </c>
       <c r="C155">
-        <v>0.4981</v>
+        <v>-7.6412</v>
       </c>
       <c r="D155">
-        <v>-1.6794</v>
+        <v>7.6784</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -3035,10 +3035,10 @@
         <v>4.8177</v>
       </c>
       <c r="C156">
-        <v>0.2735</v>
+        <v>0.7683</v>
       </c>
       <c r="D156">
-        <v>1.2044</v>
+        <v>0.0162</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -3052,13 +3052,13 @@
         <v>4.8177</v>
       </c>
       <c r="C157">
-        <v>0.4362</v>
+        <v>0.5528</v>
       </c>
       <c r="D157">
-        <v>-1.6834</v>
+        <v>1.0734</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3069,10 +3069,10 @@
         <v>4.8177</v>
       </c>
       <c r="C158">
-        <v>-0.3643</v>
+        <v>0.5747</v>
       </c>
       <c r="D158">
-        <v>1.2774</v>
+        <v>1.3363</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -3086,10 +3086,10 @@
         <v>4.8177</v>
       </c>
       <c r="C159">
-        <v>-0.2439</v>
+        <v>0.3641</v>
       </c>
       <c r="D159">
-        <v>1.3717</v>
+        <v>2.012</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -3103,13 +3103,13 @@
         <v>4.8177</v>
       </c>
       <c r="C160">
-        <v>-0.6066</v>
+        <v>-3.2148</v>
       </c>
       <c r="D160">
-        <v>1.2875</v>
+        <v>0.5958</v>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3120,10 +3120,10 @@
         <v>4.8177</v>
       </c>
       <c r="C161">
-        <v>-0.004</v>
+        <v>-2.0159</v>
       </c>
       <c r="D161">
-        <v>-0.5505</v>
+        <v>-2.5986</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -3137,13 +3137,13 @@
         <v>4.8177</v>
       </c>
       <c r="C162">
-        <v>-0.1479</v>
+        <v>0.2146</v>
       </c>
       <c r="D162">
-        <v>-0.6228</v>
+        <v>2.1166</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3154,13 +3154,13 @@
         <v>4.8177</v>
       </c>
       <c r="C163">
-        <v>-1.166</v>
+        <v>3.4925</v>
       </c>
       <c r="D163">
-        <v>1.1359</v>
+        <v>-5.864</v>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3171,10 +3171,10 @@
         <v>4.8177</v>
       </c>
       <c r="C164">
-        <v>-0.8865</v>
+        <v>-3.0347</v>
       </c>
       <c r="D164">
-        <v>1.0676</v>
+        <v>8.904999999999999</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -3188,10 +3188,10 @@
         <v>4.8177</v>
       </c>
       <c r="C165">
-        <v>11.3089</v>
+        <v>7.8499</v>
       </c>
       <c r="D165">
-        <v>-4.3075</v>
+        <v>13.9265</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -3205,10 +3205,10 @@
         <v>4.8177</v>
       </c>
       <c r="C166">
-        <v>-1.4897</v>
+        <v>-0.2983</v>
       </c>
       <c r="D166">
-        <v>1.9695</v>
+        <v>0.5117</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -3222,10 +3222,10 @@
         <v>4.8177</v>
       </c>
       <c r="C167">
-        <v>-1.0229</v>
+        <v>-0.5506</v>
       </c>
       <c r="D167">
-        <v>2.2162</v>
+        <v>0.3215</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -3239,10 +3239,10 @@
         <v>4.8177</v>
       </c>
       <c r="C168">
-        <v>-1.4239</v>
+        <v>-2.2113</v>
       </c>
       <c r="D168">
-        <v>0.575</v>
+        <v>-4.8257</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -3256,13 +3256,13 @@
         <v>4.8177</v>
       </c>
       <c r="C169">
-        <v>-0.3229</v>
+        <v>-0.1926</v>
       </c>
       <c r="D169">
-        <v>1.4598</v>
+        <v>-1.0106</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3273,10 +3273,10 @@
         <v>4.8177</v>
       </c>
       <c r="C170">
-        <v>4.6907</v>
+        <v>-0.8614000000000001</v>
       </c>
       <c r="D170">
-        <v>12.9536</v>
+        <v>-1.3315</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>4.8177</v>
       </c>
       <c r="C171">
-        <v>0.4682</v>
+        <v>-1.1421</v>
       </c>
       <c r="D171">
-        <v>-0.3079</v>
+        <v>0.968</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -3307,10 +3307,10 @@
         <v>4.8177</v>
       </c>
       <c r="C172">
-        <v>0.6514</v>
+        <v>-0.6325</v>
       </c>
       <c r="D172">
-        <v>-1.0821</v>
+        <v>0.7524</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -3324,13 +3324,13 @@
         <v>4.8177</v>
       </c>
       <c r="C173">
-        <v>0.2188</v>
+        <v>-3.5866</v>
       </c>
       <c r="D173">
-        <v>-2.0399</v>
+        <v>-6.8669</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3341,10 +3341,10 @@
         <v>4.8177</v>
       </c>
       <c r="C174">
-        <v>0.0687</v>
+        <v>-0.3944</v>
       </c>
       <c r="D174">
-        <v>-2.7839</v>
+        <v>-0.009900000000000001</v>
       </c>
       <c r="E174">
         <v>1</v>
@@ -3358,13 +3358,13 @@
         <v>4.8177</v>
       </c>
       <c r="C175">
-        <v>0.0227</v>
+        <v>7.6557</v>
       </c>
       <c r="D175">
-        <v>-2.3851</v>
+        <v>-14.0484</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3375,10 +3375,10 @@
         <v>4.8177</v>
       </c>
       <c r="C176">
-        <v>-0.1699</v>
+        <v>-1.0761</v>
       </c>
       <c r="D176">
-        <v>-2.8765</v>
+        <v>-1.3172</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -3392,13 +3392,13 @@
         <v>4.455</v>
       </c>
       <c r="C177">
-        <v>-14.1217</v>
+        <v>1.1018</v>
       </c>
       <c r="D177">
-        <v>-12.0147</v>
+        <v>-1.8776</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3409,13 +3409,13 @@
         <v>4.455</v>
       </c>
       <c r="C178">
-        <v>-6.4475</v>
+        <v>1.2953</v>
       </c>
       <c r="D178">
-        <v>-7.7615</v>
+        <v>-1.4655</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3426,13 +3426,13 @@
         <v>4.455</v>
       </c>
       <c r="C179">
-        <v>8.632199999999999</v>
+        <v>0.9858</v>
       </c>
       <c r="D179">
-        <v>-1.9917</v>
+        <v>-1.1668</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3443,10 +3443,10 @@
         <v>4.455</v>
       </c>
       <c r="C180">
-        <v>0.844</v>
+        <v>0.3917</v>
       </c>
       <c r="D180">
-        <v>-1.5663</v>
+        <v>-7.6587</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -3460,13 +3460,13 @@
         <v>4.455</v>
       </c>
       <c r="C181">
-        <v>0.5171</v>
+        <v>0.5748</v>
       </c>
       <c r="D181">
-        <v>-1.8038</v>
+        <v>-0.3466</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3477,13 +3477,13 @@
         <v>4.455</v>
       </c>
       <c r="C182">
-        <v>-13.5882</v>
+        <v>0.6109</v>
       </c>
       <c r="D182">
-        <v>10.508</v>
+        <v>0.7559</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3494,13 +3494,13 @@
         <v>4.455</v>
       </c>
       <c r="C183">
-        <v>0.4658</v>
+        <v>0.5871</v>
       </c>
       <c r="D183">
-        <v>7.6535</v>
+        <v>1.0528</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3511,10 +3511,10 @@
         <v>4.455</v>
       </c>
       <c r="C184">
-        <v>0.0474</v>
+        <v>0.3039</v>
       </c>
       <c r="D184">
-        <v>1.4878</v>
+        <v>1.6591</v>
       </c>
       <c r="E184">
         <v>1</v>
@@ -3528,10 +3528,10 @@
         <v>4.455</v>
       </c>
       <c r="C185">
-        <v>-0.2301</v>
+        <v>0.277</v>
       </c>
       <c r="D185">
-        <v>1.3603</v>
+        <v>1.8652</v>
       </c>
       <c r="E185">
         <v>1</v>
@@ -3545,10 +3545,10 @@
         <v>4.455</v>
       </c>
       <c r="C186">
-        <v>5.3446</v>
+        <v>-0.9932</v>
       </c>
       <c r="D186">
-        <v>13.5697</v>
+        <v>5.0245</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>4.455</v>
       </c>
       <c r="C187">
-        <v>-1.5569</v>
+        <v>-10.6446</v>
       </c>
       <c r="D187">
-        <v>1.5127</v>
+        <v>11.2553</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -3579,13 +3579,13 @@
         <v>4.455</v>
       </c>
       <c r="C188">
-        <v>-1.0322</v>
+        <v>-3.2948</v>
       </c>
       <c r="D188">
-        <v>1.3785</v>
+        <v>1.958</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3596,10 +3596,10 @@
         <v>4.455</v>
       </c>
       <c r="C189">
-        <v>-1.6311</v>
+        <v>0.5915</v>
       </c>
       <c r="D189">
-        <v>1.5558</v>
+        <v>0.8527</v>
       </c>
       <c r="E189">
         <v>1</v>
@@ -3613,13 +3613,13 @@
         <v>4.455</v>
       </c>
       <c r="C190">
-        <v>-0.7223000000000001</v>
+        <v>0.1044</v>
       </c>
       <c r="D190">
-        <v>0.7010999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3630,13 +3630,13 @@
         <v>4.455</v>
       </c>
       <c r="C191">
-        <v>-11.0744</v>
+        <v>-0.1207</v>
       </c>
       <c r="D191">
-        <v>8.599299999999999</v>
+        <v>0.1461</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3647,10 +3647,10 @@
         <v>4.455</v>
       </c>
       <c r="C192">
-        <v>-1.9967</v>
+        <v>-0.5154</v>
       </c>
       <c r="D192">
-        <v>2.3833</v>
+        <v>0.0619</v>
       </c>
       <c r="E192">
         <v>1</v>
@@ -3664,10 +3664,10 @@
         <v>4.455</v>
       </c>
       <c r="C193">
-        <v>3.0187</v>
+        <v>1.2584</v>
       </c>
       <c r="D193">
-        <v>14.5317</v>
+        <v>5.1789</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -3681,13 +3681,13 @@
         <v>4.455</v>
       </c>
       <c r="C194">
-        <v>-0.763</v>
+        <v>-13.6905</v>
       </c>
       <c r="D194">
-        <v>1.6958</v>
+        <v>11.2698</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3698,10 +3698,10 @@
         <v>4.455</v>
       </c>
       <c r="C195">
-        <v>-1.6304</v>
+        <v>0.4189</v>
       </c>
       <c r="D195">
-        <v>0.3476</v>
+        <v>7.5702</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>4.455</v>
       </c>
       <c r="C196">
-        <v>14.113</v>
+        <v>-1.6311</v>
       </c>
       <c r="D196">
-        <v>-12.4942</v>
+        <v>0.9761</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3732,10 +3732,10 @@
         <v>4.455</v>
       </c>
       <c r="C197">
-        <v>0.8407</v>
+        <v>-1.1107</v>
       </c>
       <c r="D197">
-        <v>-0.6765</v>
+        <v>0.7514999999999999</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -3749,10 +3749,10 @@
         <v>4.455</v>
       </c>
       <c r="C198">
-        <v>0.7274</v>
+        <v>-0.8985</v>
       </c>
       <c r="D198">
-        <v>-1.4684</v>
+        <v>0.0387</v>
       </c>
       <c r="E198">
         <v>1</v>
@@ -3766,10 +3766,10 @@
         <v>4.455</v>
       </c>
       <c r="C199">
-        <v>9.191000000000001</v>
+        <v>-7.7355</v>
       </c>
       <c r="D199">
-        <v>-12.9941</v>
+        <v>-5.5708</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -3783,10 +3783,10 @@
         <v>4.455</v>
       </c>
       <c r="C200">
-        <v>0.3853</v>
+        <v>-0.6858</v>
       </c>
       <c r="D200">
-        <v>-2.0025</v>
+        <v>-0.2467</v>
       </c>
       <c r="E200">
         <v>1</v>
@@ -3800,13 +3800,13 @@
         <v>4.455</v>
       </c>
       <c r="C201">
-        <v>0.2473</v>
+        <v>-1.1275</v>
       </c>
       <c r="D201">
-        <v>-2.4118</v>
+        <v>-2.624</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3817,10 +3817,10 @@
         <v>4.0924</v>
       </c>
       <c r="C202">
-        <v>7.5308</v>
+        <v>7.8847</v>
       </c>
       <c r="D202">
-        <v>-7.6771</v>
+        <v>7.6023</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -3834,10 +3834,10 @@
         <v>4.0924</v>
       </c>
       <c r="C203">
-        <v>0.6526999999999999</v>
+        <v>1.7605</v>
       </c>
       <c r="D203">
-        <v>1.2727</v>
+        <v>-1.8259</v>
       </c>
       <c r="E203">
         <v>1</v>
@@ -3851,13 +3851,13 @@
         <v>4.0924</v>
       </c>
       <c r="C204">
-        <v>-10.4018</v>
+        <v>1.4582</v>
       </c>
       <c r="D204">
-        <v>-12.8279</v>
+        <v>-1.4354</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3868,10 +3868,10 @@
         <v>4.0924</v>
       </c>
       <c r="C205">
-        <v>-0.2072</v>
+        <v>1.7829</v>
       </c>
       <c r="D205">
-        <v>1.6712</v>
+        <v>-1.4807</v>
       </c>
       <c r="E205">
         <v>1</v>
@@ -3885,13 +3885,13 @@
         <v>4.0924</v>
       </c>
       <c r="C206">
-        <v>-0.4587</v>
+        <v>7.1965</v>
       </c>
       <c r="D206">
-        <v>2.0694</v>
+        <v>12.0859</v>
       </c>
       <c r="E206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3902,10 +3902,10 @@
         <v>4.0924</v>
       </c>
       <c r="C207">
-        <v>0.6402</v>
+        <v>7.6156</v>
       </c>
       <c r="D207">
-        <v>-1.8594</v>
+        <v>7.6828</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -3919,13 +3919,13 @@
         <v>4.0924</v>
       </c>
       <c r="C208">
-        <v>-0.4259</v>
+        <v>14.6437</v>
       </c>
       <c r="D208">
-        <v>1.7519</v>
+        <v>-7.8855</v>
       </c>
       <c r="E208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -3936,10 +3936,10 @@
         <v>4.0924</v>
       </c>
       <c r="C209">
-        <v>0.2592</v>
+        <v>-1.5586</v>
       </c>
       <c r="D209">
-        <v>-1.1619</v>
+        <v>0.0814</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -3953,13 +3953,13 @@
         <v>4.0924</v>
       </c>
       <c r="C210">
-        <v>0.0639</v>
+        <v>0.6991000000000001</v>
       </c>
       <c r="D210">
-        <v>0.1257</v>
+        <v>2.1579</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -3970,13 +3970,13 @@
         <v>4.0924</v>
       </c>
       <c r="C211">
-        <v>-7.1167</v>
+        <v>0.8734</v>
       </c>
       <c r="D211">
-        <v>1.1736</v>
+        <v>1.846</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -3987,13 +3987,13 @@
         <v>4.0924</v>
       </c>
       <c r="C212">
-        <v>7.5529</v>
+        <v>0.7879</v>
       </c>
       <c r="D212">
-        <v>4.4659</v>
+        <v>2.1049</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4004,13 +4004,13 @@
         <v>4.0924</v>
       </c>
       <c r="C213">
-        <v>-0.5538</v>
+        <v>0.8381</v>
       </c>
       <c r="D213">
-        <v>0.7469</v>
+        <v>1.9368</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4021,10 +4021,10 @@
         <v>4.0924</v>
       </c>
       <c r="C214">
-        <v>-6.7037</v>
+        <v>-2.3079</v>
       </c>
       <c r="D214">
-        <v>5.6123</v>
+        <v>-2.5119</v>
       </c>
       <c r="E214">
         <v>0</v>
@@ -4038,10 +4038,10 @@
         <v>4.0924</v>
       </c>
       <c r="C215">
-        <v>-1.7463</v>
+        <v>0.2201</v>
       </c>
       <c r="D215">
-        <v>2.4372</v>
+        <v>0.8427</v>
       </c>
       <c r="E215">
         <v>1</v>
@@ -4055,13 +4055,13 @@
         <v>4.0924</v>
       </c>
       <c r="C216">
-        <v>-2.2466</v>
+        <v>-3.1215</v>
       </c>
       <c r="D216">
-        <v>2.6573</v>
+        <v>0.5778</v>
       </c>
       <c r="E216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4072,10 +4072,10 @@
         <v>4.0924</v>
       </c>
       <c r="C217">
-        <v>-1.6365</v>
+        <v>-2.9477</v>
       </c>
       <c r="D217">
-        <v>1.0415</v>
+        <v>-1.1057</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -4089,10 +4089,10 @@
         <v>4.0924</v>
       </c>
       <c r="C218">
-        <v>-1.9955</v>
+        <v>-1.3105</v>
       </c>
       <c r="D218">
-        <v>2.6799</v>
+        <v>0.8411</v>
       </c>
       <c r="E218">
         <v>1</v>
@@ -4106,13 +4106,13 @@
         <v>4.0924</v>
       </c>
       <c r="C219">
-        <v>-5.4448</v>
+        <v>-1.5973</v>
       </c>
       <c r="D219">
-        <v>7.7421</v>
+        <v>1.3753</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4123,13 +4123,13 @@
         <v>4.0924</v>
       </c>
       <c r="C220">
-        <v>-1.1403</v>
+        <v>-1.6496</v>
       </c>
       <c r="D220">
-        <v>1.0651</v>
+        <v>0.9673</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4140,10 +4140,10 @@
         <v>4.0924</v>
       </c>
       <c r="C221">
-        <v>-11.8828</v>
+        <v>-2.9716</v>
       </c>
       <c r="D221">
-        <v>-1.7976</v>
+        <v>-2.775</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -4157,13 +4157,13 @@
         <v>4.0924</v>
       </c>
       <c r="C222">
-        <v>0.2586</v>
+        <v>7.9655</v>
       </c>
       <c r="D222">
-        <v>0.0396</v>
+        <v>7.6504</v>
       </c>
       <c r="E222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4174,10 +4174,10 @@
         <v>4.0924</v>
       </c>
       <c r="C223">
-        <v>7.8178</v>
+        <v>-2.8146</v>
       </c>
       <c r="D223">
-        <v>-7.7492</v>
+        <v>0.6139</v>
       </c>
       <c r="E223">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>4.0924</v>
       </c>
       <c r="C224">
-        <v>0.3251</v>
+        <v>-7.8055</v>
       </c>
       <c r="D224">
-        <v>-1.4412</v>
+        <v>13.0778</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4208,13 +4208,13 @@
         <v>4.0924</v>
       </c>
       <c r="C225">
-        <v>0.0954</v>
+        <v>-0.8215</v>
       </c>
       <c r="D225">
-        <v>0.0477</v>
+        <v>0.1858</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4225,10 +4225,10 @@
         <v>4.0924</v>
       </c>
       <c r="C226">
-        <v>-2.676</v>
+        <v>-1.0045</v>
       </c>
       <c r="D226">
-        <v>-7.6228</v>
+        <v>-1.7505</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -4242,13 +4242,13 @@
         <v>3.7298</v>
       </c>
       <c r="C227">
-        <v>0.4221</v>
+        <v>2.2194</v>
       </c>
       <c r="D227">
-        <v>2.1189</v>
+        <v>-7.6419</v>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4259,13 +4259,13 @@
         <v>3.7298</v>
       </c>
       <c r="C228">
-        <v>0.6173</v>
+        <v>-5.632</v>
       </c>
       <c r="D228">
-        <v>2.0553</v>
+        <v>-7.7209</v>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4276,10 +4276,10 @@
         <v>3.7298</v>
       </c>
       <c r="C229">
-        <v>0.3194</v>
+        <v>1.2989</v>
       </c>
       <c r="D229">
-        <v>2.0385</v>
+        <v>-1.143</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -4293,13 +4293,13 @@
         <v>3.7298</v>
       </c>
       <c r="C230">
-        <v>0.17</v>
+        <v>3.4683</v>
       </c>
       <c r="D230">
-        <v>2.2593</v>
+        <v>7.6684</v>
       </c>
       <c r="E230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4310,10 +4310,10 @@
         <v>3.7298</v>
       </c>
       <c r="C231">
-        <v>-0.0409</v>
+        <v>0.7082000000000001</v>
       </c>
       <c r="D231">
-        <v>2.5755</v>
+        <v>-0.4234</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -4327,13 +4327,13 @@
         <v>3.7298</v>
       </c>
       <c r="C232">
-        <v>-0.0291</v>
+        <v>1.115</v>
       </c>
       <c r="D232">
-        <v>-1.4638</v>
+        <v>0.7107</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4344,10 +4344,10 @@
         <v>3.7298</v>
       </c>
       <c r="C233">
-        <v>-11.3575</v>
+        <v>10.1642</v>
       </c>
       <c r="D233">
-        <v>2.5727</v>
+        <v>-11.7962</v>
       </c>
       <c r="E233">
         <v>0</v>
@@ -4361,13 +4361,13 @@
         <v>3.7298</v>
       </c>
       <c r="C234">
-        <v>0.1494</v>
+        <v>-7.9048</v>
       </c>
       <c r="D234">
-        <v>1.4266</v>
+        <v>13.5259</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4378,10 +4378,10 @@
         <v>3.7298</v>
       </c>
       <c r="C235">
-        <v>-0.08260000000000001</v>
+        <v>0.7476</v>
       </c>
       <c r="D235">
-        <v>1.2924</v>
+        <v>2.7445</v>
       </c>
       <c r="E235">
         <v>1</v>
@@ -4395,10 +4395,10 @@
         <v>3.7298</v>
       </c>
       <c r="C236">
-        <v>-0.1252</v>
+        <v>0.9426</v>
       </c>
       <c r="D236">
-        <v>1.2328</v>
+        <v>2.6517</v>
       </c>
       <c r="E236">
         <v>1</v>
@@ -4412,13 +4412,13 @@
         <v>3.7298</v>
       </c>
       <c r="C237">
-        <v>7.7126</v>
+        <v>0.679</v>
       </c>
       <c r="D237">
-        <v>3.6647</v>
+        <v>3.0659</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4429,13 +4429,13 @@
         <v>3.7298</v>
       </c>
       <c r="C238">
-        <v>-0.7859</v>
+        <v>6.5301</v>
       </c>
       <c r="D238">
-        <v>1.2686</v>
+        <v>3.4917</v>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4446,10 +4446,10 @@
         <v>3.7298</v>
       </c>
       <c r="C239">
-        <v>-0.5796</v>
+        <v>9.3043</v>
       </c>
       <c r="D239">
-        <v>0.4091</v>
+        <v>-0.0284</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -4463,10 +4463,10 @@
         <v>3.7298</v>
       </c>
       <c r="C240">
-        <v>-7.6127</v>
+        <v>7.6806</v>
       </c>
       <c r="D240">
-        <v>-3.5252</v>
+        <v>-4.567</v>
       </c>
       <c r="E240">
         <v>0</v>
@@ -4480,10 +4480,10 @@
         <v>3.7298</v>
       </c>
       <c r="C241">
-        <v>-1.9787</v>
+        <v>-0.1592</v>
       </c>
       <c r="D241">
-        <v>2.5775</v>
+        <v>0.8298</v>
       </c>
       <c r="E241">
         <v>1</v>
@@ -4497,10 +4497,10 @@
         <v>3.7298</v>
       </c>
       <c r="C242">
-        <v>-2.0342</v>
+        <v>-1.0083</v>
       </c>
       <c r="D242">
-        <v>3.081</v>
+        <v>0.5</v>
       </c>
       <c r="E242">
         <v>1</v>
@@ -4514,10 +4514,10 @@
         <v>3.7298</v>
       </c>
       <c r="C243">
-        <v>-2.0324</v>
+        <v>-1.5173</v>
       </c>
       <c r="D243">
-        <v>2.9258</v>
+        <v>0.6402</v>
       </c>
       <c r="E243">
         <v>1</v>
@@ -4531,13 +4531,13 @@
         <v>3.7298</v>
       </c>
       <c r="C244">
-        <v>-1.5535</v>
+        <v>-0.8833</v>
       </c>
       <c r="D244">
-        <v>2.684</v>
+        <v>-0.4281</v>
       </c>
       <c r="E244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4548,10 +4548,10 @@
         <v>3.7298</v>
       </c>
       <c r="C245">
-        <v>-2.0366</v>
+        <v>-12.1235</v>
       </c>
       <c r="D245">
-        <v>12.4812</v>
+        <v>1.3366</v>
       </c>
       <c r="E245">
         <v>0</v>
@@ -4565,10 +4565,10 @@
         <v>3.7298</v>
       </c>
       <c r="C246">
-        <v>-0.1929</v>
+        <v>-1.9309</v>
       </c>
       <c r="D246">
-        <v>1.3374</v>
+        <v>1.1236</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -4582,13 +4582,13 @@
         <v>3.7298</v>
       </c>
       <c r="C247">
-        <v>0.3081</v>
+        <v>6.5329</v>
       </c>
       <c r="D247">
-        <v>0.6398</v>
+        <v>10.582</v>
       </c>
       <c r="E247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4599,10 +4599,10 @@
         <v>3.7298</v>
       </c>
       <c r="C248">
-        <v>0.4307</v>
+        <v>-1.4684</v>
       </c>
       <c r="D248">
-        <v>0.2092</v>
+        <v>0.4031</v>
       </c>
       <c r="E248">
         <v>1</v>
@@ -4616,13 +4616,13 @@
         <v>3.7298</v>
       </c>
       <c r="C249">
-        <v>0.3525</v>
+        <v>-1.2981</v>
       </c>
       <c r="D249">
-        <v>-0.1698</v>
+        <v>0.3651</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4633,13 +4633,13 @@
         <v>3.7298</v>
       </c>
       <c r="C250">
-        <v>-0.1463</v>
+        <v>-1.131</v>
       </c>
       <c r="D250">
-        <v>0.2718</v>
+        <v>0.2453</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4650,13 +4650,13 @@
         <v>3.7298</v>
       </c>
       <c r="C251">
-        <v>-0.0677</v>
+        <v>-1.5583</v>
       </c>
       <c r="D251">
-        <v>0.0117</v>
+        <v>-0.5054</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4667,10 +4667,10 @@
         <v>3.3672</v>
       </c>
       <c r="C252">
-        <v>6.0855</v>
+        <v>5.2273</v>
       </c>
       <c r="D252">
-        <v>7.7873</v>
+        <v>-7.8145</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -4684,10 +4684,10 @@
         <v>3.3672</v>
       </c>
       <c r="C253">
-        <v>2.1501</v>
+        <v>0.4504</v>
       </c>
       <c r="D253">
-        <v>7.5623</v>
+        <v>-7.6869</v>
       </c>
       <c r="E253">
         <v>0</v>
@@ -4701,10 +4701,10 @@
         <v>3.3672</v>
       </c>
       <c r="C254">
-        <v>0.4604</v>
+        <v>1.4621</v>
       </c>
       <c r="D254">
-        <v>2.2558</v>
+        <v>-1.0139</v>
       </c>
       <c r="E254">
         <v>1</v>
@@ -4718,10 +4718,10 @@
         <v>3.3672</v>
       </c>
       <c r="C255">
-        <v>0.3308</v>
+        <v>1.7582</v>
       </c>
       <c r="D255">
-        <v>2.3911</v>
+        <v>-1.0436</v>
       </c>
       <c r="E255">
         <v>1</v>
@@ -4735,13 +4735,13 @@
         <v>3.3672</v>
       </c>
       <c r="C256">
-        <v>7.7186</v>
+        <v>0.9102</v>
       </c>
       <c r="D256">
-        <v>5.7106</v>
+        <v>-0.3398</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4752,13 +4752,13 @@
         <v>3.3672</v>
       </c>
       <c r="C257">
-        <v>0.4585</v>
+        <v>-13.3527</v>
       </c>
       <c r="D257">
-        <v>2.0917</v>
+        <v>-12.1395</v>
       </c>
       <c r="E257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4769,10 +4769,10 @@
         <v>3.3672</v>
       </c>
       <c r="C258">
-        <v>0.533</v>
+        <v>1.0488</v>
       </c>
       <c r="D258">
-        <v>2.1562</v>
+        <v>1.7033</v>
       </c>
       <c r="E258">
         <v>1</v>
@@ -4786,13 +4786,13 @@
         <v>3.3672</v>
       </c>
       <c r="C259">
-        <v>0.6064000000000001</v>
+        <v>-4.7818</v>
       </c>
       <c r="D259">
-        <v>1.6004</v>
+        <v>-0.1034</v>
       </c>
       <c r="E259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4803,10 +4803,10 @@
         <v>3.3672</v>
       </c>
       <c r="C260">
-        <v>6.9623</v>
+        <v>4.9693</v>
       </c>
       <c r="D260">
-        <v>-7.8256</v>
+        <v>10.5367</v>
       </c>
       <c r="E260">
         <v>0</v>
@@ -4820,10 +4820,10 @@
         <v>3.3672</v>
       </c>
       <c r="C261">
-        <v>0.2783</v>
+        <v>0.8489</v>
       </c>
       <c r="D261">
-        <v>1.2345</v>
+        <v>3.2597</v>
       </c>
       <c r="E261">
         <v>1</v>
@@ -4837,10 +4837,10 @@
         <v>3.3672</v>
       </c>
       <c r="C262">
-        <v>-0.3081</v>
+        <v>0.3891</v>
       </c>
       <c r="D262">
-        <v>1.1861</v>
+        <v>3.5202</v>
       </c>
       <c r="E262">
         <v>1</v>
@@ -4854,13 +4854,13 @@
         <v>3.3672</v>
       </c>
       <c r="C263">
-        <v>-0.6465</v>
+        <v>7.7828</v>
       </c>
       <c r="D263">
-        <v>1.2256</v>
+        <v>9.5372</v>
       </c>
       <c r="E263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4871,13 +4871,13 @@
         <v>3.3672</v>
       </c>
       <c r="C264">
-        <v>-1.1536</v>
+        <v>3.8065</v>
       </c>
       <c r="D264">
-        <v>1.7721</v>
+        <v>-10.7912</v>
       </c>
       <c r="E264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4888,13 +4888,13 @@
         <v>3.3672</v>
       </c>
       <c r="C265">
-        <v>-12.0664</v>
+        <v>-0.2724</v>
       </c>
       <c r="D265">
-        <v>8.438599999999999</v>
+        <v>1.6109</v>
       </c>
       <c r="E265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4905,13 +4905,13 @@
         <v>3.3672</v>
       </c>
       <c r="C266">
-        <v>-2.0627</v>
+        <v>-3.5047</v>
       </c>
       <c r="D266">
-        <v>2.8396</v>
+        <v>-12.8704</v>
       </c>
       <c r="E266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4922,13 +4922,13 @@
         <v>3.3672</v>
       </c>
       <c r="C267">
-        <v>-15.0461</v>
+        <v>-0.9795</v>
       </c>
       <c r="D267">
-        <v>-4.7328</v>
+        <v>0.4202</v>
       </c>
       <c r="E267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -4939,13 +4939,13 @@
         <v>3.3672</v>
       </c>
       <c r="C268">
-        <v>-1.6227</v>
+        <v>-1.5185</v>
       </c>
       <c r="D268">
-        <v>0.3</v>
+        <v>0.6221</v>
       </c>
       <c r="E268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -4956,10 +4956,10 @@
         <v>3.3672</v>
       </c>
       <c r="C269">
-        <v>-1.6143</v>
+        <v>-1.4237</v>
       </c>
       <c r="D269">
-        <v>2.6698</v>
+        <v>1.1328</v>
       </c>
       <c r="E269">
         <v>1</v>
@@ -4973,13 +4973,13 @@
         <v>3.3672</v>
       </c>
       <c r="C270">
-        <v>-1.5323</v>
+        <v>-1.399</v>
       </c>
       <c r="D270">
-        <v>1.0235</v>
+        <v>1.1487</v>
       </c>
       <c r="E270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -4990,10 +4990,10 @@
         <v>3.3672</v>
       </c>
       <c r="C271">
-        <v>-0.1347</v>
+        <v>-1.7604</v>
       </c>
       <c r="D271">
-        <v>1.2742</v>
+        <v>1.308</v>
       </c>
       <c r="E271">
         <v>1</v>
@@ -5007,10 +5007,10 @@
         <v>3.3672</v>
       </c>
       <c r="C272">
-        <v>0.54</v>
+        <v>-1.6572</v>
       </c>
       <c r="D272">
-        <v>0.7471</v>
+        <v>1.3292</v>
       </c>
       <c r="E272">
         <v>1</v>
@@ -5024,10 +5024,10 @@
         <v>3.3672</v>
       </c>
       <c r="C273">
-        <v>0.6829</v>
+        <v>-1.5439</v>
       </c>
       <c r="D273">
-        <v>0.4028</v>
+        <v>0.9598</v>
       </c>
       <c r="E273">
         <v>1</v>
@@ -5041,13 +5041,13 @@
         <v>3.3672</v>
       </c>
       <c r="C274">
-        <v>0.0207</v>
+        <v>-1.3293</v>
       </c>
       <c r="D274">
-        <v>0.0101</v>
+        <v>1.0165</v>
       </c>
       <c r="E274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5058,10 +5058,10 @@
         <v>3.3672</v>
       </c>
       <c r="C275">
-        <v>1.5811</v>
+        <v>-1.2041</v>
       </c>
       <c r="D275">
-        <v>-0.108</v>
+        <v>1.1053</v>
       </c>
       <c r="E275">
         <v>1</v>
@@ -5075,10 +5075,10 @@
         <v>3.3672</v>
       </c>
       <c r="C276">
-        <v>-1.2614</v>
+        <v>-0.6256</v>
       </c>
       <c r="D276">
-        <v>4.709</v>
+        <v>-3.0424</v>
       </c>
       <c r="E276">
         <v>0</v>
@@ -5092,10 +5092,10 @@
         <v>3.0046</v>
       </c>
       <c r="C277">
-        <v>1.2489</v>
+        <v>1.8796</v>
       </c>
       <c r="D277">
-        <v>3.5825</v>
+        <v>-1.6701</v>
       </c>
       <c r="E277">
         <v>1</v>
@@ -5109,13 +5109,13 @@
         <v>3.0046</v>
       </c>
       <c r="C278">
-        <v>-7.6679</v>
+        <v>1.8037</v>
       </c>
       <c r="D278">
-        <v>13.3961</v>
+        <v>-1.1894</v>
       </c>
       <c r="E278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5126,10 +5126,10 @@
         <v>3.0046</v>
       </c>
       <c r="C279">
-        <v>0.8151</v>
+        <v>6.6864</v>
       </c>
       <c r="D279">
-        <v>7.6312</v>
+        <v>-11.8683</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -5143,10 +5143,10 @@
         <v>3.0046</v>
       </c>
       <c r="C280">
-        <v>7.3204</v>
+        <v>-0.804</v>
       </c>
       <c r="D280">
-        <v>14.1879</v>
+        <v>-7.6779</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -5160,13 +5160,13 @@
         <v>3.0046</v>
       </c>
       <c r="C281">
-        <v>1.7979</v>
+        <v>1.221</v>
       </c>
       <c r="D281">
-        <v>-2.0428</v>
+        <v>-0.0654</v>
       </c>
       <c r="E281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5177,10 +5177,10 @@
         <v>3.0046</v>
       </c>
       <c r="C282">
-        <v>1.2211</v>
+        <v>1.5916</v>
       </c>
       <c r="D282">
-        <v>2.3837</v>
+        <v>1.2066</v>
       </c>
       <c r="E282">
         <v>1</v>
@@ -5194,10 +5194,10 @@
         <v>3.0046</v>
       </c>
       <c r="C283">
-        <v>3.9515</v>
+        <v>-2.0082</v>
       </c>
       <c r="D283">
-        <v>7.8383</v>
+        <v>1.2786</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -5211,13 +5211,13 @@
         <v>3.0046</v>
       </c>
       <c r="C284">
-        <v>-10.8952</v>
+        <v>0.8362000000000001</v>
       </c>
       <c r="D284">
-        <v>7.9646</v>
+        <v>3.2197</v>
       </c>
       <c r="E284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5228,10 +5228,10 @@
         <v>3.0046</v>
       </c>
       <c r="C285">
-        <v>0.8921</v>
+        <v>1.0836</v>
       </c>
       <c r="D285">
-        <v>1.0618</v>
+        <v>3.8869</v>
       </c>
       <c r="E285">
         <v>1</v>
@@ -5245,13 +5245,13 @@
         <v>3.0046</v>
       </c>
       <c r="C286">
-        <v>-0.197</v>
+        <v>1.0774</v>
       </c>
       <c r="D286">
-        <v>-0.191</v>
+        <v>3.8971</v>
       </c>
       <c r="E286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5262,10 +5262,10 @@
         <v>3.0046</v>
       </c>
       <c r="C287">
-        <v>-0.03</v>
+        <v>0.5686</v>
       </c>
       <c r="D287">
-        <v>1.1473</v>
+        <v>4.1997</v>
       </c>
       <c r="E287">
         <v>1</v>
@@ -5279,13 +5279,13 @@
         <v>3.0046</v>
       </c>
       <c r="C288">
-        <v>0.0207</v>
+        <v>7.6525</v>
       </c>
       <c r="D288">
-        <v>1.2733</v>
+        <v>5.1073</v>
       </c>
       <c r="E288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5296,10 +5296,10 @@
         <v>3.0046</v>
       </c>
       <c r="C289">
-        <v>-0.3672</v>
+        <v>0.223</v>
       </c>
       <c r="D289">
-        <v>1.3565</v>
+        <v>2.4071</v>
       </c>
       <c r="E289">
         <v>1</v>
@@ -5313,10 +5313,10 @@
         <v>3.0046</v>
       </c>
       <c r="C290">
-        <v>-0.8243</v>
+        <v>-0.0354</v>
       </c>
       <c r="D290">
-        <v>1.9219</v>
+        <v>1.6804</v>
       </c>
       <c r="E290">
         <v>1</v>
@@ -5330,13 +5330,13 @@
         <v>3.0046</v>
       </c>
       <c r="C291">
-        <v>-1.2475</v>
+        <v>-6.3706</v>
       </c>
       <c r="D291">
-        <v>2.401</v>
+        <v>12.3823</v>
       </c>
       <c r="E291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5347,10 +5347,10 @@
         <v>3.0046</v>
       </c>
       <c r="C292">
-        <v>-1.4171</v>
+        <v>-0.6609</v>
       </c>
       <c r="D292">
-        <v>2.6879</v>
+        <v>0.106</v>
       </c>
       <c r="E292">
         <v>1</v>
@@ -5364,13 +5364,13 @@
         <v>3.0046</v>
       </c>
       <c r="C293">
-        <v>-11.9248</v>
+        <v>-0.9718</v>
       </c>
       <c r="D293">
-        <v>8.7285</v>
+        <v>0.0633</v>
       </c>
       <c r="E293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5381,10 +5381,10 @@
         <v>3.0046</v>
       </c>
       <c r="C294">
-        <v>-1.1899</v>
+        <v>-0.6724</v>
       </c>
       <c r="D294">
-        <v>2.6869</v>
+        <v>0.2718</v>
       </c>
       <c r="E294">
         <v>1</v>
@@ -5398,10 +5398,10 @@
         <v>3.0046</v>
       </c>
       <c r="C295">
-        <v>-0.6764</v>
+        <v>-0.6226</v>
       </c>
       <c r="D295">
-        <v>1.8912</v>
+        <v>0.5262</v>
       </c>
       <c r="E295">
         <v>1</v>
@@ -5415,13 +5415,13 @@
         <v>3.0046</v>
       </c>
       <c r="C296">
-        <v>-12.4304</v>
+        <v>-1.2072</v>
       </c>
       <c r="D296">
-        <v>12.2994</v>
+        <v>1.1157</v>
       </c>
       <c r="E296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5432,10 +5432,10 @@
         <v>3.0046</v>
       </c>
       <c r="C297">
-        <v>-0.0253</v>
+        <v>-1.0979</v>
       </c>
       <c r="D297">
-        <v>1.8077</v>
+        <v>1.2766</v>
       </c>
       <c r="E297">
         <v>1</v>
@@ -5449,10 +5449,10 @@
         <v>3.0046</v>
       </c>
       <c r="C298">
-        <v>0.1531</v>
+        <v>-1.3475</v>
       </c>
       <c r="D298">
-        <v>1.5477</v>
+        <v>1.1963</v>
       </c>
       <c r="E298">
         <v>1</v>
@@ -5466,10 +5466,10 @@
         <v>3.0046</v>
       </c>
       <c r="C299">
-        <v>0.3415</v>
+        <v>-1.138</v>
       </c>
       <c r="D299">
-        <v>1.3184</v>
+        <v>1.5026</v>
       </c>
       <c r="E299">
         <v>1</v>
@@ -5483,10 +5483,10 @@
         <v>3.0046</v>
       </c>
       <c r="C300">
-        <v>1.1544</v>
+        <v>-1.0425</v>
       </c>
       <c r="D300">
-        <v>1.0514</v>
+        <v>1.7345</v>
       </c>
       <c r="E300">
         <v>1</v>
@@ -5500,13 +5500,13 @@
         <v>3.0046</v>
       </c>
       <c r="C301">
-        <v>1.3679</v>
+        <v>-0.3735</v>
       </c>
       <c r="D301">
-        <v>0.8214</v>
+        <v>-2.8043</v>
       </c>
       <c r="E301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5517,13 +5517,13 @@
         <v>2.6419</v>
       </c>
       <c r="C302">
-        <v>1.6418</v>
+        <v>5.0144</v>
       </c>
       <c r="D302">
-        <v>3.6364</v>
+        <v>7.9375</v>
       </c>
       <c r="E302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5534,10 +5534,10 @@
         <v>2.6419</v>
       </c>
       <c r="C303">
-        <v>-2.0167</v>
+        <v>-4.0935</v>
       </c>
       <c r="D303">
-        <v>11.2236</v>
+        <v>7.8622</v>
       </c>
       <c r="E303">
         <v>0</v>
@@ -5551,13 +5551,13 @@
         <v>2.6419</v>
       </c>
       <c r="C304">
-        <v>7.9357</v>
+        <v>0.9378</v>
       </c>
       <c r="D304">
-        <v>10.6828</v>
+        <v>-1.5613</v>
       </c>
       <c r="E304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5568,10 +5568,10 @@
         <v>2.6419</v>
       </c>
       <c r="C305">
-        <v>1.9729</v>
+        <v>1.0519</v>
       </c>
       <c r="D305">
-        <v>3.1361</v>
+        <v>-1.2609</v>
       </c>
       <c r="E305">
         <v>1</v>
@@ -5585,10 +5585,10 @@
         <v>2.6419</v>
       </c>
       <c r="C306">
-        <v>1.6538</v>
+        <v>0.5661</v>
       </c>
       <c r="D306">
-        <v>3.2847</v>
+        <v>-0.1315</v>
       </c>
       <c r="E306">
         <v>1</v>
@@ -5602,10 +5602,10 @@
         <v>2.6419</v>
       </c>
       <c r="C307">
-        <v>2.175</v>
+        <v>0.988</v>
       </c>
       <c r="D307">
-        <v>2.6971</v>
+        <v>1.2328</v>
       </c>
       <c r="E307">
         <v>1</v>
@@ -5619,10 +5619,10 @@
         <v>2.6419</v>
       </c>
       <c r="C308">
-        <v>2.2623</v>
+        <v>0.7215</v>
       </c>
       <c r="D308">
-        <v>1.9126</v>
+        <v>2.2946</v>
       </c>
       <c r="E308">
         <v>1</v>
@@ -5636,10 +5636,10 @@
         <v>2.6419</v>
       </c>
       <c r="C309">
-        <v>2.0702</v>
+        <v>0.2974</v>
       </c>
       <c r="D309">
-        <v>1.4054</v>
+        <v>3.3779</v>
       </c>
       <c r="E309">
         <v>1</v>
@@ -5653,10 +5653,10 @@
         <v>2.6419</v>
       </c>
       <c r="C310">
-        <v>-0.005</v>
+        <v>12.814</v>
       </c>
       <c r="D310">
-        <v>-0.5866</v>
+        <v>14.6914</v>
       </c>
       <c r="E310">
         <v>0</v>
@@ -5670,10 +5670,10 @@
         <v>2.6419</v>
       </c>
       <c r="C311">
-        <v>12.4185</v>
+        <v>-3.3978</v>
       </c>
       <c r="D311">
-        <v>-7.1393</v>
+        <v>7.7168</v>
       </c>
       <c r="E311">
         <v>0</v>
@@ -5687,10 +5687,10 @@
         <v>2.6419</v>
       </c>
       <c r="C312">
-        <v>-11.3972</v>
+        <v>-7.5992</v>
       </c>
       <c r="D312">
-        <v>-12.1462</v>
+        <v>7.7985</v>
       </c>
       <c r="E312">
         <v>0</v>
@@ -5704,10 +5704,10 @@
         <v>2.6419</v>
       </c>
       <c r="C313">
-        <v>0.6531</v>
+        <v>0.6598000000000001</v>
       </c>
       <c r="D313">
-        <v>1.0493</v>
+        <v>4.3391</v>
       </c>
       <c r="E313">
         <v>1</v>
@@ -5721,10 +5721,10 @@
         <v>2.6419</v>
       </c>
       <c r="C314">
-        <v>0.3115</v>
+        <v>0.5165999999999999</v>
       </c>
       <c r="D314">
-        <v>0.9328</v>
+        <v>3.1249</v>
       </c>
       <c r="E314">
         <v>1</v>
@@ -5738,10 +5738,10 @@
         <v>2.6419</v>
       </c>
       <c r="C315">
-        <v>-7.6368</v>
+        <v>-4.0298</v>
       </c>
       <c r="D315">
-        <v>7.702</v>
+        <v>-2.6474</v>
       </c>
       <c r="E315">
         <v>0</v>
@@ -5755,13 +5755,13 @@
         <v>2.6419</v>
       </c>
       <c r="C316">
-        <v>-0.4377</v>
+        <v>-4.6819</v>
       </c>
       <c r="D316">
-        <v>2.2067</v>
+        <v>-1.4193</v>
       </c>
       <c r="E316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5772,13 +5772,13 @@
         <v>2.6419</v>
       </c>
       <c r="C317">
-        <v>8.6884</v>
+        <v>-0.3996</v>
       </c>
       <c r="D317">
-        <v>15.1116</v>
+        <v>0.1176</v>
       </c>
       <c r="E317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5789,13 +5789,13 @@
         <v>2.6419</v>
       </c>
       <c r="C318">
-        <v>-1.4964</v>
+        <v>-0.7018</v>
       </c>
       <c r="D318">
-        <v>0.9932</v>
+        <v>-0.0041</v>
       </c>
       <c r="E318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5806,13 +5806,13 @@
         <v>2.6419</v>
       </c>
       <c r="C319">
-        <v>6.1681</v>
+        <v>-0.3771</v>
       </c>
       <c r="D319">
-        <v>-6.6411</v>
+        <v>-0.1739</v>
       </c>
       <c r="E319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5823,10 +5823,10 @@
         <v>2.6419</v>
       </c>
       <c r="C320">
-        <v>-1.8097</v>
+        <v>-1.6274</v>
       </c>
       <c r="D320">
-        <v>1.0254</v>
+        <v>-7.6378</v>
       </c>
       <c r="E320">
         <v>0</v>
@@ -5840,10 +5840,10 @@
         <v>2.6419</v>
       </c>
       <c r="C321">
-        <v>-0.1888</v>
+        <v>-0.8697</v>
       </c>
       <c r="D321">
-        <v>2.0966</v>
+        <v>0.3652</v>
       </c>
       <c r="E321">
         <v>1</v>
@@ -5857,10 +5857,10 @@
         <v>2.6419</v>
       </c>
       <c r="C322">
-        <v>-0.8657</v>
+        <v>-4.3065</v>
       </c>
       <c r="D322">
-        <v>0.1688</v>
+        <v>-2.3409</v>
       </c>
       <c r="E322">
         <v>0</v>
@@ -5874,10 +5874,10 @@
         <v>2.6419</v>
       </c>
       <c r="C323">
-        <v>6.4387</v>
+        <v>-6.4474</v>
       </c>
       <c r="D323">
-        <v>8.460800000000001</v>
+        <v>0.6341</v>
       </c>
       <c r="E323">
         <v>0</v>
@@ -5891,10 +5891,10 @@
         <v>2.6419</v>
       </c>
       <c r="C324">
-        <v>0.7171999999999999</v>
+        <v>-0.9221</v>
       </c>
       <c r="D324">
-        <v>1.7497</v>
+        <v>1.1685</v>
       </c>
       <c r="E324">
         <v>1</v>
@@ -5908,10 +5908,10 @@
         <v>2.6419</v>
       </c>
       <c r="C325">
-        <v>1.2291</v>
+        <v>-0.8639</v>
       </c>
       <c r="D325">
-        <v>1.48</v>
+        <v>1.2485</v>
       </c>
       <c r="E325">
         <v>1</v>
@@ -5925,10 +5925,10 @@
         <v>2.6419</v>
       </c>
       <c r="C326">
-        <v>1.4111</v>
+        <v>-1.6351</v>
       </c>
       <c r="D326">
-        <v>1.3121</v>
+        <v>1.4256</v>
       </c>
       <c r="E326">
         <v>1</v>
@@ -5942,10 +5942,10 @@
         <v>2.2793</v>
       </c>
       <c r="C327">
-        <v>2.1204</v>
+        <v>1.2985</v>
       </c>
       <c r="D327">
-        <v>3.0511</v>
+        <v>-2.0516</v>
       </c>
       <c r="E327">
         <v>1</v>
@@ -5959,10 +5959,10 @@
         <v>2.2793</v>
       </c>
       <c r="C328">
-        <v>2.6007</v>
+        <v>1.1279</v>
       </c>
       <c r="D328">
-        <v>3.1984</v>
+        <v>-1.8835</v>
       </c>
       <c r="E328">
         <v>1</v>
@@ -5976,10 +5976,10 @@
         <v>2.2793</v>
       </c>
       <c r="C329">
-        <v>-0.1203</v>
+        <v>5.1456</v>
       </c>
       <c r="D329">
-        <v>-0.0529</v>
+        <v>7.5953</v>
       </c>
       <c r="E329">
         <v>0</v>
@@ -5993,13 +5993,13 @@
         <v>2.2793</v>
       </c>
       <c r="C330">
-        <v>0.2022</v>
+        <v>0.7485000000000001</v>
       </c>
       <c r="D330">
-        <v>-2.8825</v>
+        <v>-1.1119</v>
       </c>
       <c r="E330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6010,10 +6010,10 @@
         <v>2.2793</v>
       </c>
       <c r="C331">
-        <v>2.3094</v>
+        <v>0.4949</v>
       </c>
       <c r="D331">
-        <v>3.054</v>
+        <v>-0.3421</v>
       </c>
       <c r="E331">
         <v>1</v>
@@ -6027,10 +6027,10 @@
         <v>2.2793</v>
       </c>
       <c r="C332">
-        <v>2.6508</v>
+        <v>0.8164</v>
       </c>
       <c r="D332">
-        <v>2.4847</v>
+        <v>0.9609</v>
       </c>
       <c r="E332">
         <v>1</v>
@@ -6044,13 +6044,13 @@
         <v>2.2793</v>
       </c>
       <c r="C333">
-        <v>1.1265</v>
+        <v>0.5750999999999999</v>
       </c>
       <c r="D333">
-        <v>-1.3766</v>
+        <v>2.1069</v>
       </c>
       <c r="E333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6061,13 +6061,13 @@
         <v>2.2793</v>
       </c>
       <c r="C334">
-        <v>-0.4021</v>
+        <v>0.2212</v>
       </c>
       <c r="D334">
-        <v>13.4554</v>
+        <v>3.4467</v>
       </c>
       <c r="E334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6078,10 +6078,10 @@
         <v>2.2793</v>
       </c>
       <c r="C335">
-        <v>1.5571</v>
+        <v>0.6334</v>
       </c>
       <c r="D335">
-        <v>1.0105</v>
+        <v>4.7153</v>
       </c>
       <c r="E335">
         <v>1</v>
@@ -6095,13 +6095,13 @@
         <v>2.2793</v>
       </c>
       <c r="C336">
-        <v>0.06610000000000001</v>
+        <v>0.7179</v>
       </c>
       <c r="D336">
-        <v>-0.0621</v>
+        <v>5.1234</v>
       </c>
       <c r="E336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6112,10 +6112,10 @@
         <v>2.2793</v>
       </c>
       <c r="C337">
-        <v>11.9977</v>
+        <v>-7.5801</v>
       </c>
       <c r="D337">
-        <v>-7.7551</v>
+        <v>7.7846</v>
       </c>
       <c r="E337">
         <v>0</v>
@@ -6129,10 +6129,10 @@
         <v>2.2793</v>
       </c>
       <c r="C338">
-        <v>0.3095</v>
+        <v>0.3094</v>
       </c>
       <c r="D338">
-        <v>1.3157</v>
+        <v>4.8937</v>
       </c>
       <c r="E338">
         <v>1</v>
@@ -6146,10 +6146,10 @@
         <v>2.2793</v>
       </c>
       <c r="C339">
-        <v>0.2172</v>
+        <v>0.2046</v>
       </c>
       <c r="D339">
-        <v>1.1534</v>
+        <v>3.6943</v>
       </c>
       <c r="E339">
         <v>1</v>
@@ -6163,13 +6163,13 @@
         <v>2.2793</v>
       </c>
       <c r="C340">
-        <v>-0.3477</v>
+        <v>-2.6289</v>
       </c>
       <c r="D340">
-        <v>1.959</v>
+        <v>7.917</v>
       </c>
       <c r="E340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6180,10 +6180,10 @@
         <v>2.2793</v>
       </c>
       <c r="C341">
-        <v>-0.2692</v>
+        <v>0.4022</v>
       </c>
       <c r="D341">
-        <v>2.3473</v>
+        <v>1.7092</v>
       </c>
       <c r="E341">
         <v>1</v>
@@ -6197,10 +6197,10 @@
         <v>2.2793</v>
       </c>
       <c r="C342">
-        <v>-0.9846</v>
+        <v>7.6036</v>
       </c>
       <c r="D342">
-        <v>1.1287</v>
+        <v>6.3977</v>
       </c>
       <c r="E342">
         <v>0</v>
@@ -6214,13 +6214,13 @@
         <v>2.2793</v>
       </c>
       <c r="C343">
-        <v>2.1698</v>
+        <v>-0.0141</v>
       </c>
       <c r="D343">
-        <v>8.5977</v>
+        <v>0.0624</v>
       </c>
       <c r="E343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6231,10 +6231,10 @@
         <v>2.2793</v>
       </c>
       <c r="C344">
-        <v>0.2679</v>
+        <v>0.3424</v>
       </c>
       <c r="D344">
-        <v>2.1291</v>
+        <v>-0.4717</v>
       </c>
       <c r="E344">
         <v>1</v>
@@ -6248,10 +6248,10 @@
         <v>2.2793</v>
       </c>
       <c r="C345">
-        <v>-1.2462</v>
+        <v>-3.2453</v>
       </c>
       <c r="D345">
-        <v>1.0539</v>
+        <v>-1.4108</v>
       </c>
       <c r="E345">
         <v>0</v>
@@ -6265,10 +6265,10 @@
         <v>2.2793</v>
       </c>
       <c r="C346">
-        <v>0.232</v>
+        <v>-0.168</v>
       </c>
       <c r="D346">
-        <v>1.6262</v>
+        <v>0.097</v>
       </c>
       <c r="E346">
         <v>1</v>
@@ -6282,13 +6282,13 @@
         <v>2.2793</v>
       </c>
       <c r="C347">
-        <v>0.8056</v>
+        <v>2.3957</v>
       </c>
       <c r="D347">
-        <v>1.4494</v>
+        <v>7.7127</v>
       </c>
       <c r="E347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6299,13 +6299,13 @@
         <v>2.2793</v>
       </c>
       <c r="C348">
-        <v>6.5161</v>
+        <v>-0.5531</v>
       </c>
       <c r="D348">
-        <v>-11.9122</v>
+        <v>0.8663999999999999</v>
       </c>
       <c r="E348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6316,10 +6316,10 @@
         <v>2.2793</v>
       </c>
       <c r="C349">
-        <v>0.9274</v>
+        <v>-0.6504</v>
       </c>
       <c r="D349">
-        <v>1.5411</v>
+        <v>1.1759</v>
       </c>
       <c r="E349">
         <v>1</v>
@@ -6333,13 +6333,13 @@
         <v>2.2793</v>
       </c>
       <c r="C350">
-        <v>12.3016</v>
+        <v>-0.8464</v>
       </c>
       <c r="D350">
-        <v>13.604</v>
+        <v>1.5143</v>
       </c>
       <c r="E350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6350,10 +6350,10 @@
         <v>2.2793</v>
       </c>
       <c r="C351">
-        <v>1.413</v>
+        <v>-1.4297</v>
       </c>
       <c r="D351">
-        <v>1.3114</v>
+        <v>2.0703</v>
       </c>
       <c r="E351">
         <v>1</v>
@@ -6367,13 +6367,13 @@
         <v>1.9167</v>
       </c>
       <c r="C352">
-        <v>2.8142</v>
+        <v>0.9842</v>
       </c>
       <c r="D352">
-        <v>7.7232</v>
+        <v>-1.9134</v>
       </c>
       <c r="E352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6384,10 +6384,10 @@
         <v>1.9167</v>
       </c>
       <c r="C353">
-        <v>2.7928</v>
+        <v>0.8426</v>
       </c>
       <c r="D353">
-        <v>2.6969</v>
+        <v>-1.8181</v>
       </c>
       <c r="E353">
         <v>1</v>
@@ -6401,10 +6401,10 @@
         <v>1.9167</v>
       </c>
       <c r="C354">
-        <v>2.8277</v>
+        <v>0.8879</v>
       </c>
       <c r="D354">
-        <v>2.4081</v>
+        <v>-1.3331</v>
       </c>
       <c r="E354">
         <v>1</v>
@@ -6418,10 +6418,10 @@
         <v>1.9167</v>
       </c>
       <c r="C355">
-        <v>2.9052</v>
+        <v>0.7578</v>
       </c>
       <c r="D355">
-        <v>2.5398</v>
+        <v>-0.8915</v>
       </c>
       <c r="E355">
         <v>1</v>
@@ -6435,13 +6435,13 @@
         <v>1.9167</v>
       </c>
       <c r="C356">
-        <v>12.485</v>
+        <v>0.7382</v>
       </c>
       <c r="D356">
-        <v>10.0654</v>
+        <v>-0.2092</v>
       </c>
       <c r="E356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6452,10 +6452,10 @@
         <v>1.9167</v>
       </c>
       <c r="C357">
-        <v>2.6844</v>
+        <v>1.0315</v>
       </c>
       <c r="D357">
-        <v>2.8534</v>
+        <v>0.85</v>
       </c>
       <c r="E357">
         <v>1</v>
@@ -6469,10 +6469,10 @@
         <v>1.9167</v>
       </c>
       <c r="C358">
-        <v>2.4994</v>
+        <v>0.8384</v>
       </c>
       <c r="D358">
-        <v>2.3072</v>
+        <v>2.0949</v>
       </c>
       <c r="E358">
         <v>1</v>
@@ -6486,13 +6486,13 @@
         <v>1.9167</v>
       </c>
       <c r="C359">
-        <v>2.0999</v>
+        <v>8.4885</v>
       </c>
       <c r="D359">
-        <v>1.8997</v>
+        <v>7.6792</v>
       </c>
       <c r="E359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6503,10 +6503,10 @@
         <v>1.9167</v>
       </c>
       <c r="C360">
-        <v>8.3177</v>
+        <v>-4.3405</v>
       </c>
       <c r="D360">
-        <v>7.7003</v>
+        <v>7.6243</v>
       </c>
       <c r="E360">
         <v>0</v>
@@ -6520,13 +6520,13 @@
         <v>1.9167</v>
       </c>
       <c r="C361">
-        <v>-0.0122</v>
+        <v>0.745</v>
       </c>
       <c r="D361">
-        <v>3.9922</v>
+        <v>5.2421</v>
       </c>
       <c r="E361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6537,13 +6537,13 @@
         <v>1.9167</v>
       </c>
       <c r="C362">
-        <v>0.1149</v>
+        <v>0.654</v>
       </c>
       <c r="D362">
-        <v>0.281</v>
+        <v>5.4373</v>
       </c>
       <c r="E362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6554,10 +6554,10 @@
         <v>1.9167</v>
       </c>
       <c r="C363">
-        <v>0.5295</v>
+        <v>0.5109</v>
       </c>
       <c r="D363">
-        <v>1.6748</v>
+        <v>5.5805</v>
       </c>
       <c r="E363">
         <v>1</v>
@@ -6571,13 +6571,13 @@
         <v>1.9167</v>
       </c>
       <c r="C364">
-        <v>1.2311</v>
+        <v>-7.7068</v>
       </c>
       <c r="D364">
-        <v>1.5179</v>
+        <v>10.643</v>
       </c>
       <c r="E364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6588,10 +6588,10 @@
         <v>1.9167</v>
       </c>
       <c r="C365">
-        <v>0.759</v>
+        <v>0.3929</v>
       </c>
       <c r="D365">
-        <v>2.3988</v>
+        <v>3.4062</v>
       </c>
       <c r="E365">
         <v>1</v>
@@ -6605,13 +6605,13 @@
         <v>1.9167</v>
       </c>
       <c r="C366">
-        <v>9.8567</v>
+        <v>0.9696</v>
       </c>
       <c r="D366">
-        <v>12.721</v>
+        <v>2.4134</v>
       </c>
       <c r="E366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6622,10 +6622,10 @@
         <v>1.9167</v>
       </c>
       <c r="C367">
-        <v>11.8525</v>
+        <v>7.6902</v>
       </c>
       <c r="D367">
-        <v>-13.9068</v>
+        <v>-13.6912</v>
       </c>
       <c r="E367">
         <v>0</v>
@@ -6639,10 +6639,10 @@
         <v>1.9167</v>
       </c>
       <c r="C368">
-        <v>0.6857</v>
+        <v>0.8206</v>
       </c>
       <c r="D368">
-        <v>2.7239</v>
+        <v>0.3815</v>
       </c>
       <c r="E368">
         <v>1</v>
@@ -6656,10 +6656,10 @@
         <v>1.9167</v>
       </c>
       <c r="C369">
-        <v>-0.832</v>
+        <v>1.7142</v>
       </c>
       <c r="D369">
-        <v>1.3274</v>
+        <v>3.9309</v>
       </c>
       <c r="E369">
         <v>0</v>
@@ -6673,10 +6673,10 @@
         <v>1.9167</v>
       </c>
       <c r="C370">
-        <v>1.3358</v>
+        <v>1.0099</v>
       </c>
       <c r="D370">
-        <v>1.9817</v>
+        <v>-0.3864</v>
       </c>
       <c r="E370">
         <v>1</v>
@@ -6690,10 +6690,10 @@
         <v>1.9167</v>
       </c>
       <c r="C371">
-        <v>0.477</v>
+        <v>0.4758</v>
       </c>
       <c r="D371">
-        <v>1.6979</v>
+        <v>-0.0382</v>
       </c>
       <c r="E371">
         <v>1</v>
@@ -6707,10 +6707,10 @@
         <v>1.9167</v>
       </c>
       <c r="C372">
-        <v>0.4693</v>
+        <v>7.8538</v>
       </c>
       <c r="D372">
-        <v>8.767300000000001</v>
+        <v>-9.530900000000001</v>
       </c>
       <c r="E372">
         <v>0</v>
@@ -6724,10 +6724,10 @@
         <v>1.9167</v>
       </c>
       <c r="C373">
-        <v>0.7049</v>
+        <v>1.7223</v>
       </c>
       <c r="D373">
-        <v>0.5426</v>
+        <v>15.0159</v>
       </c>
       <c r="E373">
         <v>0</v>
@@ -6741,10 +6741,10 @@
         <v>1.9167</v>
       </c>
       <c r="C374">
-        <v>-7.7613</v>
+        <v>-10.8707</v>
       </c>
       <c r="D374">
-        <v>8.5482</v>
+        <v>2.4757</v>
       </c>
       <c r="E374">
         <v>0</v>
@@ -6758,10 +6758,10 @@
         <v>1.9167</v>
       </c>
       <c r="C375">
-        <v>1.1859</v>
+        <v>-0.6447000000000001</v>
       </c>
       <c r="D375">
-        <v>1.5381</v>
+        <v>1.8999</v>
       </c>
       <c r="E375">
         <v>1</v>
@@ -6775,10 +6775,10 @@
         <v>1.9167</v>
       </c>
       <c r="C376">
-        <v>1.329</v>
+        <v>-1.352</v>
       </c>
       <c r="D376">
-        <v>1.3015</v>
+        <v>2.5931</v>
       </c>
       <c r="E376">
         <v>1</v>
@@ -6792,10 +6792,10 @@
         <v>1.5541</v>
       </c>
       <c r="C377">
-        <v>-2.4384</v>
+        <v>0.3253</v>
       </c>
       <c r="D377">
-        <v>-9.9796</v>
+        <v>-3.7079</v>
       </c>
       <c r="E377">
         <v>0</v>
@@ -6809,13 +6809,13 @@
         <v>1.5541</v>
       </c>
       <c r="C378">
-        <v>3.1022</v>
+        <v>0.4706</v>
       </c>
       <c r="D378">
-        <v>1.8103</v>
+        <v>-3.7495</v>
       </c>
       <c r="E378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6826,10 +6826,10 @@
         <v>1.5541</v>
       </c>
       <c r="C379">
-        <v>3.1076</v>
+        <v>0.1784</v>
       </c>
       <c r="D379">
-        <v>1.6606</v>
+        <v>-1.3627</v>
       </c>
       <c r="E379">
         <v>1</v>
@@ -6843,13 +6843,13 @@
         <v>1.5541</v>
       </c>
       <c r="C380">
-        <v>4.1442</v>
+        <v>0.1698</v>
       </c>
       <c r="D380">
-        <v>-8.882</v>
+        <v>-1.0115</v>
       </c>
       <c r="E380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6860,10 +6860,10 @@
         <v>1.5541</v>
       </c>
       <c r="C381">
-        <v>2.8241</v>
+        <v>0.207</v>
       </c>
       <c r="D381">
-        <v>2.4224</v>
+        <v>-0.4435</v>
       </c>
       <c r="E381">
         <v>1</v>
@@ -6877,13 +6877,13 @@
         <v>1.5541</v>
       </c>
       <c r="C382">
-        <v>4.6123</v>
+        <v>0.598</v>
       </c>
       <c r="D382">
-        <v>-12.0076</v>
+        <v>0.6122</v>
       </c>
       <c r="E382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6894,13 +6894,13 @@
         <v>1.5541</v>
       </c>
       <c r="C383">
-        <v>7.6655</v>
+        <v>0.6536999999999999</v>
       </c>
       <c r="D383">
-        <v>7.6224</v>
+        <v>1.5423</v>
       </c>
       <c r="E383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -6911,10 +6911,10 @@
         <v>1.5541</v>
       </c>
       <c r="C384">
-        <v>1.9303</v>
+        <v>0.7639</v>
       </c>
       <c r="D384">
-        <v>2.3425</v>
+        <v>2.7638</v>
       </c>
       <c r="E384">
         <v>1</v>
@@ -6928,13 +6928,13 @@
         <v>1.5541</v>
       </c>
       <c r="C385">
-        <v>10.5419</v>
+        <v>1.1138</v>
       </c>
       <c r="D385">
-        <v>13.0943</v>
+        <v>4.1493</v>
       </c>
       <c r="E385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -6945,13 +6945,13 @@
         <v>1.5541</v>
       </c>
       <c r="C386">
-        <v>7.1152</v>
+        <v>1.1699</v>
       </c>
       <c r="D386">
-        <v>-12.7712</v>
+        <v>4.874</v>
       </c>
       <c r="E386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -6962,10 +6962,10 @@
         <v>1.5541</v>
       </c>
       <c r="C387">
-        <v>0.3409</v>
+        <v>1.124</v>
       </c>
       <c r="D387">
-        <v>1.8798</v>
+        <v>5.2578</v>
       </c>
       <c r="E387">
         <v>1</v>
@@ -6979,10 +6979,10 @@
         <v>1.5541</v>
       </c>
       <c r="C388">
-        <v>0.0864</v>
+        <v>8.193199999999999</v>
       </c>
       <c r="D388">
-        <v>0.5642</v>
+        <v>13.2181</v>
       </c>
       <c r="E388">
         <v>0</v>
@@ -6996,10 +6996,10 @@
         <v>1.5541</v>
       </c>
       <c r="C389">
-        <v>1.0815</v>
+        <v>1.2563</v>
       </c>
       <c r="D389">
-        <v>1.6812</v>
+        <v>4.4727</v>
       </c>
       <c r="E389">
         <v>1</v>
@@ -7013,10 +7013,10 @@
         <v>1.5541</v>
       </c>
       <c r="C390">
-        <v>0.9039</v>
+        <v>1.0989</v>
       </c>
       <c r="D390">
-        <v>2.3843</v>
+        <v>3.5325</v>
       </c>
       <c r="E390">
         <v>1</v>
@@ -7030,13 +7030,13 @@
         <v>1.5541</v>
       </c>
       <c r="C391">
-        <v>-1.1835</v>
+        <v>1.654</v>
       </c>
       <c r="D391">
-        <v>0.694</v>
+        <v>2.5981</v>
       </c>
       <c r="E391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -7047,13 +7047,13 @@
         <v>1.5541</v>
       </c>
       <c r="C392">
-        <v>11.1109</v>
+        <v>1.4133</v>
       </c>
       <c r="D392">
-        <v>4.2233</v>
+        <v>1.237</v>
       </c>
       <c r="E392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -7064,13 +7064,13 @@
         <v>1.5541</v>
       </c>
       <c r="C393">
-        <v>1.5828</v>
+        <v>-5.2675</v>
       </c>
       <c r="D393">
-        <v>2.6173</v>
+        <v>-7.7312</v>
       </c>
       <c r="E393">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -7081,10 +7081,10 @@
         <v>1.5541</v>
       </c>
       <c r="C394">
-        <v>2.0251</v>
+        <v>1.7165</v>
       </c>
       <c r="D394">
-        <v>2.2763</v>
+        <v>-0.1365</v>
       </c>
       <c r="E394">
         <v>1</v>
@@ -7098,10 +7098,10 @@
         <v>1.5541</v>
       </c>
       <c r="C395">
-        <v>2.212</v>
+        <v>1.3495</v>
       </c>
       <c r="D395">
-        <v>1.767</v>
+        <v>-0.186</v>
       </c>
       <c r="E395">
         <v>1</v>
@@ -7115,10 +7115,10 @@
         <v>1.5541</v>
       </c>
       <c r="C396">
-        <v>1.3626</v>
+        <v>0.7838000000000001</v>
       </c>
       <c r="D396">
-        <v>1.6089</v>
+        <v>0.0828</v>
       </c>
       <c r="E396">
         <v>1</v>
@@ -7132,13 +7132,13 @@
         <v>1.5541</v>
       </c>
       <c r="C397">
-        <v>1.4831</v>
+        <v>7.7171</v>
       </c>
       <c r="D397">
-        <v>1.5318</v>
+        <v>-7.7615</v>
       </c>
       <c r="E397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -7149,10 +7149,10 @@
         <v>1.5541</v>
       </c>
       <c r="C398">
-        <v>1.2181</v>
+        <v>-0.0276</v>
       </c>
       <c r="D398">
-        <v>1.2939</v>
+        <v>1.1752</v>
       </c>
       <c r="E398">
         <v>1</v>
@@ -7166,13 +7166,13 @@
         <v>1.5541</v>
       </c>
       <c r="C399">
-        <v>3.3996</v>
+        <v>-0.1775</v>
       </c>
       <c r="D399">
-        <v>-7.6935</v>
+        <v>1.668</v>
       </c>
       <c r="E399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -7183,10 +7183,10 @@
         <v>1.5541</v>
       </c>
       <c r="C400">
-        <v>1.2937</v>
+        <v>-0.257</v>
       </c>
       <c r="D400">
-        <v>1.5752</v>
+        <v>1.8873</v>
       </c>
       <c r="E400">
         <v>1</v>
@@ -7200,13 +7200,13 @@
         <v>1.5541</v>
       </c>
       <c r="C401">
-        <v>-0.0347</v>
+        <v>-1.0356</v>
       </c>
       <c r="D401">
-        <v>0.3503</v>
+        <v>2.6498</v>
       </c>
       <c r="E401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -7217,10 +7217,10 @@
         <v>1.1915</v>
       </c>
       <c r="C402">
-        <v>2.5517</v>
+        <v>-0.0341</v>
       </c>
       <c r="D402">
-        <v>0.0371</v>
+        <v>-2.2604</v>
       </c>
       <c r="E402">
         <v>1</v>
@@ -7234,10 +7234,10 @@
         <v>1.1915</v>
       </c>
       <c r="C403">
-        <v>0.0077</v>
+        <v>0.4001</v>
       </c>
       <c r="D403">
-        <v>-0.0115</v>
+        <v>-3.9946</v>
       </c>
       <c r="E403">
         <v>0</v>
@@ -7251,13 +7251,13 @@
         <v>1.1915</v>
       </c>
       <c r="C404">
-        <v>9.8255</v>
+        <v>0.1147</v>
       </c>
       <c r="D404">
-        <v>-7.7262</v>
+        <v>-1.8776</v>
       </c>
       <c r="E404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -7268,10 +7268,10 @@
         <v>1.1915</v>
       </c>
       <c r="C405">
-        <v>2.8486</v>
+        <v>0.1115</v>
       </c>
       <c r="D405">
-        <v>1.3744</v>
+        <v>-1.5041</v>
       </c>
       <c r="E405">
         <v>1</v>
@@ -7285,10 +7285,10 @@
         <v>1.1915</v>
       </c>
       <c r="C406">
-        <v>2.8483</v>
+        <v>0.3031</v>
       </c>
       <c r="D406">
-        <v>1.9729</v>
+        <v>-0.7608</v>
       </c>
       <c r="E406">
         <v>1</v>
@@ -7302,10 +7302,10 @@
         <v>1.1915</v>
       </c>
       <c r="C407">
-        <v>2.6151</v>
+        <v>0.3567</v>
       </c>
       <c r="D407">
-        <v>2.4897</v>
+        <v>0.3082</v>
       </c>
       <c r="E407">
         <v>1</v>
@@ -7319,10 +7319,10 @@
         <v>1.1915</v>
       </c>
       <c r="C408">
-        <v>2.2154</v>
+        <v>0.512</v>
       </c>
       <c r="D408">
-        <v>2.5883</v>
+        <v>1.1383</v>
       </c>
       <c r="E408">
         <v>1</v>
@@ -7336,13 +7336,13 @@
         <v>1.1915</v>
       </c>
       <c r="C409">
-        <v>0.5601</v>
+        <v>0.8425</v>
       </c>
       <c r="D409">
-        <v>-0.2766</v>
+        <v>2.2991</v>
       </c>
       <c r="E409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -7353,13 +7353,13 @@
         <v>1.1915</v>
       </c>
       <c r="C410">
-        <v>-10.0825</v>
+        <v>1.2233</v>
       </c>
       <c r="D410">
-        <v>0.168</v>
+        <v>3.7786</v>
       </c>
       <c r="E410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -7370,10 +7370,10 @@
         <v>1.1915</v>
       </c>
       <c r="C411">
-        <v>0.6808</v>
+        <v>1.2979</v>
       </c>
       <c r="D411">
-        <v>2.4944</v>
+        <v>4.6127</v>
       </c>
       <c r="E411">
         <v>1</v>
@@ -7387,10 +7387,10 @@
         <v>1.1915</v>
       </c>
       <c r="C412">
-        <v>0.417</v>
+        <v>1.3469</v>
       </c>
       <c r="D412">
-        <v>2.4596</v>
+        <v>5.2008</v>
       </c>
       <c r="E412">
         <v>1</v>
@@ -7404,13 +7404,13 @@
         <v>1.1915</v>
       </c>
       <c r="C413">
-        <v>-0.106</v>
+        <v>1.5397</v>
       </c>
       <c r="D413">
-        <v>0.5395</v>
+        <v>5.5033</v>
       </c>
       <c r="E413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -7421,13 +7421,13 @@
         <v>1.1915</v>
       </c>
       <c r="C414">
-        <v>-1.3587</v>
+        <v>1.909</v>
       </c>
       <c r="D414">
-        <v>0.3578</v>
+        <v>4.8056</v>
       </c>
       <c r="E414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -7438,13 +7438,13 @@
         <v>1.1915</v>
       </c>
       <c r="C415">
-        <v>-9.9869</v>
+        <v>1.6779</v>
       </c>
       <c r="D415">
-        <v>11.1425</v>
+        <v>3.9273</v>
       </c>
       <c r="E415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -7455,13 +7455,13 @@
         <v>1.1915</v>
       </c>
       <c r="C416">
-        <v>-0.6062</v>
+        <v>2.1453</v>
       </c>
       <c r="D416">
-        <v>2.3917</v>
+        <v>3.0563</v>
       </c>
       <c r="E416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -7472,13 +7472,13 @@
         <v>1.1915</v>
       </c>
       <c r="C417">
-        <v>0.2093</v>
+        <v>1.9244</v>
       </c>
       <c r="D417">
-        <v>0.4163</v>
+        <v>1.7581</v>
       </c>
       <c r="E417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -7489,10 +7489,10 @@
         <v>1.1915</v>
       </c>
       <c r="C418">
-        <v>1.7887</v>
+        <v>1.8214</v>
       </c>
       <c r="D418">
-        <v>2.5077</v>
+        <v>1.0324</v>
       </c>
       <c r="E418">
         <v>1</v>
@@ -7506,13 +7506,13 @@
         <v>1.1915</v>
       </c>
       <c r="C419">
-        <v>-1.2238</v>
+        <v>2.3382</v>
       </c>
       <c r="D419">
-        <v>0.675</v>
+        <v>0.2009</v>
       </c>
       <c r="E419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -7523,10 +7523,10 @@
         <v>1.1915</v>
       </c>
       <c r="C420">
-        <v>2.1936</v>
+        <v>1.9521</v>
       </c>
       <c r="D420">
-        <v>1.5493</v>
+        <v>0.0944</v>
       </c>
       <c r="E420">
         <v>1</v>
@@ -7540,10 +7540,10 @@
         <v>1.1915</v>
       </c>
       <c r="C421">
-        <v>7.5229</v>
+        <v>7.9594</v>
       </c>
       <c r="D421">
-        <v>-7.6952</v>
+        <v>-7.6</v>
       </c>
       <c r="E421">
         <v>0</v>
@@ -7557,10 +7557,10 @@
         <v>1.1915</v>
       </c>
       <c r="C422">
-        <v>1.4682</v>
+        <v>1.2923</v>
       </c>
       <c r="D422">
-        <v>1.5544</v>
+        <v>0.6429</v>
       </c>
       <c r="E422">
         <v>1</v>
@@ -7574,10 +7574,10 @@
         <v>1.1915</v>
       </c>
       <c r="C423">
-        <v>1.2653</v>
+        <v>0.3531</v>
       </c>
       <c r="D423">
-        <v>1.0856</v>
+        <v>1.4747</v>
       </c>
       <c r="E423">
         <v>1</v>
@@ -7591,13 +7591,13 @@
         <v>1.1915</v>
       </c>
       <c r="C424">
-        <v>-0.0072</v>
+        <v>0.1972</v>
       </c>
       <c r="D424">
-        <v>0.0416</v>
+        <v>1.8548</v>
       </c>
       <c r="E424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -7608,13 +7608,13 @@
         <v>1.1915</v>
       </c>
       <c r="C425">
-        <v>-0.7369</v>
+        <v>0.1453</v>
       </c>
       <c r="D425">
-        <v>-0.287</v>
+        <v>2.1039</v>
       </c>
       <c r="E425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -7625,13 +7625,13 @@
         <v>1.1915</v>
       </c>
       <c r="C426">
-        <v>-0.1784</v>
+        <v>-0.8312</v>
       </c>
       <c r="D426">
-        <v>0.1414</v>
+        <v>2.8716</v>
       </c>
       <c r="E426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -7642,13 +7642,13 @@
         <v>0.8288</v>
       </c>
       <c r="C427">
-        <v>2.8039</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="D427">
-        <v>-0.1791</v>
+        <v>-3.3746</v>
       </c>
       <c r="E427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -7659,13 +7659,13 @@
         <v>0.8288</v>
       </c>
       <c r="C428">
-        <v>3.5894</v>
+        <v>0.2554</v>
       </c>
       <c r="D428">
-        <v>0.8024</v>
+        <v>-3.4078</v>
       </c>
       <c r="E428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -7676,13 +7676,13 @@
         <v>0.8288</v>
       </c>
       <c r="C429">
-        <v>3.5102</v>
+        <v>0.2445</v>
       </c>
       <c r="D429">
-        <v>0.6736</v>
+        <v>-3.6258</v>
       </c>
       <c r="E429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -7693,10 +7693,10 @@
         <v>0.8288</v>
       </c>
       <c r="C430">
-        <v>7.8169</v>
+        <v>0.3917</v>
       </c>
       <c r="D430">
-        <v>6.765</v>
+        <v>-3.6851</v>
       </c>
       <c r="E430">
         <v>0</v>
@@ -7710,10 +7710,10 @@
         <v>0.8288</v>
       </c>
       <c r="C431">
-        <v>3.1427</v>
+        <v>0.1825</v>
       </c>
       <c r="D431">
-        <v>1.8053</v>
+        <v>-1.2193</v>
       </c>
       <c r="E431">
         <v>1</v>
@@ -7727,10 +7727,10 @@
         <v>0.8288</v>
       </c>
       <c r="C432">
-        <v>2.8936</v>
+        <v>0.2856</v>
       </c>
       <c r="D432">
-        <v>2.5322</v>
+        <v>-0.1799</v>
       </c>
       <c r="E432">
         <v>1</v>
@@ -7744,10 +7744,10 @@
         <v>0.8288</v>
       </c>
       <c r="C433">
-        <v>2.4087</v>
+        <v>0.5857</v>
       </c>
       <c r="D433">
-        <v>2.6508</v>
+        <v>0.844</v>
       </c>
       <c r="E433">
         <v>1</v>
@@ -7761,10 +7761,10 @@
         <v>0.8288</v>
       </c>
       <c r="C434">
-        <v>1.7839</v>
+        <v>1.2071</v>
       </c>
       <c r="D434">
-        <v>3.2357</v>
+        <v>1.9337</v>
       </c>
       <c r="E434">
         <v>1</v>
@@ -7778,13 +7778,13 @@
         <v>0.8288</v>
       </c>
       <c r="C435">
-        <v>-6.9631</v>
+        <v>1.6671</v>
       </c>
       <c r="D435">
-        <v>7.6425</v>
+        <v>3.4941</v>
       </c>
       <c r="E435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -7795,13 +7795,13 @@
         <v>0.8288</v>
       </c>
       <c r="C436">
-        <v>0.3207</v>
+        <v>1.8023</v>
       </c>
       <c r="D436">
-        <v>-0.0013</v>
+        <v>4.4557</v>
       </c>
       <c r="E436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -7812,13 +7812,13 @@
         <v>0.8288</v>
       </c>
       <c r="C437">
-        <v>7.7907</v>
+        <v>1.9285</v>
       </c>
       <c r="D437">
-        <v>10.1815</v>
+        <v>5.0292</v>
       </c>
       <c r="E437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -7829,13 +7829,13 @@
         <v>0.8288</v>
       </c>
       <c r="C438">
-        <v>-0.0222</v>
+        <v>2.091</v>
       </c>
       <c r="D438">
-        <v>0.7038</v>
+        <v>5.5024</v>
       </c>
       <c r="E438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -7846,13 +7846,13 @@
         <v>0.8288</v>
       </c>
       <c r="C439">
-        <v>-2.7577</v>
+        <v>2.332</v>
       </c>
       <c r="D439">
-        <v>5.1122</v>
+        <v>4.6599</v>
       </c>
       <c r="E439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -7863,10 +7863,10 @@
         <v>0.8288</v>
       </c>
       <c r="C440">
-        <v>1.1754</v>
+        <v>2.1031</v>
       </c>
       <c r="D440">
-        <v>2.6961</v>
+        <v>3.8532</v>
       </c>
       <c r="E440">
         <v>1</v>
@@ -7880,10 +7880,10 @@
         <v>0.8288</v>
       </c>
       <c r="C441">
-        <v>0.2317</v>
+        <v>7.5402</v>
       </c>
       <c r="D441">
-        <v>1.0151</v>
+        <v>11.7781</v>
       </c>
       <c r="E441">
         <v>0</v>
@@ -7897,13 +7897,13 @@
         <v>0.8288</v>
       </c>
       <c r="C442">
-        <v>9.9275</v>
+        <v>2.2348</v>
       </c>
       <c r="D442">
-        <v>11.0019</v>
+        <v>1.7534</v>
       </c>
       <c r="E442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -7914,10 +7914,10 @@
         <v>0.8288</v>
       </c>
       <c r="C443">
-        <v>2.2001</v>
+        <v>2.1079</v>
       </c>
       <c r="D443">
-        <v>2.4634</v>
+        <v>1.0062</v>
       </c>
       <c r="E443">
         <v>1</v>
@@ -7931,13 +7931,13 @@
         <v>0.8288</v>
       </c>
       <c r="C444">
-        <v>2.5781</v>
+        <v>7.8622</v>
       </c>
       <c r="D444">
-        <v>2.2256</v>
+        <v>-0.5707</v>
       </c>
       <c r="E444">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -7948,13 +7948,13 @@
         <v>0.8288</v>
       </c>
       <c r="C445">
-        <v>-0.067</v>
+        <v>2.1417</v>
       </c>
       <c r="D445">
-        <v>-0.0584</v>
+        <v>-0.034</v>
       </c>
       <c r="E445">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -7965,10 +7965,10 @@
         <v>0.8288</v>
       </c>
       <c r="C446">
-        <v>1.4225</v>
+        <v>1.5182</v>
       </c>
       <c r="D446">
-        <v>1.8737</v>
+        <v>0.4798</v>
       </c>
       <c r="E446">
         <v>1</v>
@@ -7982,10 +7982,10 @@
         <v>0.8288</v>
       </c>
       <c r="C447">
-        <v>1.2181</v>
+        <v>1.547</v>
       </c>
       <c r="D447">
-        <v>1.5987</v>
+        <v>0.7685</v>
       </c>
       <c r="E447">
         <v>1</v>
@@ -7999,13 +7999,13 @@
         <v>0.8288</v>
       </c>
       <c r="C448">
-        <v>0.9349</v>
+        <v>-1.5454</v>
       </c>
       <c r="D448">
-        <v>1.0572</v>
+        <v>5.6645</v>
       </c>
       <c r="E448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -8016,13 +8016,13 @@
         <v>0.8288</v>
       </c>
       <c r="C449">
-        <v>-0.0105</v>
+        <v>0.2678</v>
       </c>
       <c r="D449">
-        <v>0.0497</v>
+        <v>1.9945</v>
       </c>
       <c r="E449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -8033,10 +8033,10 @@
         <v>0.8288</v>
       </c>
       <c r="C450">
-        <v>0.5579</v>
+        <v>0.2037</v>
       </c>
       <c r="D450">
-        <v>1.3828</v>
+        <v>2.1997</v>
       </c>
       <c r="E450">
         <v>1</v>
@@ -8050,10 +8050,10 @@
         <v>0.8288</v>
       </c>
       <c r="C451">
-        <v>0.3784</v>
+        <v>-0.841</v>
       </c>
       <c r="D451">
-        <v>1.0069</v>
+        <v>3.4252</v>
       </c>
       <c r="E451">
         <v>1</v>
@@ -8067,13 +8067,13 @@
         <v>0.4662</v>
       </c>
       <c r="C452">
-        <v>-0.1854</v>
+        <v>-0.9155</v>
       </c>
       <c r="D452">
-        <v>0.063</v>
+        <v>-2.9624</v>
       </c>
       <c r="E452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -8084,10 +8084,10 @@
         <v>0.4662</v>
       </c>
       <c r="C453">
-        <v>-0.1658</v>
+        <v>0.4255</v>
       </c>
       <c r="D453">
-        <v>0.3286</v>
+        <v>-3.3572</v>
       </c>
       <c r="E453">
         <v>0</v>
@@ -8101,13 +8101,13 @@
         <v>0.4662</v>
       </c>
       <c r="C454">
-        <v>3.2602</v>
+        <v>0.2155</v>
       </c>
       <c r="D454">
-        <v>-0.4016</v>
+        <v>-3.5384</v>
       </c>
       <c r="E454">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -8118,10 +8118,10 @@
         <v>0.4662</v>
       </c>
       <c r="C455">
-        <v>-0.4902</v>
+        <v>-14.7374</v>
       </c>
       <c r="D455">
-        <v>0.9044</v>
+        <v>-1.4669</v>
       </c>
       <c r="E455">
         <v>0</v>
@@ -8135,10 +8135,10 @@
         <v>0.4662</v>
       </c>
       <c r="C456">
-        <v>11.6757</v>
+        <v>0.2159</v>
       </c>
       <c r="D456">
-        <v>7.8437</v>
+        <v>-3.6945</v>
       </c>
       <c r="E456">
         <v>0</v>
@@ -8152,13 +8152,13 @@
         <v>0.4662</v>
       </c>
       <c r="C457">
-        <v>2.3883</v>
+        <v>0.2863</v>
       </c>
       <c r="D457">
-        <v>2.0915</v>
+        <v>-4.1705</v>
       </c>
       <c r="E457">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -8169,13 +8169,13 @@
         <v>0.4662</v>
       </c>
       <c r="C458">
-        <v>-13.0889</v>
+        <v>0.3214</v>
       </c>
       <c r="D458">
-        <v>12.4356</v>
+        <v>0.1217</v>
       </c>
       <c r="E458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -8186,13 +8186,13 @@
         <v>0.4662</v>
       </c>
       <c r="C459">
-        <v>1.2169</v>
+        <v>0.1517</v>
       </c>
       <c r="D459">
-        <v>3.0015</v>
+        <v>-3.7659</v>
       </c>
       <c r="E459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -8203,10 +8203,10 @@
         <v>0.4662</v>
       </c>
       <c r="C460">
-        <v>0.461</v>
+        <v>1.7909</v>
       </c>
       <c r="D460">
-        <v>2.8524</v>
+        <v>2.768</v>
       </c>
       <c r="E460">
         <v>1</v>
@@ -8220,13 +8220,13 @@
         <v>0.4662</v>
       </c>
       <c r="C461">
-        <v>-0.1102</v>
+        <v>7.5655</v>
       </c>
       <c r="D461">
-        <v>2.8714</v>
+        <v>-3.3713</v>
       </c>
       <c r="E461">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -8237,13 +8237,13 @@
         <v>0.4662</v>
       </c>
       <c r="C462">
-        <v>-12.3731</v>
+        <v>2.5751</v>
       </c>
       <c r="D462">
-        <v>7.6549</v>
+        <v>4.3373</v>
       </c>
       <c r="E462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -8254,13 +8254,13 @@
         <v>0.4662</v>
       </c>
       <c r="C463">
-        <v>0.0504</v>
+        <v>3.0331</v>
       </c>
       <c r="D463">
-        <v>7.5957</v>
+        <v>5.0786</v>
       </c>
       <c r="E463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -8271,13 +8271,13 @@
         <v>0.4662</v>
       </c>
       <c r="C464">
-        <v>-0.5421</v>
+        <v>2.9047</v>
       </c>
       <c r="D464">
-        <v>-9.792999999999999</v>
+        <v>4.7868</v>
       </c>
       <c r="E464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -8288,10 +8288,10 @@
         <v>0.4662</v>
       </c>
       <c r="C465">
-        <v>0.5318000000000001</v>
+        <v>2.6003</v>
       </c>
       <c r="D465">
-        <v>3.0747</v>
+        <v>4.0775</v>
       </c>
       <c r="E465">
         <v>1</v>
@@ -8305,10 +8305,10 @@
         <v>0.4662</v>
       </c>
       <c r="C466">
-        <v>1.1588</v>
+        <v>2.9336</v>
       </c>
       <c r="D466">
-        <v>3.0005</v>
+        <v>3.2989</v>
       </c>
       <c r="E466">
         <v>1</v>
@@ -8322,10 +8322,10 @@
         <v>0.4662</v>
       </c>
       <c r="C467">
-        <v>1.3603</v>
+        <v>2.5983</v>
       </c>
       <c r="D467">
-        <v>2.7597</v>
+        <v>1.9235</v>
       </c>
       <c r="E467">
         <v>1</v>
@@ -8339,10 +8339,10 @@
         <v>0.4662</v>
       </c>
       <c r="C468">
-        <v>1.8907</v>
+        <v>2.1545</v>
       </c>
       <c r="D468">
-        <v>2.7349</v>
+        <v>1.393</v>
       </c>
       <c r="E468">
         <v>1</v>
@@ -8356,13 +8356,13 @@
         <v>0.4662</v>
       </c>
       <c r="C469">
-        <v>7.6821</v>
+        <v>2.4499</v>
       </c>
       <c r="D469">
-        <v>14.6928</v>
+        <v>0.6516</v>
       </c>
       <c r="E469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -8373,13 +8373,13 @@
         <v>0.4662</v>
       </c>
       <c r="C470">
-        <v>-0.4856</v>
+        <v>1.8832</v>
       </c>
       <c r="D470">
-        <v>-0.0709</v>
+        <v>0.1794</v>
       </c>
       <c r="E470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -8390,13 +8390,13 @@
         <v>0.4662</v>
       </c>
       <c r="C471">
-        <v>1.9659</v>
+        <v>-6.2352</v>
       </c>
       <c r="D471">
-        <v>1.4215</v>
+        <v>12.2716</v>
       </c>
       <c r="E471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -8407,10 +8407,10 @@
         <v>0.4662</v>
       </c>
       <c r="C472">
-        <v>1.6801</v>
+        <v>1.8524</v>
       </c>
       <c r="D472">
-        <v>1.1355</v>
+        <v>0.5683</v>
       </c>
       <c r="E472">
         <v>1</v>
@@ -8424,13 +8424,13 @@
         <v>0.4662</v>
       </c>
       <c r="C473">
-        <v>0.0326</v>
+        <v>0.784</v>
       </c>
       <c r="D473">
-        <v>0.3523</v>
+        <v>1.6129</v>
       </c>
       <c r="E473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -8441,13 +8441,13 @@
         <v>0.4662</v>
       </c>
       <c r="C474">
-        <v>2.9509</v>
+        <v>0.5407999999999999</v>
       </c>
       <c r="D474">
-        <v>7.8573</v>
+        <v>1.9718</v>
       </c>
       <c r="E474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -8458,10 +8458,10 @@
         <v>0.4662</v>
       </c>
       <c r="C475">
-        <v>0.8551</v>
+        <v>0.516</v>
       </c>
       <c r="D475">
-        <v>0.7018</v>
+        <v>2.0913</v>
       </c>
       <c r="E475">
         <v>1</v>
@@ -8475,10 +8475,10 @@
         <v>0.4662</v>
       </c>
       <c r="C476">
-        <v>0.6995</v>
+        <v>-0.2338</v>
       </c>
       <c r="D476">
-        <v>0.5233</v>
+        <v>2.863</v>
       </c>
       <c r="E476">
         <v>1</v>

--- a/vortex_analysis/index/output.xlsx
+++ b/vortex_analysis/index/output.xlsx
@@ -417,10 +417,10 @@
         <v>6.9934</v>
       </c>
       <c r="C2">
-        <v>-0.2612</v>
+        <v>4.3923</v>
       </c>
       <c r="D2">
-        <v>-0.1273</v>
+        <v>0.0728</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -434,13 +434,13 @@
         <v>6.9934</v>
       </c>
       <c r="C3">
-        <v>0.5318000000000001</v>
+        <v>4.6444</v>
       </c>
       <c r="D3">
-        <v>-3.5648</v>
+        <v>0.0551</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -451,13 +451,13 @@
         <v>6.9934</v>
       </c>
       <c r="C4">
-        <v>1.2237</v>
+        <v>4.8937</v>
       </c>
       <c r="D4">
-        <v>13.4632</v>
+        <v>-0.8398</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -468,13 +468,13 @@
         <v>6.9934</v>
       </c>
       <c r="C5">
-        <v>-0.0885</v>
+        <v>3.7343</v>
       </c>
       <c r="D5">
-        <v>0.5109</v>
+        <v>2.7316</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -485,10 +485,10 @@
         <v>6.9934</v>
       </c>
       <c r="C6">
-        <v>0.4867</v>
+        <v>4.7347</v>
       </c>
       <c r="D6">
-        <v>0.9798</v>
+        <v>0.0328</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -502,13 +502,13 @@
         <v>6.9934</v>
       </c>
       <c r="C7">
-        <v>-7.7671</v>
+        <v>3.8655</v>
       </c>
       <c r="D7">
-        <v>7.632</v>
+        <v>-0.7981</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -519,10 +519,10 @@
         <v>6.9934</v>
       </c>
       <c r="C8">
-        <v>0.5036</v>
+        <v>3.865</v>
       </c>
       <c r="D8">
-        <v>1.486</v>
+        <v>-0.4956</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -536,10 +536,10 @@
         <v>6.9934</v>
       </c>
       <c r="C9">
-        <v>1.1953</v>
+        <v>3.9126</v>
       </c>
       <c r="D9">
-        <v>1.8903</v>
+        <v>-0.7517</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -553,13 +553,13 @@
         <v>6.9934</v>
       </c>
       <c r="C10">
-        <v>1.8959</v>
+        <v>2.221</v>
       </c>
       <c r="D10">
-        <v>0.4989</v>
+        <v>-0.3166</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -570,10 +570,10 @@
         <v>6.9934</v>
       </c>
       <c r="C11">
-        <v>-4.4252</v>
+        <v>11.4976</v>
       </c>
       <c r="D11">
-        <v>-3.6174</v>
+        <v>0.1513</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -587,13 +587,13 @@
         <v>6.9934</v>
       </c>
       <c r="C12">
-        <v>0.8368</v>
+        <v>11.891</v>
       </c>
       <c r="D12">
-        <v>2.0914</v>
+        <v>5.6722</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -604,10 +604,10 @@
         <v>6.9934</v>
       </c>
       <c r="C13">
-        <v>6.8104</v>
+        <v>-7.2245</v>
       </c>
       <c r="D13">
-        <v>-7.5139</v>
+        <v>6.8724</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -621,13 +621,13 @@
         <v>6.9934</v>
       </c>
       <c r="C14">
-        <v>-0.6998</v>
+        <v>8.2097</v>
       </c>
       <c r="D14">
-        <v>0.5755</v>
+        <v>-7.6526</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -638,13 +638,13 @@
         <v>6.9934</v>
       </c>
       <c r="C15">
-        <v>-7.7269</v>
+        <v>3.1083</v>
       </c>
       <c r="D15">
-        <v>-7.5628</v>
+        <v>1.1476</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -655,10 +655,10 @@
         <v>6.9934</v>
       </c>
       <c r="C16">
-        <v>-1.9305</v>
+        <v>2.9767</v>
       </c>
       <c r="D16">
-        <v>0.4337</v>
+        <v>1.7374</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -672,13 +672,13 @@
         <v>6.9934</v>
       </c>
       <c r="C17">
-        <v>-2.3167</v>
+        <v>4.204</v>
       </c>
       <c r="D17">
-        <v>0.3589</v>
+        <v>7.6125</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -689,13 +689,13 @@
         <v>6.9934</v>
       </c>
       <c r="C18">
-        <v>-2.3343</v>
+        <v>13.8199</v>
       </c>
       <c r="D18">
-        <v>0.2514</v>
+        <v>10.5309</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -706,10 +706,10 @@
         <v>6.9934</v>
       </c>
       <c r="C19">
-        <v>2.5174</v>
+        <v>0.0301</v>
       </c>
       <c r="D19">
-        <v>-1.2587</v>
+        <v>-0.2012</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -723,10 +723,10 @@
         <v>6.9934</v>
       </c>
       <c r="C20">
-        <v>-0.8737</v>
+        <v>3.1312</v>
       </c>
       <c r="D20">
-        <v>1.5252</v>
+        <v>1.0446</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -740,13 +740,13 @@
         <v>6.9934</v>
       </c>
       <c r="C21">
-        <v>-7.7482</v>
+        <v>2.5079</v>
       </c>
       <c r="D21">
-        <v>2.2336</v>
+        <v>0.4682</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -757,10 +757,10 @@
         <v>6.9934</v>
       </c>
       <c r="C22">
-        <v>0.0569</v>
+        <v>1.5141</v>
       </c>
       <c r="D22">
-        <v>2.5381</v>
+        <v>-0.2202</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -774,10 +774,10 @@
         <v>6.9934</v>
       </c>
       <c r="C23">
-        <v>-3.0031</v>
+        <v>-0.0186</v>
       </c>
       <c r="D23">
-        <v>-4.5919</v>
+        <v>-0.0559</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -791,13 +791,13 @@
         <v>6.9934</v>
       </c>
       <c r="C24">
-        <v>-0.4244</v>
+        <v>-0.0833</v>
       </c>
       <c r="D24">
-        <v>2.9874</v>
+        <v>-0.1529</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -808,10 +808,10 @@
         <v>6.9934</v>
       </c>
       <c r="C25">
-        <v>-0.7389</v>
+        <v>-0.6064000000000001</v>
       </c>
       <c r="D25">
-        <v>3.0021</v>
+        <v>-1.3758</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -825,13 +825,13 @@
         <v>6.9934</v>
       </c>
       <c r="C26">
-        <v>-7.6858</v>
+        <v>-0.9785</v>
       </c>
       <c r="D26">
-        <v>10.3157</v>
+        <v>-1.6738</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -842,13 +842,13 @@
         <v>6.6308</v>
       </c>
       <c r="C27">
-        <v>-0.618</v>
+        <v>4.9271</v>
       </c>
       <c r="D27">
-        <v>-0.1187</v>
+        <v>-12.512</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -859,13 +859,13 @@
         <v>6.6308</v>
       </c>
       <c r="C28">
-        <v>0.008200000000000001</v>
+        <v>12.4112</v>
       </c>
       <c r="D28">
-        <v>-0.512</v>
+        <v>13.0033</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -876,13 +876,13 @@
         <v>6.6308</v>
       </c>
       <c r="C29">
-        <v>0.1033</v>
+        <v>4.6133</v>
       </c>
       <c r="D29">
-        <v>-1.3345</v>
+        <v>-0.4387</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -893,13 +893,13 @@
         <v>6.6308</v>
       </c>
       <c r="C30">
-        <v>-2.607</v>
+        <v>4.352</v>
       </c>
       <c r="D30">
-        <v>-1.6686</v>
+        <v>-0.1228</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -910,10 +910,10 @@
         <v>6.6308</v>
       </c>
       <c r="C31">
-        <v>0.1223</v>
+        <v>4.5338</v>
       </c>
       <c r="D31">
-        <v>0.7752</v>
+        <v>0.0572</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -927,13 +927,13 @@
         <v>6.6308</v>
       </c>
       <c r="C32">
-        <v>-0.0432</v>
+        <v>2.5283</v>
       </c>
       <c r="D32">
-        <v>1.6986</v>
+        <v>-5.6548</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -944,13 +944,13 @@
         <v>6.6308</v>
       </c>
       <c r="C33">
-        <v>2.6998</v>
+        <v>3.7743</v>
       </c>
       <c r="D33">
-        <v>0.3165</v>
+        <v>-0.3078</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -961,13 +961,13 @@
         <v>6.6308</v>
       </c>
       <c r="C34">
-        <v>7.572</v>
+        <v>3.465</v>
       </c>
       <c r="D34">
-        <v>10.3342</v>
+        <v>-0.3789</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -978,13 +978,13 @@
         <v>6.6308</v>
       </c>
       <c r="C35">
-        <v>0.7269</v>
+        <v>-4.0406</v>
       </c>
       <c r="D35">
-        <v>2.0709</v>
+        <v>-7.7873</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -995,13 +995,13 @@
         <v>6.6308</v>
       </c>
       <c r="C36">
-        <v>7.7302</v>
+        <v>1.6523</v>
       </c>
       <c r="D36">
-        <v>-1.0105</v>
+        <v>0.0528</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1012,10 +1012,10 @@
         <v>6.6308</v>
       </c>
       <c r="C37">
-        <v>7.0496</v>
+        <v>13.2214</v>
       </c>
       <c r="D37">
-        <v>0.1385</v>
+        <v>-1.6138</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1029,13 +1029,13 @@
         <v>6.6308</v>
       </c>
       <c r="C38">
-        <v>0.1665</v>
+        <v>-6.4098</v>
       </c>
       <c r="D38">
-        <v>1.5595</v>
+        <v>-2.791</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1046,13 +1046,13 @@
         <v>6.6308</v>
       </c>
       <c r="C39">
-        <v>-0.3683</v>
+        <v>12.9424</v>
       </c>
       <c r="D39">
-        <v>0.8013</v>
+        <v>0.3752</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1063,13 +1063,13 @@
         <v>6.6308</v>
       </c>
       <c r="C40">
-        <v>-1.2154</v>
+        <v>6.8023</v>
       </c>
       <c r="D40">
-        <v>0.4825</v>
+        <v>-2.0082</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1080,10 +1080,10 @@
         <v>6.6308</v>
       </c>
       <c r="C41">
-        <v>-1.7033</v>
+        <v>2.9733</v>
       </c>
       <c r="D41">
-        <v>0.338</v>
+        <v>1.063</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1097,10 +1097,10 @@
         <v>6.6308</v>
       </c>
       <c r="C42">
-        <v>-1.647</v>
+        <v>4.0292</v>
       </c>
       <c r="D42">
-        <v>0.1635</v>
+        <v>1.1217</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1114,10 +1114,10 @@
         <v>6.6308</v>
       </c>
       <c r="C43">
-        <v>-1.9834</v>
+        <v>3.8546</v>
       </c>
       <c r="D43">
-        <v>-0.1488</v>
+        <v>1.2336</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1131,10 +1131,10 @@
         <v>6.6308</v>
       </c>
       <c r="C44">
-        <v>-1.1254</v>
+        <v>3.3439</v>
       </c>
       <c r="D44">
-        <v>0.7529</v>
+        <v>1.0298</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1148,13 +1148,13 @@
         <v>6.6308</v>
       </c>
       <c r="C45">
-        <v>-0.6876</v>
+        <v>0.6772</v>
       </c>
       <c r="D45">
-        <v>0.8084</v>
+        <v>-0.8925999999999999</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1165,13 +1165,13 @@
         <v>6.6308</v>
       </c>
       <c r="C46">
-        <v>11.975</v>
+        <v>2.7533</v>
       </c>
       <c r="D46">
-        <v>7.7412</v>
+        <v>0.212</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1182,13 +1182,13 @@
         <v>6.6308</v>
       </c>
       <c r="C47">
-        <v>0.4252</v>
+        <v>-0.1227</v>
       </c>
       <c r="D47">
-        <v>1.7229</v>
+        <v>-0.1818</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1199,10 +1199,10 @@
         <v>6.6308</v>
       </c>
       <c r="C48">
-        <v>-0.0535</v>
+        <v>0.7474</v>
       </c>
       <c r="D48">
-        <v>1.7196</v>
+        <v>-1.1456</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1216,10 +1216,10 @@
         <v>6.6308</v>
       </c>
       <c r="C49">
-        <v>-0.3473</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="D49">
-        <v>2.0248</v>
+        <v>-1.4798</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -1233,13 +1233,13 @@
         <v>6.6308</v>
       </c>
       <c r="C50">
-        <v>-1.0525</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="D50">
-        <v>-3.8296</v>
+        <v>-1.6253</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1250,13 +1250,13 @@
         <v>6.6308</v>
       </c>
       <c r="C51">
-        <v>-1.1532</v>
+        <v>-7.6335</v>
       </c>
       <c r="D51">
-        <v>0.8693</v>
+        <v>-7.738</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1267,10 +1267,10 @@
         <v>6.2681</v>
       </c>
       <c r="C52">
-        <v>-0.1844</v>
+        <v>3.9651</v>
       </c>
       <c r="D52">
-        <v>-0.215</v>
+        <v>0.6632</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -1284,10 +1284,10 @@
         <v>6.2681</v>
       </c>
       <c r="C53">
-        <v>0.3217</v>
+        <v>4.2319</v>
       </c>
       <c r="D53">
-        <v>-0.5328000000000001</v>
+        <v>0.5729</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -1301,13 +1301,13 @@
         <v>6.2681</v>
       </c>
       <c r="C54">
-        <v>-0.0058</v>
+        <v>7.8873</v>
       </c>
       <c r="D54">
-        <v>0.0403</v>
+        <v>3.9922</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1318,10 +1318,10 @@
         <v>6.2681</v>
       </c>
       <c r="C55">
-        <v>0.0621</v>
+        <v>4.4343</v>
       </c>
       <c r="D55">
-        <v>0.2128</v>
+        <v>0.2751</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -1335,13 +1335,13 @@
         <v>6.2681</v>
       </c>
       <c r="C56">
-        <v>7.7212</v>
+        <v>4.7389</v>
       </c>
       <c r="D56">
-        <v>-6.2113</v>
+        <v>0.4221</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1352,10 +1352,10 @@
         <v>6.2681</v>
       </c>
       <c r="C57">
-        <v>0.1922</v>
+        <v>4.1217</v>
       </c>
       <c r="D57">
-        <v>1.5522</v>
+        <v>-0.3063</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -1369,10 +1369,10 @@
         <v>6.2681</v>
       </c>
       <c r="C58">
-        <v>0.4621</v>
+        <v>3.9284</v>
       </c>
       <c r="D58">
-        <v>1.214</v>
+        <v>0.1073</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -1386,13 +1386,13 @@
         <v>6.2681</v>
       </c>
       <c r="C59">
-        <v>0.838</v>
+        <v>3.8048</v>
       </c>
       <c r="D59">
-        <v>1.6945</v>
+        <v>7.6502</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1403,10 +1403,10 @@
         <v>6.2681</v>
       </c>
       <c r="C60">
-        <v>0.6254</v>
+        <v>1.6796</v>
       </c>
       <c r="D60">
-        <v>2.1037</v>
+        <v>-0.2504</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -1420,10 +1420,10 @@
         <v>6.2681</v>
       </c>
       <c r="C61">
-        <v>1.2296</v>
+        <v>1.2903</v>
       </c>
       <c r="D61">
-        <v>1.9513</v>
+        <v>-0.0951</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -1437,13 +1437,13 @@
         <v>6.2681</v>
       </c>
       <c r="C62">
-        <v>7.8186</v>
+        <v>1.2905</v>
       </c>
       <c r="D62">
-        <v>-2.1159</v>
+        <v>-0.2062</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1454,10 +1454,10 @@
         <v>6.2681</v>
       </c>
       <c r="C63">
-        <v>-0.9064</v>
+        <v>-12.2073</v>
       </c>
       <c r="D63">
-        <v>0.5869</v>
+        <v>8.495699999999999</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1471,13 +1471,13 @@
         <v>6.2681</v>
       </c>
       <c r="C64">
-        <v>5.5799</v>
+        <v>1.6135</v>
       </c>
       <c r="D64">
-        <v>13.4932</v>
+        <v>0.2143</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1488,13 +1488,13 @@
         <v>6.2681</v>
       </c>
       <c r="C65">
-        <v>-7.779</v>
+        <v>2.0531</v>
       </c>
       <c r="D65">
-        <v>9.714700000000001</v>
+        <v>0.2254</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1505,13 +1505,13 @@
         <v>6.2681</v>
       </c>
       <c r="C66">
-        <v>-7.8308</v>
+        <v>2.4345</v>
       </c>
       <c r="D66">
-        <v>-3.4258</v>
+        <v>0.8663</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1522,13 +1522,13 @@
         <v>6.2681</v>
       </c>
       <c r="C67">
-        <v>-13.5374</v>
+        <v>3.5516</v>
       </c>
       <c r="D67">
-        <v>-5.349</v>
+        <v>0.7901</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1539,10 +1539,10 @@
         <v>6.2681</v>
       </c>
       <c r="C68">
-        <v>-1.7406</v>
+        <v>3.5287</v>
       </c>
       <c r="D68">
-        <v>-0.2571</v>
+        <v>0.9222</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -1556,10 +1556,10 @@
         <v>6.2681</v>
       </c>
       <c r="C69">
-        <v>-1.1609</v>
+        <v>3.1185</v>
       </c>
       <c r="D69">
-        <v>0.8269</v>
+        <v>0.7624</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -1573,13 +1573,13 @@
         <v>6.2681</v>
       </c>
       <c r="C70">
-        <v>-0.8609</v>
+        <v>0.0188</v>
       </c>
       <c r="D70">
-        <v>0.5366</v>
+        <v>-0.1934</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1590,10 +1590,10 @@
         <v>6.2681</v>
       </c>
       <c r="C71">
-        <v>-0.2752</v>
+        <v>2.6104</v>
       </c>
       <c r="D71">
-        <v>1.2467</v>
+        <v>-0.1274</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -1607,13 +1607,13 @@
         <v>6.2681</v>
       </c>
       <c r="C72">
-        <v>-6.8044</v>
+        <v>1.7995</v>
       </c>
       <c r="D72">
-        <v>14.2652</v>
+        <v>-0.5143</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1624,10 +1624,10 @@
         <v>6.2681</v>
       </c>
       <c r="C73">
-        <v>-0.1851</v>
+        <v>1.1692</v>
       </c>
       <c r="D73">
-        <v>1.5089</v>
+        <v>-1.2542</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -1641,10 +1641,10 @@
         <v>6.2681</v>
       </c>
       <c r="C74">
-        <v>-0.4044</v>
+        <v>1.0009</v>
       </c>
       <c r="D74">
-        <v>1.7629</v>
+        <v>-1.4217</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -1658,13 +1658,13 @@
         <v>6.2681</v>
       </c>
       <c r="C75">
-        <v>-0.5827</v>
+        <v>0.1371</v>
       </c>
       <c r="D75">
-        <v>1.7502</v>
+        <v>-0.2426</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1675,13 +1675,13 @@
         <v>6.2681</v>
       </c>
       <c r="C76">
-        <v>-1.0459</v>
+        <v>-7.534</v>
       </c>
       <c r="D76">
-        <v>0.6969</v>
+        <v>-0.2776</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1692,10 +1692,10 @@
         <v>5.9055</v>
       </c>
       <c r="C77">
-        <v>-0.081</v>
+        <v>3.2573</v>
       </c>
       <c r="D77">
-        <v>-0.4645</v>
+        <v>0.5</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -1709,10 +1709,10 @@
         <v>5.9055</v>
       </c>
       <c r="C78">
-        <v>0.3589</v>
+        <v>3.6369</v>
       </c>
       <c r="D78">
-        <v>-0.6758999999999999</v>
+        <v>0.4257</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -1726,13 +1726,13 @@
         <v>5.9055</v>
       </c>
       <c r="C79">
-        <v>0.074</v>
+        <v>-4.9825</v>
       </c>
       <c r="D79">
-        <v>-0.0985</v>
+        <v>-7.5847</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1743,13 +1743,13 @@
         <v>5.9055</v>
       </c>
       <c r="C80">
-        <v>-0.0433</v>
+        <v>4.0396</v>
       </c>
       <c r="D80">
-        <v>-7.721</v>
+        <v>0.2245</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1760,13 +1760,13 @@
         <v>5.9055</v>
       </c>
       <c r="C81">
-        <v>0.2553</v>
+        <v>7.7794</v>
       </c>
       <c r="D81">
-        <v>0.7383</v>
+        <v>-2.6761</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1777,13 +1777,13 @@
         <v>5.9055</v>
       </c>
       <c r="C82">
-        <v>0.0166</v>
+        <v>14.1727</v>
       </c>
       <c r="D82">
-        <v>1.6333</v>
+        <v>-13.6256</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1794,13 +1794,13 @@
         <v>5.9055</v>
       </c>
       <c r="C83">
-        <v>0.175</v>
+        <v>-4.6866</v>
       </c>
       <c r="D83">
-        <v>1.2957</v>
+        <v>9.4741</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1811,13 +1811,13 @@
         <v>5.9055</v>
       </c>
       <c r="C84">
-        <v>0.6514</v>
+        <v>7.7648</v>
       </c>
       <c r="D84">
-        <v>1.5995</v>
+        <v>-0.7608</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1828,13 +1828,13 @@
         <v>5.9055</v>
       </c>
       <c r="C85">
-        <v>-7.4399</v>
+        <v>1.916</v>
       </c>
       <c r="D85">
-        <v>14.6665</v>
+        <v>-0.2397</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1845,10 +1845,10 @@
         <v>5.9055</v>
       </c>
       <c r="C86">
-        <v>0.9728</v>
+        <v>1.4076</v>
       </c>
       <c r="D86">
-        <v>1.8357</v>
+        <v>-0.1607</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -1862,13 +1862,13 @@
         <v>5.9055</v>
       </c>
       <c r="C87">
-        <v>0.722</v>
+        <v>-8.6149</v>
       </c>
       <c r="D87">
-        <v>1.7321</v>
+        <v>-7.597</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1879,13 +1879,13 @@
         <v>5.9055</v>
       </c>
       <c r="C88">
-        <v>1.2555</v>
+        <v>1.126</v>
       </c>
       <c r="D88">
-        <v>11.1531</v>
+        <v>-0.1905</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1896,10 +1896,10 @@
         <v>5.9055</v>
       </c>
       <c r="C89">
-        <v>-0.0993</v>
+        <v>1.5756</v>
       </c>
       <c r="D89">
-        <v>0.7272999999999999</v>
+        <v>0.0958</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -1913,13 +1913,13 @@
         <v>5.9055</v>
       </c>
       <c r="C90">
-        <v>-4.3751</v>
+        <v>1.9984</v>
       </c>
       <c r="D90">
-        <v>-1.1084</v>
+        <v>0.1604</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1930,10 +1930,10 @@
         <v>5.9055</v>
       </c>
       <c r="C91">
-        <v>-1.1549</v>
+        <v>2.3456</v>
       </c>
       <c r="D91">
-        <v>0.1547</v>
+        <v>0.7477</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -1947,10 +1947,10 @@
         <v>5.9055</v>
       </c>
       <c r="C92">
-        <v>-1.2103</v>
+        <v>3.3619</v>
       </c>
       <c r="D92">
-        <v>0.1154</v>
+        <v>0.708</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -1964,10 +1964,10 @@
         <v>5.9055</v>
       </c>
       <c r="C93">
-        <v>-1.4351</v>
+        <v>3.1459</v>
       </c>
       <c r="D93">
-        <v>-0.0361</v>
+        <v>1.0188</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -1981,13 +1981,13 @@
         <v>5.9055</v>
       </c>
       <c r="C94">
-        <v>-1.1069</v>
+        <v>7.6386</v>
       </c>
       <c r="D94">
-        <v>0.6335</v>
+        <v>11.3408</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1998,10 +1998,10 @@
         <v>5.9055</v>
       </c>
       <c r="C95">
-        <v>-0.922</v>
+        <v>2.7907</v>
       </c>
       <c r="D95">
-        <v>0.2344</v>
+        <v>0.3551</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -2015,13 +2015,13 @@
         <v>5.9055</v>
       </c>
       <c r="C96">
-        <v>-0.4079</v>
+        <v>7.0371</v>
       </c>
       <c r="D96">
-        <v>0.844</v>
+        <v>-5.8582</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2032,10 +2032,10 @@
         <v>5.9055</v>
       </c>
       <c r="C97">
-        <v>11.6337</v>
+        <v>0.1012</v>
       </c>
       <c r="D97">
-        <v>13.6451</v>
+        <v>-0.3249</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>5.9055</v>
       </c>
       <c r="C98">
-        <v>-0.1686</v>
+        <v>1.0397</v>
       </c>
       <c r="D98">
-        <v>0.8494</v>
+        <v>-0.9889</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -2066,10 +2066,10 @@
         <v>5.9055</v>
       </c>
       <c r="C99">
-        <v>-0.3377</v>
+        <v>0.8297</v>
       </c>
       <c r="D99">
-        <v>1.0249</v>
+        <v>-1.134</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -2083,10 +2083,10 @@
         <v>5.9055</v>
       </c>
       <c r="C100">
-        <v>-0.4473</v>
+        <v>0.6848</v>
       </c>
       <c r="D100">
-        <v>0.8723</v>
+        <v>-1.4908</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -2100,10 +2100,10 @@
         <v>5.9055</v>
       </c>
       <c r="C101">
-        <v>-0.8165</v>
+        <v>0.6338</v>
       </c>
       <c r="D101">
-        <v>-0.2307</v>
+        <v>-1.8053</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -2117,13 +2117,13 @@
         <v>5.5429</v>
       </c>
       <c r="C102">
-        <v>-0.0293</v>
+        <v>2.238</v>
       </c>
       <c r="D102">
-        <v>-1.2722</v>
+        <v>7.6262</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2134,13 +2134,13 @@
         <v>5.5429</v>
       </c>
       <c r="C103">
-        <v>0.3614</v>
+        <v>0.0248</v>
       </c>
       <c r="D103">
-        <v>-1.3729</v>
+        <v>-0.3991</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2151,13 +2151,13 @@
         <v>5.5429</v>
       </c>
       <c r="C104">
-        <v>-7.6704</v>
+        <v>4.3083</v>
       </c>
       <c r="D104">
-        <v>7.629</v>
+        <v>0.026</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2168,10 +2168,10 @@
         <v>5.5429</v>
       </c>
       <c r="C105">
-        <v>0.2893</v>
+        <v>4.158</v>
       </c>
       <c r="D105">
-        <v>-0.5211</v>
+        <v>0.2903</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -2185,13 +2185,13 @@
         <v>5.5429</v>
       </c>
       <c r="C106">
-        <v>4.2319</v>
+        <v>4.5026</v>
       </c>
       <c r="D106">
-        <v>-7.717</v>
+        <v>0.5818</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2202,10 +2202,10 @@
         <v>5.5429</v>
       </c>
       <c r="C107">
-        <v>0.0514</v>
+        <v>4.1269</v>
       </c>
       <c r="D107">
-        <v>1.0155</v>
+        <v>0.1</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -2219,13 +2219,13 @@
         <v>5.5429</v>
       </c>
       <c r="C108">
-        <v>-0.9748</v>
+        <v>3.5355</v>
       </c>
       <c r="D108">
-        <v>2.5897</v>
+        <v>0.6284999999999999</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2236,13 +2236,13 @@
         <v>5.5429</v>
       </c>
       <c r="C109">
-        <v>-4.7456</v>
+        <v>3.1519</v>
       </c>
       <c r="D109">
-        <v>1.9115</v>
+        <v>0.2342</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2253,10 +2253,10 @@
         <v>5.5429</v>
       </c>
       <c r="C110">
-        <v>0.2198</v>
+        <v>1.8639</v>
       </c>
       <c r="D110">
-        <v>2.2551</v>
+        <v>0.124</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -2270,13 +2270,13 @@
         <v>5.5429</v>
       </c>
       <c r="C111">
-        <v>-0.2869</v>
+        <v>1.22</v>
       </c>
       <c r="D111">
-        <v>-0.0081</v>
+        <v>0.1552</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2287,13 +2287,13 @@
         <v>5.5429</v>
       </c>
       <c r="C112">
-        <v>0.4694</v>
+        <v>-7.7421</v>
       </c>
       <c r="D112">
-        <v>2.4355</v>
+        <v>4.5521</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2304,10 +2304,10 @@
         <v>5.5429</v>
       </c>
       <c r="C113">
-        <v>-1.0246</v>
+        <v>-6.5077</v>
       </c>
       <c r="D113">
-        <v>-0.3782</v>
+        <v>-9.878500000000001</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -2321,13 +2321,13 @@
         <v>5.5429</v>
       </c>
       <c r="C114">
-        <v>11.2245</v>
+        <v>1.0148</v>
       </c>
       <c r="D114">
-        <v>5.3618</v>
+        <v>-0.0214</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2338,13 +2338,13 @@
         <v>5.5429</v>
       </c>
       <c r="C115">
-        <v>-0.746</v>
+        <v>7.59</v>
       </c>
       <c r="D115">
-        <v>0.9234</v>
+        <v>6.7418</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2355,13 +2355,13 @@
         <v>5.5429</v>
       </c>
       <c r="C116">
-        <v>-1.2165</v>
+        <v>7.8632</v>
       </c>
       <c r="D116">
-        <v>0.8023</v>
+        <v>-1.8613</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2372,13 +2372,13 @@
         <v>5.5429</v>
       </c>
       <c r="C117">
-        <v>-1.0427</v>
+        <v>0.0369</v>
       </c>
       <c r="D117">
-        <v>0.6464</v>
+        <v>-7.2378</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2389,10 +2389,10 @@
         <v>5.5429</v>
       </c>
       <c r="C118">
-        <v>-12.5969</v>
+        <v>5.322</v>
       </c>
       <c r="D118">
-        <v>-8.2117</v>
+        <v>-6.7358</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -2406,10 +2406,10 @@
         <v>5.5429</v>
       </c>
       <c r="C119">
-        <v>0.5542</v>
+        <v>6.1184</v>
       </c>
       <c r="D119">
-        <v>-0.9347</v>
+        <v>7.922</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -2423,10 +2423,10 @@
         <v>5.5429</v>
       </c>
       <c r="C120">
-        <v>11.7576</v>
+        <v>-0.955</v>
       </c>
       <c r="D120">
-        <v>-4.391</v>
+        <v>3.1042</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -2440,13 +2440,13 @@
         <v>5.5429</v>
       </c>
       <c r="C121">
-        <v>-0.0539</v>
+        <v>2.1795</v>
       </c>
       <c r="D121">
-        <v>-2.5617</v>
+        <v>0.2542</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2457,13 +2457,13 @@
         <v>5.5429</v>
       </c>
       <c r="C122">
-        <v>-0.1196</v>
+        <v>0.003</v>
       </c>
       <c r="D122">
-        <v>0.9196</v>
+        <v>-0.4762</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2474,13 +2474,13 @@
         <v>5.5429</v>
       </c>
       <c r="C123">
-        <v>-0.0201</v>
+        <v>13.6077</v>
       </c>
       <c r="D123">
-        <v>0.2826</v>
+        <v>-9.8909</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2491,13 +2491,13 @@
         <v>5.5429</v>
       </c>
       <c r="C124">
-        <v>-0.1914</v>
+        <v>-0.0413</v>
       </c>
       <c r="D124">
-        <v>0.2741</v>
+        <v>-0.1742</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2508,10 +2508,10 @@
         <v>5.5429</v>
       </c>
       <c r="C125">
-        <v>-1.6726</v>
+        <v>-0.008399999999999999</v>
       </c>
       <c r="D125">
-        <v>-2.8554</v>
+        <v>-0.2739</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -2525,10 +2525,10 @@
         <v>5.5429</v>
       </c>
       <c r="C126">
-        <v>-0.7216</v>
+        <v>1.1228</v>
       </c>
       <c r="D126">
-        <v>-1.1857</v>
+        <v>-1.8931</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -2542,10 +2542,10 @@
         <v>5.1803</v>
       </c>
       <c r="C127">
-        <v>0.5936</v>
+        <v>3.1985</v>
       </c>
       <c r="D127">
-        <v>-1.2305</v>
+        <v>0.6886</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -2559,13 +2559,13 @@
         <v>5.1803</v>
       </c>
       <c r="C128">
-        <v>1.0647</v>
+        <v>3.6113</v>
       </c>
       <c r="D128">
-        <v>-1.0286</v>
+        <v>7.7535</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2576,10 +2576,10 @@
         <v>5.1803</v>
       </c>
       <c r="C129">
-        <v>1.0395</v>
+        <v>4.2824</v>
       </c>
       <c r="D129">
-        <v>-0.4151</v>
+        <v>0.5554</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -2593,10 +2593,10 @@
         <v>5.1803</v>
       </c>
       <c r="C130">
-        <v>1.1993</v>
+        <v>3.9158</v>
       </c>
       <c r="D130">
-        <v>-0.3359</v>
+        <v>0.5623</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -2610,10 +2610,10 @@
         <v>5.1803</v>
       </c>
       <c r="C131">
-        <v>0.8814</v>
+        <v>4.2536</v>
       </c>
       <c r="D131">
-        <v>-0.0134</v>
+        <v>0.6236</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -2627,13 +2627,13 @@
         <v>5.1803</v>
       </c>
       <c r="C132">
-        <v>0.5437</v>
+        <v>9.2073</v>
       </c>
       <c r="D132">
-        <v>0.8932</v>
+        <v>6.1463</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2644,13 +2644,13 @@
         <v>5.1803</v>
       </c>
       <c r="C133">
-        <v>0.6165</v>
+        <v>7.11</v>
       </c>
       <c r="D133">
-        <v>1.1139</v>
+        <v>0.7185</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2661,13 +2661,13 @@
         <v>5.1803</v>
       </c>
       <c r="C134">
-        <v>0.6257</v>
+        <v>7.7282</v>
       </c>
       <c r="D134">
-        <v>1.8211</v>
+        <v>0.2075</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2678,10 +2678,10 @@
         <v>5.1803</v>
       </c>
       <c r="C135">
-        <v>0.1882</v>
+        <v>1.0929</v>
       </c>
       <c r="D135">
-        <v>2.0586</v>
+        <v>0.0172</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -2695,10 +2695,10 @@
         <v>5.1803</v>
       </c>
       <c r="C136">
-        <v>0.4434</v>
+        <v>0.5576</v>
       </c>
       <c r="D136">
-        <v>5.4398</v>
+        <v>7.7561</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         <v>5.1803</v>
       </c>
       <c r="C137">
-        <v>0.0216</v>
+        <v>-14.3357</v>
       </c>
       <c r="D137">
-        <v>2.2413</v>
+        <v>-12.7728</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2729,13 +2729,13 @@
         <v>5.1803</v>
       </c>
       <c r="C138">
-        <v>-1.4336</v>
+        <v>-0.4012</v>
       </c>
       <c r="D138">
-        <v>0.8187</v>
+        <v>-0.1151</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2746,13 +2746,13 @@
         <v>5.1803</v>
       </c>
       <c r="C139">
-        <v>-0.7923</v>
+        <v>-0.061</v>
       </c>
       <c r="D139">
-        <v>-8.9918</v>
+        <v>-0.0626</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2763,13 +2763,13 @@
         <v>5.1803</v>
       </c>
       <c r="C140">
-        <v>5.202</v>
+        <v>0.7827</v>
       </c>
       <c r="D140">
-        <v>-12.4531</v>
+        <v>0.0616</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2780,10 +2780,10 @@
         <v>5.1803</v>
       </c>
       <c r="C141">
-        <v>2.8398</v>
+        <v>6.1352</v>
       </c>
       <c r="D141">
-        <v>14.678</v>
+        <v>5.1081</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -2797,13 +2797,13 @@
         <v>5.1803</v>
       </c>
       <c r="C142">
-        <v>-3.5694</v>
+        <v>2.3374</v>
       </c>
       <c r="D142">
-        <v>-12.1222</v>
+        <v>0.783</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2814,13 +2814,13 @@
         <v>5.1803</v>
       </c>
       <c r="C143">
-        <v>-3.0146</v>
+        <v>2.3935</v>
       </c>
       <c r="D143">
-        <v>0.6642</v>
+        <v>1.2439</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2831,13 +2831,13 @@
         <v>5.1803</v>
       </c>
       <c r="C144">
-        <v>-1.3209</v>
+        <v>-8.4925</v>
       </c>
       <c r="D144">
-        <v>0.8754999999999999</v>
+        <v>-5.7368</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2848,13 +2848,13 @@
         <v>5.1803</v>
       </c>
       <c r="C145">
-        <v>-1.1945</v>
+        <v>7.3737</v>
       </c>
       <c r="D145">
-        <v>0.5308</v>
+        <v>-5.7907</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2865,10 +2865,10 @@
         <v>5.1803</v>
       </c>
       <c r="C146">
-        <v>-1.0551</v>
+        <v>2.3831</v>
       </c>
       <c r="D146">
-        <v>1.1421</v>
+        <v>0.3976</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -2882,13 +2882,13 @@
         <v>5.1803</v>
       </c>
       <c r="C147">
-        <v>-0.5569</v>
+        <v>0.277</v>
       </c>
       <c r="D147">
-        <v>1.0514</v>
+        <v>-0.5889</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2899,13 +2899,13 @@
         <v>5.1803</v>
       </c>
       <c r="C148">
-        <v>-0.3869</v>
+        <v>8.376099999999999</v>
       </c>
       <c r="D148">
-        <v>0.3652</v>
+        <v>-1.953</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2916,13 +2916,13 @@
         <v>5.1803</v>
       </c>
       <c r="C149">
-        <v>-0.5822000000000001</v>
+        <v>0.4944</v>
       </c>
       <c r="D149">
-        <v>0.372</v>
+        <v>-1.0047</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2933,10 +2933,10 @@
         <v>5.1803</v>
       </c>
       <c r="C150">
-        <v>-0.4749</v>
+        <v>1.7011</v>
       </c>
       <c r="D150">
-        <v>0.4259</v>
+        <v>-1.5151</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -2950,13 +2950,13 @@
         <v>5.1803</v>
       </c>
       <c r="C151">
-        <v>-0.972</v>
+        <v>1.8021</v>
       </c>
       <c r="D151">
-        <v>-2.795</v>
+        <v>-1.7972</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2967,13 +2967,13 @@
         <v>4.8177</v>
       </c>
       <c r="C152">
-        <v>7.7513</v>
+        <v>3.0813</v>
       </c>
       <c r="D152">
-        <v>-7.6445</v>
+        <v>0.2475</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2984,13 +2984,13 @@
         <v>4.8177</v>
       </c>
       <c r="C153">
-        <v>0.4886</v>
+        <v>3.5035</v>
       </c>
       <c r="D153">
-        <v>-7.6183</v>
+        <v>0.4664</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3001,10 +3001,10 @@
         <v>4.8177</v>
       </c>
       <c r="C154">
-        <v>0.9807</v>
+        <v>4.1674</v>
       </c>
       <c r="D154">
-        <v>-0.57</v>
+        <v>0.2974</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -3018,10 +3018,10 @@
         <v>4.8177</v>
       </c>
       <c r="C155">
-        <v>-7.6412</v>
+        <v>-12.5661</v>
       </c>
       <c r="D155">
-        <v>7.6784</v>
+        <v>-1.0495</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -3035,10 +3035,10 @@
         <v>4.8177</v>
       </c>
       <c r="C156">
-        <v>0.7683</v>
+        <v>4.1085</v>
       </c>
       <c r="D156">
-        <v>0.0162</v>
+        <v>0.3742</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -3052,13 +3052,13 @@
         <v>4.8177</v>
       </c>
       <c r="C157">
-        <v>0.5528</v>
+        <v>8.1272</v>
       </c>
       <c r="D157">
-        <v>1.0734</v>
+        <v>0.6622</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3069,10 +3069,10 @@
         <v>4.8177</v>
       </c>
       <c r="C158">
-        <v>0.5747</v>
+        <v>3.1746</v>
       </c>
       <c r="D158">
-        <v>1.3363</v>
+        <v>0.7745</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -3086,13 +3086,13 @@
         <v>4.8177</v>
       </c>
       <c r="C159">
-        <v>0.3641</v>
+        <v>7.9914</v>
       </c>
       <c r="D159">
-        <v>2.012</v>
+        <v>-0.569</v>
       </c>
       <c r="E159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3103,13 +3103,13 @@
         <v>4.8177</v>
       </c>
       <c r="C160">
-        <v>-3.2148</v>
+        <v>1.8491</v>
       </c>
       <c r="D160">
-        <v>0.5958</v>
+        <v>-0.0523</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3120,13 +3120,13 @@
         <v>4.8177</v>
       </c>
       <c r="C161">
-        <v>-2.0159</v>
+        <v>0.7655999999999999</v>
       </c>
       <c r="D161">
-        <v>-2.5986</v>
+        <v>-0.1097</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3137,10 +3137,10 @@
         <v>4.8177</v>
       </c>
       <c r="C162">
-        <v>0.2146</v>
+        <v>0.7885</v>
       </c>
       <c r="D162">
-        <v>2.1166</v>
+        <v>0.0163</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -3154,13 +3154,13 @@
         <v>4.8177</v>
       </c>
       <c r="C163">
-        <v>3.4925</v>
+        <v>0.2883</v>
       </c>
       <c r="D163">
-        <v>-5.864</v>
+        <v>0.0621</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3171,13 +3171,13 @@
         <v>4.8177</v>
       </c>
       <c r="C164">
-        <v>-3.0347</v>
+        <v>0.2853</v>
       </c>
       <c r="D164">
-        <v>8.904999999999999</v>
+        <v>-0.1264</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3188,13 +3188,13 @@
         <v>4.8177</v>
       </c>
       <c r="C165">
-        <v>7.8499</v>
+        <v>1.0631</v>
       </c>
       <c r="D165">
-        <v>13.9265</v>
+        <v>0.0668</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3205,10 +3205,10 @@
         <v>4.8177</v>
       </c>
       <c r="C166">
-        <v>-0.2983</v>
+        <v>1.4473</v>
       </c>
       <c r="D166">
-        <v>0.5117</v>
+        <v>0.9822</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -3222,10 +3222,10 @@
         <v>4.8177</v>
       </c>
       <c r="C167">
-        <v>-0.5506</v>
+        <v>2.1266</v>
       </c>
       <c r="D167">
-        <v>0.3215</v>
+        <v>1.2585</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -3239,13 +3239,13 @@
         <v>4.8177</v>
       </c>
       <c r="C168">
-        <v>-2.2113</v>
+        <v>2.2537</v>
       </c>
       <c r="D168">
-        <v>-4.8257</v>
+        <v>1.7256</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3256,13 +3256,13 @@
         <v>4.8177</v>
       </c>
       <c r="C169">
-        <v>-0.1926</v>
+        <v>2.251</v>
       </c>
       <c r="D169">
-        <v>-1.0106</v>
+        <v>1.4629</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3273,13 +3273,13 @@
         <v>4.8177</v>
       </c>
       <c r="C170">
-        <v>-0.8614000000000001</v>
+        <v>2.6661</v>
       </c>
       <c r="D170">
-        <v>-1.3315</v>
+        <v>0.9308</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3290,13 +3290,13 @@
         <v>4.8177</v>
       </c>
       <c r="C171">
-        <v>-1.1421</v>
+        <v>-10.0664</v>
       </c>
       <c r="D171">
-        <v>0.968</v>
+        <v>7.6883</v>
       </c>
       <c r="E171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3307,10 +3307,10 @@
         <v>4.8177</v>
       </c>
       <c r="C172">
-        <v>-0.6325</v>
+        <v>2.2278</v>
       </c>
       <c r="D172">
-        <v>0.7524</v>
+        <v>0.0404</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -3324,13 +3324,13 @@
         <v>4.8177</v>
       </c>
       <c r="C173">
-        <v>-3.5866</v>
+        <v>2.2831</v>
       </c>
       <c r="D173">
-        <v>-6.8669</v>
+        <v>-0.8602</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3341,10 +3341,10 @@
         <v>4.8177</v>
       </c>
       <c r="C174">
-        <v>-0.3944</v>
+        <v>1.9201</v>
       </c>
       <c r="D174">
-        <v>-0.009900000000000001</v>
+        <v>-0.9296</v>
       </c>
       <c r="E174">
         <v>1</v>
@@ -3358,13 +3358,13 @@
         <v>4.8177</v>
       </c>
       <c r="C175">
-        <v>7.6557</v>
+        <v>2.1459</v>
       </c>
       <c r="D175">
-        <v>-14.0484</v>
+        <v>-1.5797</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3375,13 +3375,13 @@
         <v>4.8177</v>
       </c>
       <c r="C176">
-        <v>-1.0761</v>
+        <v>-0.3416</v>
       </c>
       <c r="D176">
-        <v>-1.3172</v>
+        <v>-0.5379</v>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3392,13 +3392,13 @@
         <v>4.455</v>
       </c>
       <c r="C177">
-        <v>1.1018</v>
+        <v>12.8667</v>
       </c>
       <c r="D177">
-        <v>-1.8776</v>
+        <v>-7.9724</v>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3409,10 +3409,10 @@
         <v>4.455</v>
       </c>
       <c r="C178">
-        <v>1.2953</v>
+        <v>3.9417</v>
       </c>
       <c r="D178">
-        <v>-1.4655</v>
+        <v>0.9606</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -3426,10 +3426,10 @@
         <v>4.455</v>
       </c>
       <c r="C179">
-        <v>0.9858</v>
+        <v>4.3973</v>
       </c>
       <c r="D179">
-        <v>-1.1668</v>
+        <v>0.9955000000000001</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -3443,13 +3443,13 @@
         <v>4.455</v>
       </c>
       <c r="C180">
-        <v>0.3917</v>
+        <v>4.1137</v>
       </c>
       <c r="D180">
-        <v>-7.6587</v>
+        <v>0.7986</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3460,10 +3460,10 @@
         <v>4.455</v>
       </c>
       <c r="C181">
-        <v>0.5748</v>
+        <v>4.2774</v>
       </c>
       <c r="D181">
-        <v>-0.3466</v>
+        <v>0.7454</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -3477,10 +3477,10 @@
         <v>4.455</v>
       </c>
       <c r="C182">
-        <v>0.6109</v>
+        <v>4.1776</v>
       </c>
       <c r="D182">
-        <v>0.7559</v>
+        <v>0.7904</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -3494,10 +3494,10 @@
         <v>4.455</v>
       </c>
       <c r="C183">
-        <v>0.5871</v>
+        <v>3.245</v>
       </c>
       <c r="D183">
-        <v>1.0528</v>
+        <v>0.9308999999999999</v>
       </c>
       <c r="E183">
         <v>1</v>
@@ -3511,13 +3511,13 @@
         <v>4.455</v>
       </c>
       <c r="C184">
-        <v>0.3039</v>
+        <v>10.4997</v>
       </c>
       <c r="D184">
-        <v>1.6591</v>
+        <v>-1.4892</v>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3528,13 +3528,13 @@
         <v>4.455</v>
       </c>
       <c r="C185">
-        <v>0.277</v>
+        <v>7.9508</v>
       </c>
       <c r="D185">
-        <v>1.8652</v>
+        <v>10.6128</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3545,10 +3545,10 @@
         <v>4.455</v>
       </c>
       <c r="C186">
-        <v>-0.9932</v>
+        <v>-6.1903</v>
       </c>
       <c r="D186">
-        <v>5.0245</v>
+        <v>13.9651</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>4.455</v>
       </c>
       <c r="C187">
-        <v>-10.6446</v>
+        <v>8.8078</v>
       </c>
       <c r="D187">
-        <v>11.2553</v>
+        <v>-0.2986</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -3579,13 +3579,13 @@
         <v>4.455</v>
       </c>
       <c r="C188">
-        <v>-3.2948</v>
+        <v>-0.2513</v>
       </c>
       <c r="D188">
-        <v>1.958</v>
+        <v>0.836</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3596,13 +3596,13 @@
         <v>4.455</v>
       </c>
       <c r="C189">
-        <v>0.5915</v>
+        <v>3.0585</v>
       </c>
       <c r="D189">
-        <v>0.8527</v>
+        <v>-7.5923</v>
       </c>
       <c r="E189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3613,10 +3613,10 @@
         <v>4.455</v>
       </c>
       <c r="C190">
-        <v>0.1044</v>
+        <v>0.2579</v>
       </c>
       <c r="D190">
-        <v>0.45</v>
+        <v>1.1909</v>
       </c>
       <c r="E190">
         <v>1</v>
@@ -3630,10 +3630,10 @@
         <v>4.455</v>
       </c>
       <c r="C191">
-        <v>-0.1207</v>
+        <v>0.6123</v>
       </c>
       <c r="D191">
-        <v>0.1461</v>
+        <v>1.4993</v>
       </c>
       <c r="E191">
         <v>1</v>
@@ -3647,10 +3647,10 @@
         <v>4.455</v>
       </c>
       <c r="C192">
-        <v>-0.5154</v>
+        <v>1.3424</v>
       </c>
       <c r="D192">
-        <v>0.0619</v>
+        <v>1.7833</v>
       </c>
       <c r="E192">
         <v>1</v>
@@ -3664,10 +3664,10 @@
         <v>4.455</v>
       </c>
       <c r="C193">
-        <v>1.2584</v>
+        <v>0.9362</v>
       </c>
       <c r="D193">
-        <v>5.1789</v>
+        <v>13.7107</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -3681,13 +3681,13 @@
         <v>4.455</v>
       </c>
       <c r="C194">
-        <v>-13.6905</v>
+        <v>1.803</v>
       </c>
       <c r="D194">
-        <v>11.2698</v>
+        <v>2.0314</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3698,10 +3698,10 @@
         <v>4.455</v>
       </c>
       <c r="C195">
-        <v>0.4189</v>
+        <v>7.8027</v>
       </c>
       <c r="D195">
-        <v>7.5702</v>
+        <v>-2.1293</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>4.455</v>
       </c>
       <c r="C196">
-        <v>-1.6311</v>
+        <v>-2.2215</v>
       </c>
       <c r="D196">
-        <v>0.9761</v>
+        <v>9.935700000000001</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3732,10 +3732,10 @@
         <v>4.455</v>
       </c>
       <c r="C197">
-        <v>-1.1107</v>
+        <v>2.4063</v>
       </c>
       <c r="D197">
-        <v>0.7514999999999999</v>
+        <v>-0.0132</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -3749,10 +3749,10 @@
         <v>4.455</v>
       </c>
       <c r="C198">
-        <v>-0.8985</v>
+        <v>2.5858</v>
       </c>
       <c r="D198">
-        <v>0.0387</v>
+        <v>-0.7703</v>
       </c>
       <c r="E198">
         <v>1</v>
@@ -3766,13 +3766,13 @@
         <v>4.455</v>
       </c>
       <c r="C199">
-        <v>-7.7355</v>
+        <v>2.2419</v>
       </c>
       <c r="D199">
-        <v>-5.5708</v>
+        <v>-0.8751</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3783,13 +3783,13 @@
         <v>4.455</v>
       </c>
       <c r="C200">
-        <v>-0.6858</v>
+        <v>0.4957</v>
       </c>
       <c r="D200">
-        <v>-0.2467</v>
+        <v>-0.9143</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3800,13 +3800,13 @@
         <v>4.455</v>
       </c>
       <c r="C201">
-        <v>-1.1275</v>
+        <v>2.7067</v>
       </c>
       <c r="D201">
-        <v>-2.624</v>
+        <v>-2.1719</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3817,13 +3817,13 @@
         <v>4.0924</v>
       </c>
       <c r="C202">
-        <v>7.8847</v>
+        <v>3.8867</v>
       </c>
       <c r="D202">
-        <v>7.6023</v>
+        <v>0.6676</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3834,10 +3834,10 @@
         <v>4.0924</v>
       </c>
       <c r="C203">
-        <v>1.7605</v>
+        <v>4.1004</v>
       </c>
       <c r="D203">
-        <v>-1.8259</v>
+        <v>0.9411</v>
       </c>
       <c r="E203">
         <v>1</v>
@@ -3851,10 +3851,10 @@
         <v>4.0924</v>
       </c>
       <c r="C204">
-        <v>1.4582</v>
+        <v>4.5159</v>
       </c>
       <c r="D204">
-        <v>-1.4354</v>
+        <v>1.0216</v>
       </c>
       <c r="E204">
         <v>1</v>
@@ -3868,10 +3868,10 @@
         <v>4.0924</v>
       </c>
       <c r="C205">
-        <v>1.7829</v>
+        <v>4.1989</v>
       </c>
       <c r="D205">
-        <v>-1.4807</v>
+        <v>0.8007</v>
       </c>
       <c r="E205">
         <v>1</v>
@@ -3885,10 +3885,10 @@
         <v>4.0924</v>
       </c>
       <c r="C206">
-        <v>7.1965</v>
+        <v>5.944</v>
       </c>
       <c r="D206">
-        <v>12.0859</v>
+        <v>9.891999999999999</v>
       </c>
       <c r="E206">
         <v>0</v>
@@ -3902,10 +3902,10 @@
         <v>4.0924</v>
       </c>
       <c r="C207">
-        <v>7.6156</v>
+        <v>7.7488</v>
       </c>
       <c r="D207">
-        <v>7.6828</v>
+        <v>0.3617</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -3919,10 +3919,10 @@
         <v>4.0924</v>
       </c>
       <c r="C208">
-        <v>14.6437</v>
+        <v>-6.0508</v>
       </c>
       <c r="D208">
-        <v>-7.8855</v>
+        <v>-10.0752</v>
       </c>
       <c r="E208">
         <v>0</v>
@@ -3936,13 +3936,13 @@
         <v>4.0924</v>
       </c>
       <c r="C209">
-        <v>-1.5586</v>
+        <v>2.6494</v>
       </c>
       <c r="D209">
-        <v>0.0814</v>
+        <v>0.8241000000000001</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -3953,13 +3953,13 @@
         <v>4.0924</v>
       </c>
       <c r="C210">
-        <v>0.6991000000000001</v>
+        <v>-12.0585</v>
       </c>
       <c r="D210">
-        <v>2.1579</v>
+        <v>-11.2468</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -3970,13 +3970,13 @@
         <v>4.0924</v>
       </c>
       <c r="C211">
-        <v>0.8734</v>
+        <v>-14.6011</v>
       </c>
       <c r="D211">
-        <v>1.846</v>
+        <v>-6.9648</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -3987,10 +3987,10 @@
         <v>4.0924</v>
       </c>
       <c r="C212">
-        <v>0.7879</v>
+        <v>0.3398</v>
       </c>
       <c r="D212">
-        <v>2.1049</v>
+        <v>0.6007</v>
       </c>
       <c r="E212">
         <v>1</v>
@@ -4004,10 +4004,10 @@
         <v>4.0924</v>
       </c>
       <c r="C213">
-        <v>0.8381</v>
+        <v>-0.4063</v>
       </c>
       <c r="D213">
-        <v>1.9368</v>
+        <v>0.8622</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -4021,13 +4021,13 @@
         <v>4.0924</v>
       </c>
       <c r="C214">
-        <v>-2.3079</v>
+        <v>-0.277</v>
       </c>
       <c r="D214">
-        <v>-2.5119</v>
+        <v>1.2669</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4038,10 +4038,10 @@
         <v>4.0924</v>
       </c>
       <c r="C215">
-        <v>0.2201</v>
+        <v>0.2797</v>
       </c>
       <c r="D215">
-        <v>0.8427</v>
+        <v>1.8143</v>
       </c>
       <c r="E215">
         <v>1</v>
@@ -4055,10 +4055,10 @@
         <v>4.0924</v>
       </c>
       <c r="C216">
-        <v>-3.1215</v>
+        <v>-1.0552</v>
       </c>
       <c r="D216">
-        <v>0.5778</v>
+        <v>-7.5828</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -4072,13 +4072,13 @@
         <v>4.0924</v>
       </c>
       <c r="C217">
-        <v>-2.9477</v>
+        <v>1.09</v>
       </c>
       <c r="D217">
-        <v>-1.1057</v>
+        <v>2.1331</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4089,13 +4089,13 @@
         <v>4.0924</v>
       </c>
       <c r="C218">
-        <v>-1.3105</v>
+        <v>5.1507</v>
       </c>
       <c r="D218">
-        <v>0.8411</v>
+        <v>7.8351</v>
       </c>
       <c r="E218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4106,10 +4106,10 @@
         <v>4.0924</v>
       </c>
       <c r="C219">
-        <v>-1.5973</v>
+        <v>2.092</v>
       </c>
       <c r="D219">
-        <v>1.3753</v>
+        <v>2.3355</v>
       </c>
       <c r="E219">
         <v>1</v>
@@ -4123,10 +4123,10 @@
         <v>4.0924</v>
       </c>
       <c r="C220">
-        <v>-1.6496</v>
+        <v>2.6385</v>
       </c>
       <c r="D220">
-        <v>0.9673</v>
+        <v>1.6312</v>
       </c>
       <c r="E220">
         <v>1</v>
@@ -4140,13 +4140,13 @@
         <v>4.0924</v>
       </c>
       <c r="C221">
-        <v>-2.9716</v>
+        <v>2.6039</v>
       </c>
       <c r="D221">
-        <v>-2.775</v>
+        <v>0.9854000000000001</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4157,13 +4157,13 @@
         <v>4.0924</v>
       </c>
       <c r="C222">
-        <v>7.9655</v>
+        <v>2.4745</v>
       </c>
       <c r="D222">
-        <v>7.6504</v>
+        <v>-0.0276</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4174,10 +4174,10 @@
         <v>4.0924</v>
       </c>
       <c r="C223">
-        <v>-2.8146</v>
+        <v>7.6547</v>
       </c>
       <c r="D223">
-        <v>0.6139</v>
+        <v>-7.6385</v>
       </c>
       <c r="E223">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>4.0924</v>
       </c>
       <c r="C224">
-        <v>-7.8055</v>
+        <v>2.2924</v>
       </c>
       <c r="D224">
-        <v>13.0778</v>
+        <v>-0.7178</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4208,13 +4208,13 @@
         <v>4.0924</v>
       </c>
       <c r="C225">
-        <v>-0.8215</v>
+        <v>0.1058</v>
       </c>
       <c r="D225">
-        <v>0.1858</v>
+        <v>-0.2714</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4225,13 +4225,13 @@
         <v>4.0924</v>
       </c>
       <c r="C226">
-        <v>-1.0045</v>
+        <v>2.3922</v>
       </c>
       <c r="D226">
-        <v>-1.7505</v>
+        <v>-1.9252</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4242,13 +4242,13 @@
         <v>3.7298</v>
       </c>
       <c r="C227">
-        <v>2.2194</v>
+        <v>3.4108</v>
       </c>
       <c r="D227">
-        <v>-7.6419</v>
+        <v>-0.0228</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4259,13 +4259,13 @@
         <v>3.7298</v>
       </c>
       <c r="C228">
-        <v>-5.632</v>
+        <v>3.7833</v>
       </c>
       <c r="D228">
-        <v>-7.7209</v>
+        <v>0.364</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4276,10 +4276,10 @@
         <v>3.7298</v>
       </c>
       <c r="C229">
-        <v>1.2989</v>
+        <v>4.2942</v>
       </c>
       <c r="D229">
-        <v>-1.143</v>
+        <v>0.6425999999999999</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -4293,10 +4293,10 @@
         <v>3.7298</v>
       </c>
       <c r="C230">
-        <v>3.4683</v>
+        <v>7.8936</v>
       </c>
       <c r="D230">
-        <v>7.6684</v>
+        <v>-3.5987</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -4310,10 +4310,10 @@
         <v>3.7298</v>
       </c>
       <c r="C231">
-        <v>0.7082000000000001</v>
+        <v>4.2422</v>
       </c>
       <c r="D231">
-        <v>-0.4234</v>
+        <v>0.839</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -4327,10 +4327,10 @@
         <v>3.7298</v>
       </c>
       <c r="C232">
-        <v>1.115</v>
+        <v>4.0495</v>
       </c>
       <c r="D232">
-        <v>0.7107</v>
+        <v>1.2032</v>
       </c>
       <c r="E232">
         <v>1</v>
@@ -4344,13 +4344,13 @@
         <v>3.7298</v>
       </c>
       <c r="C233">
-        <v>10.1642</v>
+        <v>3.1472</v>
       </c>
       <c r="D233">
-        <v>-11.7962</v>
+        <v>1.0023</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4361,13 +4361,13 @@
         <v>3.7298</v>
       </c>
       <c r="C234">
-        <v>-7.9048</v>
+        <v>2.9851</v>
       </c>
       <c r="D234">
-        <v>13.5259</v>
+        <v>1.2433</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4378,13 +4378,13 @@
         <v>3.7298</v>
       </c>
       <c r="C235">
-        <v>0.7476</v>
+        <v>13.6696</v>
       </c>
       <c r="D235">
-        <v>2.7445</v>
+        <v>14.7003</v>
       </c>
       <c r="E235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4395,10 +4395,10 @@
         <v>3.7298</v>
       </c>
       <c r="C236">
-        <v>0.9426</v>
+        <v>1.302</v>
       </c>
       <c r="D236">
-        <v>2.6517</v>
+        <v>0.6758999999999999</v>
       </c>
       <c r="E236">
         <v>1</v>
@@ -4412,13 +4412,13 @@
         <v>3.7298</v>
       </c>
       <c r="C237">
-        <v>0.679</v>
+        <v>10.2796</v>
       </c>
       <c r="D237">
-        <v>3.0659</v>
+        <v>-0.5387999999999999</v>
       </c>
       <c r="E237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4429,10 +4429,10 @@
         <v>3.7298</v>
       </c>
       <c r="C238">
-        <v>6.5301</v>
+        <v>7.6899</v>
       </c>
       <c r="D238">
-        <v>3.4917</v>
+        <v>-7.6826</v>
       </c>
       <c r="E238">
         <v>0</v>
@@ -4446,13 +4446,13 @@
         <v>3.7298</v>
       </c>
       <c r="C239">
-        <v>9.3043</v>
+        <v>0.0613</v>
       </c>
       <c r="D239">
-        <v>-0.0284</v>
+        <v>1.6658</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4463,13 +4463,13 @@
         <v>3.7298</v>
       </c>
       <c r="C240">
-        <v>7.6806</v>
+        <v>0.499</v>
       </c>
       <c r="D240">
-        <v>-4.567</v>
+        <v>2.3793</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4480,10 +4480,10 @@
         <v>3.7298</v>
       </c>
       <c r="C241">
-        <v>-0.1592</v>
+        <v>0.5036</v>
       </c>
       <c r="D241">
-        <v>0.8298</v>
+        <v>2.5588</v>
       </c>
       <c r="E241">
         <v>1</v>
@@ -4497,10 +4497,10 @@
         <v>3.7298</v>
       </c>
       <c r="C242">
-        <v>-1.0083</v>
+        <v>1.1166</v>
       </c>
       <c r="D242">
-        <v>0.5</v>
+        <v>2.6633</v>
       </c>
       <c r="E242">
         <v>1</v>
@@ -4514,10 +4514,10 @@
         <v>3.7298</v>
       </c>
       <c r="C243">
-        <v>-1.5173</v>
+        <v>1.5383</v>
       </c>
       <c r="D243">
-        <v>0.6402</v>
+        <v>3.1516</v>
       </c>
       <c r="E243">
         <v>1</v>
@@ -4531,10 +4531,10 @@
         <v>3.7298</v>
       </c>
       <c r="C244">
-        <v>-0.8833</v>
+        <v>-0.9211</v>
       </c>
       <c r="D244">
-        <v>-0.4281</v>
+        <v>7.7923</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -4548,10 +4548,10 @@
         <v>3.7298</v>
       </c>
       <c r="C245">
-        <v>-12.1235</v>
+        <v>8.743499999999999</v>
       </c>
       <c r="D245">
-        <v>1.3366</v>
+        <v>-0.9276</v>
       </c>
       <c r="E245">
         <v>0</v>
@@ -4565,10 +4565,10 @@
         <v>3.7298</v>
       </c>
       <c r="C246">
-        <v>-1.9309</v>
+        <v>2.961</v>
       </c>
       <c r="D246">
-        <v>1.1236</v>
+        <v>1.424</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -4582,13 +4582,13 @@
         <v>3.7298</v>
       </c>
       <c r="C247">
-        <v>6.5329</v>
+        <v>2.8233</v>
       </c>
       <c r="D247">
-        <v>10.582</v>
+        <v>0.3979</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4599,10 +4599,10 @@
         <v>3.7298</v>
       </c>
       <c r="C248">
-        <v>-1.4684</v>
+        <v>2.8312</v>
       </c>
       <c r="D248">
-        <v>0.4031</v>
+        <v>-0.5353</v>
       </c>
       <c r="E248">
         <v>1</v>
@@ -4616,10 +4616,10 @@
         <v>3.7298</v>
       </c>
       <c r="C249">
-        <v>-1.2981</v>
+        <v>2.3717</v>
       </c>
       <c r="D249">
-        <v>0.3651</v>
+        <v>-0.7016</v>
       </c>
       <c r="E249">
         <v>1</v>
@@ -4633,10 +4633,10 @@
         <v>3.7298</v>
       </c>
       <c r="C250">
-        <v>-1.131</v>
+        <v>2.4471</v>
       </c>
       <c r="D250">
-        <v>0.2453</v>
+        <v>-1.5743</v>
       </c>
       <c r="E250">
         <v>1</v>
@@ -4650,10 +4650,10 @@
         <v>3.7298</v>
       </c>
       <c r="C251">
-        <v>-1.5583</v>
+        <v>2.2185</v>
       </c>
       <c r="D251">
-        <v>-0.5054</v>
+        <v>-2.0433</v>
       </c>
       <c r="E251">
         <v>1</v>
@@ -4667,10 +4667,10 @@
         <v>3.3672</v>
       </c>
       <c r="C252">
-        <v>5.2273</v>
+        <v>5.5593</v>
       </c>
       <c r="D252">
-        <v>-7.8145</v>
+        <v>7.5499</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -4684,13 +4684,13 @@
         <v>3.3672</v>
       </c>
       <c r="C253">
-        <v>0.4504</v>
+        <v>4.1745</v>
       </c>
       <c r="D253">
-        <v>-7.6869</v>
+        <v>0.5497</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4701,10 +4701,10 @@
         <v>3.3672</v>
       </c>
       <c r="C254">
-        <v>1.4621</v>
+        <v>4.5168</v>
       </c>
       <c r="D254">
-        <v>-1.0139</v>
+        <v>0.8185</v>
       </c>
       <c r="E254">
         <v>1</v>
@@ -4718,10 +4718,10 @@
         <v>3.3672</v>
       </c>
       <c r="C255">
-        <v>1.7582</v>
+        <v>4.2405</v>
       </c>
       <c r="D255">
-        <v>-1.0436</v>
+        <v>0.6248</v>
       </c>
       <c r="E255">
         <v>1</v>
@@ -4735,13 +4735,13 @@
         <v>3.3672</v>
       </c>
       <c r="C256">
-        <v>0.9102</v>
+        <v>6.3967</v>
       </c>
       <c r="D256">
-        <v>-0.3398</v>
+        <v>1.9918</v>
       </c>
       <c r="E256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4752,10 +4752,10 @@
         <v>3.3672</v>
       </c>
       <c r="C257">
-        <v>-13.3527</v>
+        <v>8.4933</v>
       </c>
       <c r="D257">
-        <v>-12.1395</v>
+        <v>-1.6014</v>
       </c>
       <c r="E257">
         <v>0</v>
@@ -4769,10 +4769,10 @@
         <v>3.3672</v>
       </c>
       <c r="C258">
-        <v>1.0488</v>
+        <v>3.5192</v>
       </c>
       <c r="D258">
-        <v>1.7033</v>
+        <v>1.21</v>
       </c>
       <c r="E258">
         <v>1</v>
@@ -4786,13 +4786,13 @@
         <v>3.3672</v>
       </c>
       <c r="C259">
-        <v>-4.7818</v>
+        <v>3.0223</v>
       </c>
       <c r="D259">
-        <v>-0.1034</v>
+        <v>1.4695</v>
       </c>
       <c r="E259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4803,13 +4803,13 @@
         <v>3.3672</v>
       </c>
       <c r="C260">
-        <v>4.9693</v>
+        <v>2.7194</v>
       </c>
       <c r="D260">
-        <v>10.5367</v>
+        <v>0.9061</v>
       </c>
       <c r="E260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4820,13 +4820,13 @@
         <v>3.3672</v>
       </c>
       <c r="C261">
-        <v>0.8489</v>
+        <v>7.2556</v>
       </c>
       <c r="D261">
-        <v>3.2597</v>
+        <v>-4.0334</v>
       </c>
       <c r="E261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4837,13 +4837,13 @@
         <v>3.3672</v>
       </c>
       <c r="C262">
-        <v>0.3891</v>
+        <v>-11.7914</v>
       </c>
       <c r="D262">
-        <v>3.5202</v>
+        <v>14.0812</v>
       </c>
       <c r="E262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4854,13 +4854,13 @@
         <v>3.3672</v>
       </c>
       <c r="C263">
-        <v>7.7828</v>
+        <v>0.2784</v>
       </c>
       <c r="D263">
-        <v>9.5372</v>
+        <v>1.4804</v>
       </c>
       <c r="E263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4871,13 +4871,13 @@
         <v>3.3672</v>
       </c>
       <c r="C264">
-        <v>3.8065</v>
+        <v>0.0181</v>
       </c>
       <c r="D264">
-        <v>-10.7912</v>
+        <v>1.4627</v>
       </c>
       <c r="E264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4888,13 +4888,13 @@
         <v>3.3672</v>
       </c>
       <c r="C265">
-        <v>-0.2724</v>
+        <v>-9.6874</v>
       </c>
       <c r="D265">
-        <v>1.6109</v>
+        <v>6.2132</v>
       </c>
       <c r="E265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4905,10 +4905,10 @@
         <v>3.3672</v>
       </c>
       <c r="C266">
-        <v>-3.5047</v>
+        <v>-13.1198</v>
       </c>
       <c r="D266">
-        <v>-12.8704</v>
+        <v>11.8614</v>
       </c>
       <c r="E266">
         <v>0</v>
@@ -4922,13 +4922,13 @@
         <v>3.3672</v>
       </c>
       <c r="C267">
-        <v>-0.9795</v>
+        <v>0.6469</v>
       </c>
       <c r="D267">
-        <v>0.4202</v>
+        <v>12.5192</v>
       </c>
       <c r="E267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -4939,10 +4939,10 @@
         <v>3.3672</v>
       </c>
       <c r="C268">
-        <v>-1.5185</v>
+        <v>1.6835</v>
       </c>
       <c r="D268">
-        <v>0.6221</v>
+        <v>3.053</v>
       </c>
       <c r="E268">
         <v>1</v>
@@ -4956,10 +4956,10 @@
         <v>3.3672</v>
       </c>
       <c r="C269">
-        <v>-1.4237</v>
+        <v>2.4448</v>
       </c>
       <c r="D269">
-        <v>1.1328</v>
+        <v>2.6257</v>
       </c>
       <c r="E269">
         <v>1</v>
@@ -4973,10 +4973,10 @@
         <v>3.3672</v>
       </c>
       <c r="C270">
-        <v>-1.399</v>
+        <v>3.0457</v>
       </c>
       <c r="D270">
-        <v>1.1487</v>
+        <v>1.9557</v>
       </c>
       <c r="E270">
         <v>1</v>
@@ -4990,10 +4990,10 @@
         <v>3.3672</v>
       </c>
       <c r="C271">
-        <v>-1.7604</v>
+        <v>3.4766</v>
       </c>
       <c r="D271">
-        <v>1.308</v>
+        <v>1.5331</v>
       </c>
       <c r="E271">
         <v>1</v>
@@ -5007,10 +5007,10 @@
         <v>3.3672</v>
       </c>
       <c r="C272">
-        <v>-1.6572</v>
+        <v>3.3409</v>
       </c>
       <c r="D272">
-        <v>1.3292</v>
+        <v>0.4889</v>
       </c>
       <c r="E272">
         <v>1</v>
@@ -5024,13 +5024,13 @@
         <v>3.3672</v>
       </c>
       <c r="C273">
-        <v>-1.5439</v>
+        <v>5.5723</v>
       </c>
       <c r="D273">
-        <v>0.9598</v>
+        <v>-6.0214</v>
       </c>
       <c r="E273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5041,10 +5041,10 @@
         <v>3.3672</v>
       </c>
       <c r="C274">
-        <v>-1.3293</v>
+        <v>2.7604</v>
       </c>
       <c r="D274">
-        <v>1.0165</v>
+        <v>-0.8386</v>
       </c>
       <c r="E274">
         <v>1</v>
@@ -5058,10 +5058,10 @@
         <v>3.3672</v>
       </c>
       <c r="C275">
-        <v>-1.2041</v>
+        <v>2.4041</v>
       </c>
       <c r="D275">
-        <v>1.1053</v>
+        <v>-1.5219</v>
       </c>
       <c r="E275">
         <v>1</v>
@@ -5075,13 +5075,13 @@
         <v>3.3672</v>
       </c>
       <c r="C276">
-        <v>-0.6256</v>
+        <v>2.1043</v>
       </c>
       <c r="D276">
-        <v>-3.0424</v>
+        <v>-1.9874</v>
       </c>
       <c r="E276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5092,13 +5092,13 @@
         <v>3.0046</v>
       </c>
       <c r="C277">
-        <v>1.8796</v>
+        <v>2.2773</v>
       </c>
       <c r="D277">
-        <v>-1.6701</v>
+        <v>-5.0199</v>
       </c>
       <c r="E277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5109,10 +5109,10 @@
         <v>3.0046</v>
       </c>
       <c r="C278">
-        <v>1.8037</v>
+        <v>3.6978</v>
       </c>
       <c r="D278">
-        <v>-1.1894</v>
+        <v>0.8984</v>
       </c>
       <c r="E278">
         <v>1</v>
@@ -5126,10 +5126,10 @@
         <v>3.0046</v>
       </c>
       <c r="C279">
-        <v>6.6864</v>
+        <v>7.7555</v>
       </c>
       <c r="D279">
-        <v>-11.8683</v>
+        <v>7.7536</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -5143,13 +5143,13 @@
         <v>3.0046</v>
       </c>
       <c r="C280">
-        <v>-0.804</v>
+        <v>3.8909</v>
       </c>
       <c r="D280">
-        <v>-7.6779</v>
+        <v>0.9161</v>
       </c>
       <c r="E280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5160,10 +5160,10 @@
         <v>3.0046</v>
       </c>
       <c r="C281">
-        <v>1.221</v>
+        <v>4.1181</v>
       </c>
       <c r="D281">
-        <v>-0.0654</v>
+        <v>1.0601</v>
       </c>
       <c r="E281">
         <v>1</v>
@@ -5177,10 +5177,10 @@
         <v>3.0046</v>
       </c>
       <c r="C282">
-        <v>1.5916</v>
+        <v>4.0359</v>
       </c>
       <c r="D282">
-        <v>1.2066</v>
+        <v>1.2953</v>
       </c>
       <c r="E282">
         <v>1</v>
@@ -5194,13 +5194,13 @@
         <v>3.0046</v>
       </c>
       <c r="C283">
-        <v>-2.0082</v>
+        <v>3.6031</v>
       </c>
       <c r="D283">
-        <v>1.2786</v>
+        <v>0.8641</v>
       </c>
       <c r="E283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5211,13 +5211,13 @@
         <v>3.0046</v>
       </c>
       <c r="C284">
-        <v>0.8362000000000001</v>
+        <v>9.676399999999999</v>
       </c>
       <c r="D284">
-        <v>3.2197</v>
+        <v>-0.5531</v>
       </c>
       <c r="E284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5228,13 +5228,13 @@
         <v>3.0046</v>
       </c>
       <c r="C285">
-        <v>1.0836</v>
+        <v>-9.570399999999999</v>
       </c>
       <c r="D285">
-        <v>3.8869</v>
+        <v>-7.2137</v>
       </c>
       <c r="E285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5245,10 +5245,10 @@
         <v>3.0046</v>
       </c>
       <c r="C286">
-        <v>1.0774</v>
+        <v>1.857</v>
       </c>
       <c r="D286">
-        <v>3.8971</v>
+        <v>0.5953000000000001</v>
       </c>
       <c r="E286">
         <v>1</v>
@@ -5262,10 +5262,10 @@
         <v>3.0046</v>
       </c>
       <c r="C287">
-        <v>0.5686</v>
+        <v>1.2442</v>
       </c>
       <c r="D287">
-        <v>4.1997</v>
+        <v>1.1563</v>
       </c>
       <c r="E287">
         <v>1</v>
@@ -5279,13 +5279,13 @@
         <v>3.0046</v>
       </c>
       <c r="C288">
-        <v>7.6525</v>
+        <v>0.7339</v>
       </c>
       <c r="D288">
-        <v>5.1073</v>
+        <v>1.3246</v>
       </c>
       <c r="E288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5296,10 +5296,10 @@
         <v>3.0046</v>
       </c>
       <c r="C289">
-        <v>0.223</v>
+        <v>0.5293</v>
       </c>
       <c r="D289">
-        <v>2.4071</v>
+        <v>1.5135</v>
       </c>
       <c r="E289">
         <v>1</v>
@@ -5313,13 +5313,13 @@
         <v>3.0046</v>
       </c>
       <c r="C290">
-        <v>-0.0354</v>
+        <v>-7.6501</v>
       </c>
       <c r="D290">
-        <v>1.6804</v>
+        <v>7.6693</v>
       </c>
       <c r="E290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5330,10 +5330,10 @@
         <v>3.0046</v>
       </c>
       <c r="C291">
-        <v>-6.3706</v>
+        <v>12.3817</v>
       </c>
       <c r="D291">
-        <v>12.3823</v>
+        <v>-0.0357</v>
       </c>
       <c r="E291">
         <v>0</v>
@@ -5347,10 +5347,10 @@
         <v>3.0046</v>
       </c>
       <c r="C292">
-        <v>-0.6609</v>
+        <v>0.9416</v>
       </c>
       <c r="D292">
-        <v>0.106</v>
+        <v>2.9932</v>
       </c>
       <c r="E292">
         <v>1</v>
@@ -5364,10 +5364,10 @@
         <v>3.0046</v>
       </c>
       <c r="C293">
-        <v>-0.9718</v>
+        <v>1.7863</v>
       </c>
       <c r="D293">
-        <v>0.0633</v>
+        <v>2.8981</v>
       </c>
       <c r="E293">
         <v>1</v>
@@ -5381,10 +5381,10 @@
         <v>3.0046</v>
       </c>
       <c r="C294">
-        <v>-0.6724</v>
+        <v>2.535</v>
       </c>
       <c r="D294">
-        <v>0.2718</v>
+        <v>2.4605</v>
       </c>
       <c r="E294">
         <v>1</v>
@@ -5398,10 +5398,10 @@
         <v>3.0046</v>
       </c>
       <c r="C295">
-        <v>-0.6226</v>
+        <v>2.9264</v>
       </c>
       <c r="D295">
-        <v>0.5262</v>
+        <v>1.7592</v>
       </c>
       <c r="E295">
         <v>1</v>
@@ -5415,13 +5415,13 @@
         <v>3.0046</v>
       </c>
       <c r="C296">
-        <v>-1.2072</v>
+        <v>8.4277</v>
       </c>
       <c r="D296">
-        <v>1.1157</v>
+        <v>-0.6267</v>
       </c>
       <c r="E296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5432,10 +5432,10 @@
         <v>3.0046</v>
       </c>
       <c r="C297">
-        <v>-1.0979</v>
+        <v>3.2435</v>
       </c>
       <c r="D297">
-        <v>1.2766</v>
+        <v>0.4174</v>
       </c>
       <c r="E297">
         <v>1</v>
@@ -5449,10 +5449,10 @@
         <v>3.0046</v>
       </c>
       <c r="C298">
-        <v>-1.3475</v>
+        <v>2.9683</v>
       </c>
       <c r="D298">
-        <v>1.1963</v>
+        <v>-0.4874</v>
       </c>
       <c r="E298">
         <v>1</v>
@@ -5466,13 +5466,13 @@
         <v>3.0046</v>
       </c>
       <c r="C299">
-        <v>-1.138</v>
+        <v>-0.369</v>
       </c>
       <c r="D299">
-        <v>1.5026</v>
+        <v>-0.9634</v>
       </c>
       <c r="E299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5483,10 +5483,10 @@
         <v>3.0046</v>
       </c>
       <c r="C300">
-        <v>-1.0425</v>
+        <v>2.0158</v>
       </c>
       <c r="D300">
-        <v>1.7345</v>
+        <v>-1.1768</v>
       </c>
       <c r="E300">
         <v>1</v>
@@ -5500,13 +5500,13 @@
         <v>3.0046</v>
       </c>
       <c r="C301">
-        <v>-0.3735</v>
+        <v>1.5927</v>
       </c>
       <c r="D301">
-        <v>-2.8043</v>
+        <v>-1.5899</v>
       </c>
       <c r="E301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5517,10 +5517,10 @@
         <v>2.6419</v>
       </c>
       <c r="C302">
-        <v>5.0144</v>
+        <v>2.8192</v>
       </c>
       <c r="D302">
-        <v>7.9375</v>
+        <v>-7.7481</v>
       </c>
       <c r="E302">
         <v>0</v>
@@ -5534,10 +5534,10 @@
         <v>2.6419</v>
       </c>
       <c r="C303">
-        <v>-4.0935</v>
+        <v>-15.1575</v>
       </c>
       <c r="D303">
-        <v>7.8622</v>
+        <v>-7.7425</v>
       </c>
       <c r="E303">
         <v>0</v>
@@ -5551,10 +5551,10 @@
         <v>2.6419</v>
       </c>
       <c r="C304">
-        <v>0.9378</v>
+        <v>4.0654</v>
       </c>
       <c r="D304">
-        <v>-1.5613</v>
+        <v>0.3582</v>
       </c>
       <c r="E304">
         <v>1</v>
@@ -5568,13 +5568,13 @@
         <v>2.6419</v>
       </c>
       <c r="C305">
-        <v>1.0519</v>
+        <v>7.2938</v>
       </c>
       <c r="D305">
-        <v>-1.2609</v>
+        <v>4.8295</v>
       </c>
       <c r="E305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5585,10 +5585,10 @@
         <v>2.6419</v>
       </c>
       <c r="C306">
-        <v>0.5661</v>
+        <v>4.4858</v>
       </c>
       <c r="D306">
-        <v>-0.1315</v>
+        <v>0.7048</v>
       </c>
       <c r="E306">
         <v>1</v>
@@ -5602,13 +5602,13 @@
         <v>2.6419</v>
       </c>
       <c r="C307">
-        <v>0.988</v>
+        <v>10.9954</v>
       </c>
       <c r="D307">
-        <v>1.2328</v>
+        <v>10.4263</v>
       </c>
       <c r="E307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5619,10 +5619,10 @@
         <v>2.6419</v>
       </c>
       <c r="C308">
-        <v>0.7215</v>
+        <v>5.0615</v>
       </c>
       <c r="D308">
-        <v>2.2946</v>
+        <v>0.851</v>
       </c>
       <c r="E308">
         <v>1</v>
@@ -5636,10 +5636,10 @@
         <v>2.6419</v>
       </c>
       <c r="C309">
-        <v>0.2974</v>
+        <v>4.6083</v>
       </c>
       <c r="D309">
-        <v>3.3779</v>
+        <v>1.3365</v>
       </c>
       <c r="E309">
         <v>1</v>
@@ -5653,10 +5653,10 @@
         <v>2.6419</v>
       </c>
       <c r="C310">
-        <v>12.814</v>
+        <v>-8.315200000000001</v>
       </c>
       <c r="D310">
-        <v>14.6914</v>
+        <v>9.3512</v>
       </c>
       <c r="E310">
         <v>0</v>
@@ -5670,13 +5670,13 @@
         <v>2.6419</v>
       </c>
       <c r="C311">
-        <v>-3.3978</v>
+        <v>3.6881</v>
       </c>
       <c r="D311">
-        <v>7.7168</v>
+        <v>1.2519</v>
       </c>
       <c r="E311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5687,13 +5687,13 @@
         <v>2.6419</v>
       </c>
       <c r="C312">
-        <v>-7.5992</v>
+        <v>2.7153</v>
       </c>
       <c r="D312">
-        <v>7.7985</v>
+        <v>1.445</v>
       </c>
       <c r="E312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5704,10 +5704,10 @@
         <v>2.6419</v>
       </c>
       <c r="C313">
-        <v>0.6598000000000001</v>
+        <v>2.1978</v>
       </c>
       <c r="D313">
-        <v>4.3391</v>
+        <v>1.7805</v>
       </c>
       <c r="E313">
         <v>1</v>
@@ -5721,13 +5721,13 @@
         <v>2.6419</v>
       </c>
       <c r="C314">
-        <v>0.5165999999999999</v>
+        <v>-5.7648</v>
       </c>
       <c r="D314">
-        <v>3.1249</v>
+        <v>5.6343</v>
       </c>
       <c r="E314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5738,13 +5738,13 @@
         <v>2.6419</v>
       </c>
       <c r="C315">
-        <v>-4.0298</v>
+        <v>0.7877</v>
       </c>
       <c r="D315">
-        <v>-2.6474</v>
+        <v>2.5796</v>
       </c>
       <c r="E315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5755,13 +5755,13 @@
         <v>2.6419</v>
       </c>
       <c r="C316">
-        <v>-4.6819</v>
+        <v>1.0452</v>
       </c>
       <c r="D316">
-        <v>-1.4193</v>
+        <v>2.4944</v>
       </c>
       <c r="E316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5772,10 +5772,10 @@
         <v>2.6419</v>
       </c>
       <c r="C317">
-        <v>-0.3996</v>
+        <v>1.2092</v>
       </c>
       <c r="D317">
-        <v>0.1176</v>
+        <v>2.8387</v>
       </c>
       <c r="E317">
         <v>1</v>
@@ -5789,10 +5789,10 @@
         <v>2.6419</v>
       </c>
       <c r="C318">
-        <v>-0.7018</v>
+        <v>1.8138</v>
       </c>
       <c r="D318">
-        <v>-0.0041</v>
+        <v>2.8252</v>
       </c>
       <c r="E318">
         <v>1</v>
@@ -5806,10 +5806,10 @@
         <v>2.6419</v>
       </c>
       <c r="C319">
-        <v>-0.3771</v>
+        <v>2.7174</v>
       </c>
       <c r="D319">
-        <v>-0.1739</v>
+        <v>2.5119</v>
       </c>
       <c r="E319">
         <v>1</v>
@@ -5823,10 +5823,10 @@
         <v>2.6419</v>
       </c>
       <c r="C320">
-        <v>-1.6274</v>
+        <v>9.4055</v>
       </c>
       <c r="D320">
-        <v>-7.6378</v>
+        <v>0.0709</v>
       </c>
       <c r="E320">
         <v>0</v>
@@ -5840,13 +5840,13 @@
         <v>2.6419</v>
       </c>
       <c r="C321">
-        <v>-0.8697</v>
+        <v>6.7691</v>
       </c>
       <c r="D321">
-        <v>0.3652</v>
+        <v>3.0853</v>
       </c>
       <c r="E321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5857,13 +5857,13 @@
         <v>2.6419</v>
       </c>
       <c r="C322">
-        <v>-4.3065</v>
+        <v>3.2298</v>
       </c>
       <c r="D322">
-        <v>-2.3409</v>
+        <v>0.5356</v>
       </c>
       <c r="E322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5874,13 +5874,13 @@
         <v>2.6419</v>
       </c>
       <c r="C323">
-        <v>-6.4474</v>
+        <v>2.8514</v>
       </c>
       <c r="D323">
-        <v>0.6341</v>
+        <v>-0.3004</v>
       </c>
       <c r="E323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5891,10 +5891,10 @@
         <v>2.6419</v>
       </c>
       <c r="C324">
-        <v>-0.9221</v>
+        <v>2.3884</v>
       </c>
       <c r="D324">
-        <v>1.1685</v>
+        <v>-0.4912</v>
       </c>
       <c r="E324">
         <v>1</v>
@@ -5908,10 +5908,10 @@
         <v>2.6419</v>
       </c>
       <c r="C325">
-        <v>-0.8639</v>
+        <v>1.8049</v>
       </c>
       <c r="D325">
-        <v>1.2485</v>
+        <v>-0.9407</v>
       </c>
       <c r="E325">
         <v>1</v>
@@ -5925,13 +5925,13 @@
         <v>2.6419</v>
       </c>
       <c r="C326">
-        <v>-1.6351</v>
+        <v>2.0234</v>
       </c>
       <c r="D326">
-        <v>1.4256</v>
+        <v>-7.666</v>
       </c>
       <c r="E326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -5942,10 +5942,10 @@
         <v>2.2793</v>
       </c>
       <c r="C327">
-        <v>1.2985</v>
+        <v>2.3947</v>
       </c>
       <c r="D327">
-        <v>-2.0516</v>
+        <v>0.6849</v>
       </c>
       <c r="E327">
         <v>1</v>
@@ -5959,10 +5959,10 @@
         <v>2.2793</v>
       </c>
       <c r="C328">
-        <v>1.1279</v>
+        <v>2.9308</v>
       </c>
       <c r="D328">
-        <v>-1.8835</v>
+        <v>0.4567</v>
       </c>
       <c r="E328">
         <v>1</v>
@@ -5976,13 +5976,13 @@
         <v>2.2793</v>
       </c>
       <c r="C329">
-        <v>5.1456</v>
+        <v>3.2963</v>
       </c>
       <c r="D329">
-        <v>7.5953</v>
+        <v>0.7671</v>
       </c>
       <c r="E329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -5993,10 +5993,10 @@
         <v>2.2793</v>
       </c>
       <c r="C330">
-        <v>0.7485000000000001</v>
+        <v>3.5208</v>
       </c>
       <c r="D330">
-        <v>-1.1119</v>
+        <v>0.8481</v>
       </c>
       <c r="E330">
         <v>1</v>
@@ -6010,10 +6010,10 @@
         <v>2.2793</v>
       </c>
       <c r="C331">
-        <v>0.4949</v>
+        <v>3.9954</v>
       </c>
       <c r="D331">
-        <v>-0.3421</v>
+        <v>0.9883999999999999</v>
       </c>
       <c r="E331">
         <v>1</v>
@@ -6027,10 +6027,10 @@
         <v>2.2793</v>
       </c>
       <c r="C332">
-        <v>0.8164</v>
+        <v>4.2212</v>
       </c>
       <c r="D332">
-        <v>0.9609</v>
+        <v>1.2259</v>
       </c>
       <c r="E332">
         <v>1</v>
@@ -6044,10 +6044,10 @@
         <v>2.2793</v>
       </c>
       <c r="C333">
-        <v>0.5750999999999999</v>
+        <v>4.653</v>
       </c>
       <c r="D333">
-        <v>2.1069</v>
+        <v>1.2883</v>
       </c>
       <c r="E333">
         <v>1</v>
@@ -6061,10 +6061,10 @@
         <v>2.2793</v>
       </c>
       <c r="C334">
-        <v>0.2212</v>
+        <v>4.1036</v>
       </c>
       <c r="D334">
-        <v>3.4467</v>
+        <v>1.463</v>
       </c>
       <c r="E334">
         <v>1</v>
@@ -6078,13 +6078,13 @@
         <v>2.2793</v>
       </c>
       <c r="C335">
-        <v>0.6334</v>
+        <v>8.808299999999999</v>
       </c>
       <c r="D335">
-        <v>4.7153</v>
+        <v>0.091</v>
       </c>
       <c r="E335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6095,10 +6095,10 @@
         <v>2.2793</v>
       </c>
       <c r="C336">
-        <v>0.7179</v>
+        <v>3.5396</v>
       </c>
       <c r="D336">
-        <v>5.1234</v>
+        <v>1.4038</v>
       </c>
       <c r="E336">
         <v>1</v>
@@ -6112,13 +6112,13 @@
         <v>2.2793</v>
       </c>
       <c r="C337">
-        <v>-7.5801</v>
+        <v>2.2739</v>
       </c>
       <c r="D337">
-        <v>7.7846</v>
+        <v>1.8249</v>
       </c>
       <c r="E337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6129,13 +6129,13 @@
         <v>2.2793</v>
       </c>
       <c r="C338">
-        <v>0.3094</v>
+        <v>12.7288</v>
       </c>
       <c r="D338">
-        <v>4.8937</v>
+        <v>-11.5372</v>
       </c>
       <c r="E338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6146,10 +6146,10 @@
         <v>2.2793</v>
       </c>
       <c r="C339">
-        <v>0.2046</v>
+        <v>1.4826</v>
       </c>
       <c r="D339">
-        <v>3.6943</v>
+        <v>2.2658</v>
       </c>
       <c r="E339">
         <v>1</v>
@@ -6163,10 +6163,10 @@
         <v>2.2793</v>
       </c>
       <c r="C340">
-        <v>-2.6289</v>
+        <v>5.4203</v>
       </c>
       <c r="D340">
-        <v>7.917</v>
+        <v>-1.274</v>
       </c>
       <c r="E340">
         <v>0</v>
@@ -6180,10 +6180,10 @@
         <v>2.2793</v>
       </c>
       <c r="C341">
-        <v>0.4022</v>
+        <v>1.0067</v>
       </c>
       <c r="D341">
-        <v>1.7092</v>
+        <v>2.7711</v>
       </c>
       <c r="E341">
         <v>1</v>
@@ -6197,10 +6197,10 @@
         <v>2.2793</v>
       </c>
       <c r="C342">
-        <v>7.6036</v>
+        <v>-14.5701</v>
       </c>
       <c r="D342">
-        <v>6.3977</v>
+        <v>-11.9043</v>
       </c>
       <c r="E342">
         <v>0</v>
@@ -6214,10 +6214,10 @@
         <v>2.2793</v>
       </c>
       <c r="C343">
-        <v>-0.0141</v>
+        <v>1.5329</v>
       </c>
       <c r="D343">
-        <v>0.0624</v>
+        <v>2.98</v>
       </c>
       <c r="E343">
         <v>1</v>
@@ -6231,13 +6231,13 @@
         <v>2.2793</v>
       </c>
       <c r="C344">
-        <v>0.3424</v>
+        <v>6.9362</v>
       </c>
       <c r="D344">
-        <v>-0.4717</v>
+        <v>11.9966</v>
       </c>
       <c r="E344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6248,10 +6248,10 @@
         <v>2.2793</v>
       </c>
       <c r="C345">
-        <v>-3.2453</v>
+        <v>7.8667</v>
       </c>
       <c r="D345">
-        <v>-1.4108</v>
+        <v>0.0728</v>
       </c>
       <c r="E345">
         <v>0</v>
@@ -6265,13 +6265,13 @@
         <v>2.2793</v>
       </c>
       <c r="C346">
-        <v>-0.168</v>
+        <v>7.7623</v>
       </c>
       <c r="D346">
-        <v>0.097</v>
+        <v>0.1008</v>
       </c>
       <c r="E346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6282,13 +6282,13 @@
         <v>2.2793</v>
       </c>
       <c r="C347">
-        <v>2.3957</v>
+        <v>3.0525</v>
       </c>
       <c r="D347">
-        <v>7.7127</v>
+        <v>0.4984</v>
       </c>
       <c r="E347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6299,13 +6299,13 @@
         <v>2.2793</v>
       </c>
       <c r="C348">
-        <v>-0.5531</v>
+        <v>0.948</v>
       </c>
       <c r="D348">
-        <v>0.8663999999999999</v>
+        <v>-0.2212</v>
       </c>
       <c r="E348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6316,10 +6316,10 @@
         <v>2.2793</v>
       </c>
       <c r="C349">
-        <v>-0.6504</v>
+        <v>2.1307</v>
       </c>
       <c r="D349">
-        <v>1.1759</v>
+        <v>-0.3611</v>
       </c>
       <c r="E349">
         <v>1</v>
@@ -6333,10 +6333,10 @@
         <v>2.2793</v>
       </c>
       <c r="C350">
-        <v>-0.8464</v>
+        <v>1.5234</v>
       </c>
       <c r="D350">
-        <v>1.5143</v>
+        <v>-0.7847</v>
       </c>
       <c r="E350">
         <v>1</v>
@@ -6350,13 +6350,13 @@
         <v>2.2793</v>
       </c>
       <c r="C351">
-        <v>-1.4297</v>
+        <v>0.1721</v>
       </c>
       <c r="D351">
-        <v>2.0703</v>
+        <v>-0.7415</v>
       </c>
       <c r="E351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6367,13 +6367,13 @@
         <v>1.9167</v>
       </c>
       <c r="C352">
-        <v>0.9842</v>
+        <v>3.2741</v>
       </c>
       <c r="D352">
-        <v>-1.9134</v>
+        <v>7.7391</v>
       </c>
       <c r="E352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6384,10 +6384,10 @@
         <v>1.9167</v>
       </c>
       <c r="C353">
-        <v>0.8426</v>
+        <v>2.6796</v>
       </c>
       <c r="D353">
-        <v>-1.8181</v>
+        <v>0.3017</v>
       </c>
       <c r="E353">
         <v>1</v>
@@ -6401,10 +6401,10 @@
         <v>1.9167</v>
       </c>
       <c r="C354">
-        <v>0.8879</v>
+        <v>2.9501</v>
       </c>
       <c r="D354">
-        <v>-1.3331</v>
+        <v>0.6611</v>
       </c>
       <c r="E354">
         <v>1</v>
@@ -6418,10 +6418,10 @@
         <v>1.9167</v>
       </c>
       <c r="C355">
-        <v>0.7578</v>
+        <v>3.2772</v>
       </c>
       <c r="D355">
-        <v>-0.8915</v>
+        <v>0.7473</v>
       </c>
       <c r="E355">
         <v>1</v>
@@ -6435,10 +6435,10 @@
         <v>1.9167</v>
       </c>
       <c r="C356">
-        <v>0.7382</v>
+        <v>3.7726</v>
       </c>
       <c r="D356">
-        <v>-0.2092</v>
+        <v>1.061</v>
       </c>
       <c r="E356">
         <v>1</v>
@@ -6452,10 +6452,10 @@
         <v>1.9167</v>
       </c>
       <c r="C357">
-        <v>1.0315</v>
+        <v>4.1596</v>
       </c>
       <c r="D357">
-        <v>0.85</v>
+        <v>1.3302</v>
       </c>
       <c r="E357">
         <v>1</v>
@@ -6469,10 +6469,10 @@
         <v>1.9167</v>
       </c>
       <c r="C358">
-        <v>0.8384</v>
+        <v>4.674</v>
       </c>
       <c r="D358">
-        <v>2.0949</v>
+        <v>1.5525</v>
       </c>
       <c r="E358">
         <v>1</v>
@@ -6486,13 +6486,13 @@
         <v>1.9167</v>
       </c>
       <c r="C359">
-        <v>8.4885</v>
+        <v>4.6444</v>
       </c>
       <c r="D359">
-        <v>7.6792</v>
+        <v>1.4687</v>
       </c>
       <c r="E359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6503,13 +6503,13 @@
         <v>1.9167</v>
       </c>
       <c r="C360">
-        <v>-4.3405</v>
+        <v>4.6468</v>
       </c>
       <c r="D360">
-        <v>7.6243</v>
+        <v>1.4335</v>
       </c>
       <c r="E360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6520,13 +6520,13 @@
         <v>1.9167</v>
       </c>
       <c r="C361">
-        <v>0.745</v>
+        <v>10.4403</v>
       </c>
       <c r="D361">
-        <v>5.2421</v>
+        <v>0.361</v>
       </c>
       <c r="E361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6537,10 +6537,10 @@
         <v>1.9167</v>
       </c>
       <c r="C362">
-        <v>0.654</v>
+        <v>3.3967</v>
       </c>
       <c r="D362">
-        <v>5.4373</v>
+        <v>1.7883</v>
       </c>
       <c r="E362">
         <v>1</v>
@@ -6554,10 +6554,10 @@
         <v>1.9167</v>
       </c>
       <c r="C363">
-        <v>0.5109</v>
+        <v>3.2038</v>
       </c>
       <c r="D363">
-        <v>5.5805</v>
+        <v>1.9166</v>
       </c>
       <c r="E363">
         <v>1</v>
@@ -6571,13 +6571,13 @@
         <v>1.9167</v>
       </c>
       <c r="C364">
-        <v>-7.7068</v>
+        <v>2.9247</v>
       </c>
       <c r="D364">
-        <v>10.643</v>
+        <v>1.8287</v>
       </c>
       <c r="E364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6588,10 +6588,10 @@
         <v>1.9167</v>
       </c>
       <c r="C365">
-        <v>0.3929</v>
+        <v>1.9908</v>
       </c>
       <c r="D365">
-        <v>3.4062</v>
+        <v>2.438</v>
       </c>
       <c r="E365">
         <v>1</v>
@@ -6605,13 +6605,13 @@
         <v>1.9167</v>
       </c>
       <c r="C366">
-        <v>0.9696</v>
+        <v>10.2862</v>
       </c>
       <c r="D366">
-        <v>2.4134</v>
+        <v>3.7457</v>
       </c>
       <c r="E366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6622,13 +6622,13 @@
         <v>1.9167</v>
       </c>
       <c r="C367">
-        <v>7.6902</v>
+        <v>2.0364</v>
       </c>
       <c r="D367">
-        <v>-13.6912</v>
+        <v>2.5834</v>
       </c>
       <c r="E367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6639,13 +6639,13 @@
         <v>1.9167</v>
       </c>
       <c r="C368">
-        <v>0.8206</v>
+        <v>-10.5813</v>
       </c>
       <c r="D368">
-        <v>0.3815</v>
+        <v>14.9737</v>
       </c>
       <c r="E368">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6656,10 +6656,10 @@
         <v>1.9167</v>
       </c>
       <c r="C369">
-        <v>1.7142</v>
+        <v>7.5968</v>
       </c>
       <c r="D369">
-        <v>3.9309</v>
+        <v>-7.6066</v>
       </c>
       <c r="E369">
         <v>0</v>
@@ -6673,10 +6673,10 @@
         <v>1.9167</v>
       </c>
       <c r="C370">
-        <v>1.0099</v>
+        <v>2.6457</v>
       </c>
       <c r="D370">
-        <v>-0.3864</v>
+        <v>1.5482</v>
       </c>
       <c r="E370">
         <v>1</v>
@@ -6690,10 +6690,10 @@
         <v>1.9167</v>
       </c>
       <c r="C371">
-        <v>0.4758</v>
+        <v>2.5332</v>
       </c>
       <c r="D371">
-        <v>-0.0382</v>
+        <v>1.5649</v>
       </c>
       <c r="E371">
         <v>1</v>
@@ -6707,13 +6707,13 @@
         <v>1.9167</v>
       </c>
       <c r="C372">
-        <v>7.8538</v>
+        <v>2.6265</v>
       </c>
       <c r="D372">
-        <v>-9.530900000000001</v>
+        <v>0.5366</v>
       </c>
       <c r="E372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6724,13 +6724,13 @@
         <v>1.9167</v>
       </c>
       <c r="C373">
-        <v>1.7223</v>
+        <v>1.9719</v>
       </c>
       <c r="D373">
-        <v>15.0159</v>
+        <v>-0.0244</v>
       </c>
       <c r="E373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6741,10 +6741,10 @@
         <v>1.9167</v>
       </c>
       <c r="C374">
-        <v>-10.8707</v>
+        <v>-7.6033</v>
       </c>
       <c r="D374">
-        <v>2.4757</v>
+        <v>7.3003</v>
       </c>
       <c r="E374">
         <v>0</v>
@@ -6758,10 +6758,10 @@
         <v>1.9167</v>
       </c>
       <c r="C375">
-        <v>-0.6447000000000001</v>
+        <v>0.8284</v>
       </c>
       <c r="D375">
-        <v>1.8999</v>
+        <v>-0.624</v>
       </c>
       <c r="E375">
         <v>1</v>
@@ -6775,13 +6775,13 @@
         <v>1.9167</v>
       </c>
       <c r="C376">
-        <v>-1.352</v>
+        <v>0.5276999999999999</v>
       </c>
       <c r="D376">
-        <v>2.5931</v>
+        <v>-0.6973</v>
       </c>
       <c r="E376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6792,10 +6792,10 @@
         <v>1.5541</v>
       </c>
       <c r="C377">
-        <v>0.3253</v>
+        <v>0.0914</v>
       </c>
       <c r="D377">
-        <v>-3.7079</v>
+        <v>-0.5686</v>
       </c>
       <c r="E377">
         <v>0</v>
@@ -6809,13 +6809,13 @@
         <v>1.5541</v>
       </c>
       <c r="C378">
-        <v>0.4706</v>
+        <v>2.257</v>
       </c>
       <c r="D378">
-        <v>-3.7495</v>
+        <v>0.0356</v>
       </c>
       <c r="E378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6826,10 +6826,10 @@
         <v>1.5541</v>
       </c>
       <c r="C379">
-        <v>0.1784</v>
+        <v>2.5787</v>
       </c>
       <c r="D379">
-        <v>-1.3627</v>
+        <v>0.14</v>
       </c>
       <c r="E379">
         <v>1</v>
@@ -6843,13 +6843,13 @@
         <v>1.5541</v>
       </c>
       <c r="C380">
-        <v>0.1698</v>
+        <v>7.0867</v>
       </c>
       <c r="D380">
-        <v>-1.0115</v>
+        <v>-0.7128</v>
       </c>
       <c r="E380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6860,13 +6860,13 @@
         <v>1.5541</v>
       </c>
       <c r="C381">
-        <v>0.207</v>
+        <v>8.8314</v>
       </c>
       <c r="D381">
-        <v>-0.4435</v>
+        <v>-7.6495</v>
       </c>
       <c r="E381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6877,13 +6877,13 @@
         <v>1.5541</v>
       </c>
       <c r="C382">
-        <v>0.598</v>
+        <v>12.1874</v>
       </c>
       <c r="D382">
-        <v>0.6122</v>
+        <v>-7.6811</v>
       </c>
       <c r="E382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6894,10 +6894,10 @@
         <v>1.5541</v>
       </c>
       <c r="C383">
-        <v>0.6536999999999999</v>
+        <v>5.0661</v>
       </c>
       <c r="D383">
-        <v>1.5423</v>
+        <v>1.5402</v>
       </c>
       <c r="E383">
         <v>1</v>
@@ -6911,10 +6911,10 @@
         <v>1.5541</v>
       </c>
       <c r="C384">
-        <v>0.7639</v>
+        <v>5.2426</v>
       </c>
       <c r="D384">
-        <v>2.7638</v>
+        <v>1.6299</v>
       </c>
       <c r="E384">
         <v>1</v>
@@ -6928,10 +6928,10 @@
         <v>1.5541</v>
       </c>
       <c r="C385">
-        <v>1.1138</v>
+        <v>5.3833</v>
       </c>
       <c r="D385">
-        <v>4.1493</v>
+        <v>1.6872</v>
       </c>
       <c r="E385">
         <v>1</v>
@@ -6945,13 +6945,13 @@
         <v>1.5541</v>
       </c>
       <c r="C386">
-        <v>1.1699</v>
+        <v>14.2653</v>
       </c>
       <c r="D386">
-        <v>4.874</v>
+        <v>-7.1889</v>
       </c>
       <c r="E386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -6962,13 +6962,13 @@
         <v>1.5541</v>
       </c>
       <c r="C387">
-        <v>1.124</v>
+        <v>9.6906</v>
       </c>
       <c r="D387">
-        <v>5.2578</v>
+        <v>7.6156</v>
       </c>
       <c r="E387">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -6979,13 +6979,13 @@
         <v>1.5541</v>
       </c>
       <c r="C388">
-        <v>8.193199999999999</v>
+        <v>4.1268</v>
       </c>
       <c r="D388">
-        <v>13.2181</v>
+        <v>2.4437</v>
       </c>
       <c r="E388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -6996,13 +6996,13 @@
         <v>1.5541</v>
       </c>
       <c r="C389">
-        <v>1.2563</v>
+        <v>11.3871</v>
       </c>
       <c r="D389">
-        <v>4.4727</v>
+        <v>-0.6405</v>
       </c>
       <c r="E389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -7013,13 +7013,13 @@
         <v>1.5541</v>
       </c>
       <c r="C390">
-        <v>1.0989</v>
+        <v>-6.4265</v>
       </c>
       <c r="D390">
-        <v>3.5325</v>
+        <v>-2.7799</v>
       </c>
       <c r="E390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -7030,10 +7030,10 @@
         <v>1.5541</v>
       </c>
       <c r="C391">
-        <v>1.654</v>
+        <v>2.6357</v>
       </c>
       <c r="D391">
-        <v>2.5981</v>
+        <v>2.4861</v>
       </c>
       <c r="E391">
         <v>1</v>
@@ -7047,10 +7047,10 @@
         <v>1.5541</v>
       </c>
       <c r="C392">
-        <v>1.4133</v>
+        <v>2.6197</v>
       </c>
       <c r="D392">
-        <v>1.237</v>
+        <v>2.3977</v>
       </c>
       <c r="E392">
         <v>1</v>
@@ -7064,13 +7064,13 @@
         <v>1.5541</v>
       </c>
       <c r="C393">
-        <v>-5.2675</v>
+        <v>2.658</v>
       </c>
       <c r="D393">
-        <v>-7.7312</v>
+        <v>2.3381</v>
       </c>
       <c r="E393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -7081,10 +7081,10 @@
         <v>1.5541</v>
       </c>
       <c r="C394">
-        <v>1.7165</v>
+        <v>3.1534</v>
       </c>
       <c r="D394">
-        <v>-0.1365</v>
+        <v>1.7539</v>
       </c>
       <c r="E394">
         <v>1</v>
@@ -7098,10 +7098,10 @@
         <v>1.5541</v>
       </c>
       <c r="C395">
-        <v>1.3495</v>
+        <v>2.8725</v>
       </c>
       <c r="D395">
-        <v>-0.186</v>
+        <v>1.2657</v>
       </c>
       <c r="E395">
         <v>1</v>
@@ -7115,10 +7115,10 @@
         <v>1.5541</v>
       </c>
       <c r="C396">
-        <v>0.7838000000000001</v>
+        <v>2.6922</v>
       </c>
       <c r="D396">
-        <v>0.0828</v>
+        <v>1.3006</v>
       </c>
       <c r="E396">
         <v>1</v>
@@ -7132,13 +7132,13 @@
         <v>1.5541</v>
       </c>
       <c r="C397">
-        <v>7.7171</v>
+        <v>2.5419</v>
       </c>
       <c r="D397">
-        <v>-7.7615</v>
+        <v>0.1854</v>
       </c>
       <c r="E397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -7149,10 +7149,10 @@
         <v>1.5541</v>
       </c>
       <c r="C398">
-        <v>-0.0276</v>
+        <v>1.7459</v>
       </c>
       <c r="D398">
-        <v>1.1752</v>
+        <v>-0.2125</v>
       </c>
       <c r="E398">
         <v>1</v>
@@ -7166,10 +7166,10 @@
         <v>1.5541</v>
       </c>
       <c r="C399">
-        <v>-0.1775</v>
+        <v>1.1019</v>
       </c>
       <c r="D399">
-        <v>1.668</v>
+        <v>-0.2292</v>
       </c>
       <c r="E399">
         <v>1</v>
@@ -7183,13 +7183,13 @@
         <v>1.5541</v>
       </c>
       <c r="C400">
-        <v>-0.257</v>
+        <v>0.1186</v>
       </c>
       <c r="D400">
-        <v>1.8873</v>
+        <v>-0.9467</v>
       </c>
       <c r="E400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -7200,13 +7200,13 @@
         <v>1.5541</v>
       </c>
       <c r="C401">
-        <v>-1.0356</v>
+        <v>0.7536</v>
       </c>
       <c r="D401">
-        <v>2.6498</v>
+        <v>-0.7338</v>
       </c>
       <c r="E401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -7217,10 +7217,10 @@
         <v>1.1915</v>
       </c>
       <c r="C402">
-        <v>-0.0341</v>
+        <v>1.9094</v>
       </c>
       <c r="D402">
-        <v>-2.2604</v>
+        <v>0.4711</v>
       </c>
       <c r="E402">
         <v>1</v>
@@ -7234,13 +7234,13 @@
         <v>1.1915</v>
       </c>
       <c r="C403">
-        <v>0.4001</v>
+        <v>2.4164</v>
       </c>
       <c r="D403">
-        <v>-3.9946</v>
+        <v>0.4152</v>
       </c>
       <c r="E403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -7251,13 +7251,13 @@
         <v>1.1915</v>
       </c>
       <c r="C404">
-        <v>0.1147</v>
+        <v>-14.3602</v>
       </c>
       <c r="D404">
-        <v>-1.8776</v>
+        <v>-9.553800000000001</v>
       </c>
       <c r="E404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -7268,13 +7268,13 @@
         <v>1.1915</v>
       </c>
       <c r="C405">
-        <v>0.1115</v>
+        <v>8.1845</v>
       </c>
       <c r="D405">
-        <v>-1.5041</v>
+        <v>13.956</v>
       </c>
       <c r="E405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -7285,10 +7285,10 @@
         <v>1.1915</v>
       </c>
       <c r="C406">
-        <v>0.3031</v>
+        <v>3.3743</v>
       </c>
       <c r="D406">
-        <v>-0.7608</v>
+        <v>0.4715</v>
       </c>
       <c r="E406">
         <v>1</v>
@@ -7302,13 +7302,13 @@
         <v>1.1915</v>
       </c>
       <c r="C407">
-        <v>0.3567</v>
+        <v>-6.7189</v>
       </c>
       <c r="D407">
-        <v>0.3082</v>
+        <v>9.8636</v>
       </c>
       <c r="E407">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -7319,10 +7319,10 @@
         <v>1.1915</v>
       </c>
       <c r="C408">
-        <v>0.512</v>
+        <v>5.0681</v>
       </c>
       <c r="D408">
-        <v>1.1383</v>
+        <v>1.1659</v>
       </c>
       <c r="E408">
         <v>1</v>
@@ -7336,10 +7336,10 @@
         <v>1.1915</v>
       </c>
       <c r="C409">
-        <v>0.8425</v>
+        <v>5.3698</v>
       </c>
       <c r="D409">
-        <v>2.2991</v>
+        <v>1.3576</v>
       </c>
       <c r="E409">
         <v>1</v>
@@ -7353,10 +7353,10 @@
         <v>1.1915</v>
       </c>
       <c r="C410">
-        <v>1.2233</v>
+        <v>5.6184</v>
       </c>
       <c r="D410">
-        <v>3.7786</v>
+        <v>1.3711</v>
       </c>
       <c r="E410">
         <v>1</v>
@@ -7370,13 +7370,13 @@
         <v>1.1915</v>
       </c>
       <c r="C411">
-        <v>1.2979</v>
+        <v>-7.9785</v>
       </c>
       <c r="D411">
-        <v>4.6127</v>
+        <v>12.9808</v>
       </c>
       <c r="E411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -7387,10 +7387,10 @@
         <v>1.1915</v>
       </c>
       <c r="C412">
-        <v>1.3469</v>
+        <v>5.1001</v>
       </c>
       <c r="D412">
-        <v>5.2008</v>
+        <v>2.116</v>
       </c>
       <c r="E412">
         <v>1</v>
@@ -7404,10 +7404,10 @@
         <v>1.1915</v>
       </c>
       <c r="C413">
-        <v>1.5397</v>
+        <v>4.8638</v>
       </c>
       <c r="D413">
-        <v>5.5033</v>
+        <v>2.2814</v>
       </c>
       <c r="E413">
         <v>1</v>
@@ -7421,10 +7421,10 @@
         <v>1.1915</v>
       </c>
       <c r="C414">
-        <v>1.909</v>
+        <v>4.0204</v>
       </c>
       <c r="D414">
-        <v>4.8056</v>
+        <v>2.0862</v>
       </c>
       <c r="E414">
         <v>1</v>
@@ -7438,13 +7438,13 @@
         <v>1.1915</v>
       </c>
       <c r="C415">
-        <v>1.6779</v>
+        <v>-10.9702</v>
       </c>
       <c r="D415">
-        <v>3.9273</v>
+        <v>14.7903</v>
       </c>
       <c r="E415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -7455,13 +7455,13 @@
         <v>1.1915</v>
       </c>
       <c r="C416">
-        <v>2.1453</v>
+        <v>7.9161</v>
       </c>
       <c r="D416">
-        <v>3.0563</v>
+        <v>0.8507</v>
       </c>
       <c r="E416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -7472,10 +7472,10 @@
         <v>1.1915</v>
       </c>
       <c r="C417">
-        <v>1.9244</v>
+        <v>2.8313</v>
       </c>
       <c r="D417">
-        <v>1.7581</v>
+        <v>2.3235</v>
       </c>
       <c r="E417">
         <v>1</v>
@@ -7489,13 +7489,13 @@
         <v>1.1915</v>
       </c>
       <c r="C418">
-        <v>1.8214</v>
+        <v>-10.2901</v>
       </c>
       <c r="D418">
-        <v>1.0324</v>
+        <v>10.9467</v>
       </c>
       <c r="E418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -7506,10 +7506,10 @@
         <v>1.1915</v>
       </c>
       <c r="C419">
-        <v>2.3382</v>
+        <v>3.0527</v>
       </c>
       <c r="D419">
-        <v>0.2009</v>
+        <v>1.6778</v>
       </c>
       <c r="E419">
         <v>1</v>
@@ -7523,10 +7523,10 @@
         <v>1.1915</v>
       </c>
       <c r="C420">
-        <v>1.9521</v>
+        <v>2.6528</v>
       </c>
       <c r="D420">
-        <v>0.0944</v>
+        <v>1.177</v>
       </c>
       <c r="E420">
         <v>1</v>
@@ -7540,13 +7540,13 @@
         <v>1.1915</v>
       </c>
       <c r="C421">
-        <v>7.9594</v>
+        <v>2.4083</v>
       </c>
       <c r="D421">
-        <v>-7.6</v>
+        <v>1.3098</v>
       </c>
       <c r="E421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -7557,10 +7557,10 @@
         <v>1.1915</v>
       </c>
       <c r="C422">
-        <v>1.2923</v>
+        <v>2.2641</v>
       </c>
       <c r="D422">
-        <v>0.6429</v>
+        <v>0.1058</v>
       </c>
       <c r="E422">
         <v>1</v>
@@ -7574,10 +7574,10 @@
         <v>1.1915</v>
       </c>
       <c r="C423">
-        <v>0.3531</v>
+        <v>1.3628</v>
       </c>
       <c r="D423">
-        <v>1.4747</v>
+        <v>-0.1043</v>
       </c>
       <c r="E423">
         <v>1</v>
@@ -7591,10 +7591,10 @@
         <v>1.1915</v>
       </c>
       <c r="C424">
-        <v>0.1972</v>
+        <v>0.7604</v>
       </c>
       <c r="D424">
-        <v>1.8548</v>
+        <v>-0.0978</v>
       </c>
       <c r="E424">
         <v>1</v>
@@ -7608,13 +7608,13 @@
         <v>1.1915</v>
       </c>
       <c r="C425">
-        <v>0.1453</v>
+        <v>0.0066</v>
       </c>
       <c r="D425">
-        <v>2.1039</v>
+        <v>-0.4914</v>
       </c>
       <c r="E425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -7625,10 +7625,10 @@
         <v>1.1915</v>
       </c>
       <c r="C426">
-        <v>-0.8312</v>
+        <v>-0.4111</v>
       </c>
       <c r="D426">
-        <v>2.8716</v>
+        <v>-0.4744</v>
       </c>
       <c r="E426">
         <v>1</v>
@@ -7642,10 +7642,10 @@
         <v>0.8288</v>
       </c>
       <c r="C427">
-        <v>0.6022999999999999</v>
+        <v>8.7288</v>
       </c>
       <c r="D427">
-        <v>-3.3746</v>
+        <v>-1.7014</v>
       </c>
       <c r="E427">
         <v>0</v>
@@ -7659,10 +7659,10 @@
         <v>0.8288</v>
       </c>
       <c r="C428">
-        <v>0.2554</v>
+        <v>0.0408</v>
       </c>
       <c r="D428">
-        <v>-3.4078</v>
+        <v>-0.4872</v>
       </c>
       <c r="E428">
         <v>0</v>
@@ -7676,13 +7676,13 @@
         <v>0.8288</v>
       </c>
       <c r="C429">
-        <v>0.2445</v>
+        <v>2.4332</v>
       </c>
       <c r="D429">
-        <v>-3.6258</v>
+        <v>0.0299</v>
       </c>
       <c r="E429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -7693,10 +7693,10 @@
         <v>0.8288</v>
       </c>
       <c r="C430">
-        <v>0.3917</v>
+        <v>-0.0342</v>
       </c>
       <c r="D430">
-        <v>-3.6851</v>
+        <v>-0.5449000000000001</v>
       </c>
       <c r="E430">
         <v>0</v>
@@ -7710,13 +7710,13 @@
         <v>0.8288</v>
       </c>
       <c r="C431">
-        <v>0.1825</v>
+        <v>6.411</v>
       </c>
       <c r="D431">
-        <v>-1.2193</v>
+        <v>7.5836</v>
       </c>
       <c r="E431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -7727,10 +7727,10 @@
         <v>0.8288</v>
       </c>
       <c r="C432">
-        <v>0.2856</v>
+        <v>4.0182</v>
       </c>
       <c r="D432">
-        <v>-0.1799</v>
+        <v>0.5379</v>
       </c>
       <c r="E432">
         <v>1</v>
@@ -7744,10 +7744,10 @@
         <v>0.8288</v>
       </c>
       <c r="C433">
-        <v>0.5857</v>
+        <v>5.1697</v>
       </c>
       <c r="D433">
-        <v>0.844</v>
+        <v>1.1537</v>
       </c>
       <c r="E433">
         <v>1</v>
@@ -7761,10 +7761,10 @@
         <v>0.8288</v>
       </c>
       <c r="C434">
-        <v>1.2071</v>
+        <v>5.606</v>
       </c>
       <c r="D434">
-        <v>1.9337</v>
+        <v>1.3413</v>
       </c>
       <c r="E434">
         <v>1</v>
@@ -7778,10 +7778,10 @@
         <v>0.8288</v>
       </c>
       <c r="C435">
-        <v>1.6671</v>
+        <v>5.6519</v>
       </c>
       <c r="D435">
-        <v>3.4941</v>
+        <v>1.7164</v>
       </c>
       <c r="E435">
         <v>1</v>
@@ -7795,10 +7795,10 @@
         <v>0.8288</v>
       </c>
       <c r="C436">
-        <v>1.8023</v>
+        <v>6.112</v>
       </c>
       <c r="D436">
-        <v>4.4557</v>
+        <v>2.1649</v>
       </c>
       <c r="E436">
         <v>1</v>
@@ -7812,13 +7812,13 @@
         <v>0.8288</v>
       </c>
       <c r="C437">
-        <v>1.9285</v>
+        <v>9.013299999999999</v>
       </c>
       <c r="D437">
-        <v>5.0292</v>
+        <v>0.9368</v>
       </c>
       <c r="E437">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -7829,10 +7829,10 @@
         <v>0.8288</v>
       </c>
       <c r="C438">
-        <v>2.091</v>
+        <v>4.9595</v>
       </c>
       <c r="D438">
-        <v>5.5024</v>
+        <v>2.8022</v>
       </c>
       <c r="E438">
         <v>1</v>
@@ -7846,10 +7846,10 @@
         <v>0.8288</v>
       </c>
       <c r="C439">
-        <v>2.332</v>
+        <v>4.6154</v>
       </c>
       <c r="D439">
-        <v>4.6599</v>
+        <v>2.9107</v>
       </c>
       <c r="E439">
         <v>1</v>
@@ -7863,10 +7863,10 @@
         <v>0.8288</v>
       </c>
       <c r="C440">
-        <v>2.1031</v>
+        <v>3.4952</v>
       </c>
       <c r="D440">
-        <v>3.8532</v>
+        <v>3.6747</v>
       </c>
       <c r="E440">
         <v>1</v>
@@ -7880,13 +7880,13 @@
         <v>0.8288</v>
       </c>
       <c r="C441">
-        <v>7.5402</v>
+        <v>3.2936</v>
       </c>
       <c r="D441">
-        <v>11.7781</v>
+        <v>2.9304</v>
       </c>
       <c r="E441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -7897,13 +7897,13 @@
         <v>0.8288</v>
       </c>
       <c r="C442">
-        <v>2.2348</v>
+        <v>8.4475</v>
       </c>
       <c r="D442">
-        <v>1.7534</v>
+        <v>1.5202</v>
       </c>
       <c r="E442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -7914,10 +7914,10 @@
         <v>0.8288</v>
       </c>
       <c r="C443">
-        <v>2.1079</v>
+        <v>2.7201</v>
       </c>
       <c r="D443">
-        <v>1.0062</v>
+        <v>2.5958</v>
       </c>
       <c r="E443">
         <v>1</v>
@@ -7931,13 +7931,13 @@
         <v>0.8288</v>
       </c>
       <c r="C444">
-        <v>7.8622</v>
+        <v>3.3276</v>
       </c>
       <c r="D444">
-        <v>-0.5707</v>
+        <v>1.7827</v>
       </c>
       <c r="E444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -7948,13 +7948,13 @@
         <v>0.8288</v>
       </c>
       <c r="C445">
-        <v>2.1417</v>
+        <v>5.7135</v>
       </c>
       <c r="D445">
-        <v>-0.034</v>
+        <v>2.4995</v>
       </c>
       <c r="E445">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -7965,10 +7965,10 @@
         <v>0.8288</v>
       </c>
       <c r="C446">
-        <v>1.5182</v>
+        <v>2.034</v>
       </c>
       <c r="D446">
-        <v>0.4798</v>
+        <v>1.13</v>
       </c>
       <c r="E446">
         <v>1</v>
@@ -7982,10 +7982,10 @@
         <v>0.8288</v>
       </c>
       <c r="C447">
-        <v>1.547</v>
+        <v>1.8663</v>
       </c>
       <c r="D447">
-        <v>0.7685</v>
+        <v>-0.1762</v>
       </c>
       <c r="E447">
         <v>1</v>
@@ -7999,10 +7999,10 @@
         <v>0.8288</v>
       </c>
       <c r="C448">
-        <v>-1.5454</v>
+        <v>0.4173</v>
       </c>
       <c r="D448">
-        <v>5.6645</v>
+        <v>-0.6339</v>
       </c>
       <c r="E448">
         <v>0</v>
@@ -8016,13 +8016,13 @@
         <v>0.8288</v>
       </c>
       <c r="C449">
-        <v>0.2678</v>
+        <v>0.457</v>
       </c>
       <c r="D449">
-        <v>1.9945</v>
+        <v>-0.642</v>
       </c>
       <c r="E449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -8033,13 +8033,13 @@
         <v>0.8288</v>
       </c>
       <c r="C450">
-        <v>0.2037</v>
+        <v>-7.5543</v>
       </c>
       <c r="D450">
-        <v>2.1997</v>
+        <v>-3.6752</v>
       </c>
       <c r="E450">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -8050,10 +8050,10 @@
         <v>0.8288</v>
       </c>
       <c r="C451">
-        <v>-0.841</v>
+        <v>-0.6566</v>
       </c>
       <c r="D451">
-        <v>3.4252</v>
+        <v>-0.4321</v>
       </c>
       <c r="E451">
         <v>1</v>
@@ -8067,13 +8067,13 @@
         <v>0.4662</v>
       </c>
       <c r="C452">
-        <v>-0.9155</v>
+        <v>0.0726</v>
       </c>
       <c r="D452">
-        <v>-2.9624</v>
+        <v>-0.4723</v>
       </c>
       <c r="E452">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -8084,10 +8084,10 @@
         <v>0.4662</v>
       </c>
       <c r="C453">
-        <v>0.4255</v>
+        <v>0.0854</v>
       </c>
       <c r="D453">
-        <v>-3.3572</v>
+        <v>-0.4881</v>
       </c>
       <c r="E453">
         <v>0</v>
@@ -8101,13 +8101,13 @@
         <v>0.4662</v>
       </c>
       <c r="C454">
-        <v>0.2155</v>
+        <v>2.3231</v>
       </c>
       <c r="D454">
-        <v>-3.5384</v>
+        <v>-0.4856</v>
       </c>
       <c r="E454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -8118,13 +8118,13 @@
         <v>0.4662</v>
       </c>
       <c r="C455">
-        <v>-14.7374</v>
+        <v>2.7692</v>
       </c>
       <c r="D455">
-        <v>-1.4669</v>
+        <v>-0.2191</v>
       </c>
       <c r="E455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -8135,13 +8135,13 @@
         <v>0.4662</v>
       </c>
       <c r="C456">
-        <v>0.2159</v>
+        <v>3.3187</v>
       </c>
       <c r="D456">
-        <v>-3.6945</v>
+        <v>0.0791</v>
       </c>
       <c r="E456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -8152,10 +8152,10 @@
         <v>0.4662</v>
       </c>
       <c r="C457">
-        <v>0.2863</v>
+        <v>3.1056</v>
       </c>
       <c r="D457">
-        <v>-4.1705</v>
+        <v>-10.8983</v>
       </c>
       <c r="E457">
         <v>0</v>
@@ -8169,10 +8169,10 @@
         <v>0.4662</v>
       </c>
       <c r="C458">
-        <v>0.3214</v>
+        <v>5.2565</v>
       </c>
       <c r="D458">
-        <v>0.1217</v>
+        <v>1.0766</v>
       </c>
       <c r="E458">
         <v>1</v>
@@ -8186,13 +8186,13 @@
         <v>0.4662</v>
       </c>
       <c r="C459">
-        <v>0.1517</v>
+        <v>5.8228</v>
       </c>
       <c r="D459">
-        <v>-3.7659</v>
+        <v>1.2733</v>
       </c>
       <c r="E459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -8203,10 +8203,10 @@
         <v>0.4662</v>
       </c>
       <c r="C460">
-        <v>1.7909</v>
+        <v>5.8774</v>
       </c>
       <c r="D460">
-        <v>2.768</v>
+        <v>1.7257</v>
       </c>
       <c r="E460">
         <v>1</v>
@@ -8220,10 +8220,10 @@
         <v>0.4662</v>
       </c>
       <c r="C461">
-        <v>7.5655</v>
+        <v>10.7914</v>
       </c>
       <c r="D461">
-        <v>-3.3713</v>
+        <v>2.6872</v>
       </c>
       <c r="E461">
         <v>0</v>
@@ -8237,13 +8237,13 @@
         <v>0.4662</v>
       </c>
       <c r="C462">
-        <v>2.5751</v>
+        <v>8.9435</v>
       </c>
       <c r="D462">
-        <v>4.3373</v>
+        <v>7.1983</v>
       </c>
       <c r="E462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -8254,10 +8254,10 @@
         <v>0.4662</v>
       </c>
       <c r="C463">
-        <v>3.0331</v>
+        <v>4.9219</v>
       </c>
       <c r="D463">
-        <v>5.0786</v>
+        <v>3.0449</v>
       </c>
       <c r="E463">
         <v>1</v>
@@ -8271,10 +8271,10 @@
         <v>0.4662</v>
       </c>
       <c r="C464">
-        <v>2.9047</v>
+        <v>4.6172</v>
       </c>
       <c r="D464">
-        <v>4.7868</v>
+        <v>3.1283</v>
       </c>
       <c r="E464">
         <v>1</v>
@@ -8288,10 +8288,10 @@
         <v>0.4662</v>
       </c>
       <c r="C465">
-        <v>2.6003</v>
+        <v>3.9677</v>
       </c>
       <c r="D465">
-        <v>4.0775</v>
+        <v>3.5613</v>
       </c>
       <c r="E465">
         <v>1</v>
@@ -8305,10 +8305,10 @@
         <v>0.4662</v>
       </c>
       <c r="C466">
-        <v>2.9336</v>
+        <v>3.5219</v>
       </c>
       <c r="D466">
-        <v>3.2989</v>
+        <v>2.9656</v>
       </c>
       <c r="E466">
         <v>1</v>
@@ -8322,10 +8322,10 @@
         <v>0.4662</v>
       </c>
       <c r="C467">
-        <v>2.5983</v>
+        <v>3.4585</v>
       </c>
       <c r="D467">
-        <v>1.9235</v>
+        <v>2.4634</v>
       </c>
       <c r="E467">
         <v>1</v>
@@ -8339,13 +8339,13 @@
         <v>0.4662</v>
       </c>
       <c r="C468">
-        <v>2.1545</v>
+        <v>11.9521</v>
       </c>
       <c r="D468">
-        <v>1.393</v>
+        <v>7.8495</v>
       </c>
       <c r="E468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -8356,13 +8356,13 @@
         <v>0.4662</v>
       </c>
       <c r="C469">
-        <v>2.4499</v>
+        <v>8.002800000000001</v>
       </c>
       <c r="D469">
-        <v>0.6516</v>
+        <v>-4.6303</v>
       </c>
       <c r="E469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -8373,13 +8373,13 @@
         <v>0.4662</v>
       </c>
       <c r="C470">
-        <v>1.8832</v>
+        <v>7.7072</v>
       </c>
       <c r="D470">
-        <v>0.1794</v>
+        <v>-7.6752</v>
       </c>
       <c r="E470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -8390,13 +8390,13 @@
         <v>0.4662</v>
       </c>
       <c r="C471">
-        <v>-6.2352</v>
+        <v>2.5762</v>
       </c>
       <c r="D471">
-        <v>12.2716</v>
+        <v>0.7196</v>
       </c>
       <c r="E471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -8407,10 +8407,10 @@
         <v>0.4662</v>
       </c>
       <c r="C472">
-        <v>1.8524</v>
+        <v>2.0189</v>
       </c>
       <c r="D472">
-        <v>0.5683</v>
+        <v>-0.3482</v>
       </c>
       <c r="E472">
         <v>1</v>
@@ -8424,10 +8424,10 @@
         <v>0.4662</v>
       </c>
       <c r="C473">
-        <v>0.784</v>
+        <v>1.161</v>
       </c>
       <c r="D473">
-        <v>1.6129</v>
+        <v>-0.4551</v>
       </c>
       <c r="E473">
         <v>1</v>
@@ -8441,10 +8441,10 @@
         <v>0.4662</v>
       </c>
       <c r="C474">
-        <v>0.5407999999999999</v>
+        <v>0.5417</v>
       </c>
       <c r="D474">
-        <v>1.9718</v>
+        <v>-0.42</v>
       </c>
       <c r="E474">
         <v>1</v>
@@ -8458,10 +8458,10 @@
         <v>0.4662</v>
       </c>
       <c r="C475">
-        <v>0.516</v>
+        <v>0.1145</v>
       </c>
       <c r="D475">
-        <v>2.0913</v>
+        <v>-0.9108000000000001</v>
       </c>
       <c r="E475">
         <v>1</v>
@@ -8475,10 +8475,10 @@
         <v>0.4662</v>
       </c>
       <c r="C476">
-        <v>-0.2338</v>
+        <v>-0.4504</v>
       </c>
       <c r="D476">
-        <v>2.863</v>
+        <v>-0.8831</v>
       </c>
       <c r="E476">
         <v>1</v>
